--- a/output/questionnaires/2023-06-18_aargau.xlsx
+++ b/output/questionnaires/2023-06-18_aargau.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">Sheet1!$A$167:$M$190</definedName>
@@ -7757,6 +7757,112 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/output/questionnaires/2023-06-18_aargau.xlsx
+++ b/output/questionnaires/2023-06-18_aargau.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5419" uniqueCount="2145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5419" uniqueCount="2144">
   <si>
     <t xml:space="preserve">FOKUS-Aargau-Fragebogen für den Abstimmungstermin vom 18. Juni 2023</t>
   </si>
@@ -4041,9 +4041,6 @@
   </si>
   <si>
     <t xml:space="preserve">FDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Mitte</t>
   </si>
   <si>
     <t xml:space="preserve">Mitte</t>
@@ -7760,7 +7757,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
@@ -28897,7 +28894,7 @@
         <v>9</v>
       </c>
       <c r="K986" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="L986" s="8"/>
       <c r="M986" s="8"/>
@@ -28912,13 +28909,13 @@
       <c r="G987" s="8"/>
       <c r="H987" s="8"/>
       <c r="I987" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J987" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K987" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L987" s="8"/>
       <c r="M987" s="8"/>
@@ -28933,13 +28930,13 @@
       <c r="G988" s="8"/>
       <c r="H988" s="8"/>
       <c r="I988" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J988" s="4" t="n">
         <v>6</v>
       </c>
       <c r="K988" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L988" s="8"/>
       <c r="M988" s="8"/>
@@ -28954,13 +28951,13 @@
       <c r="G989" s="8"/>
       <c r="H989" s="8"/>
       <c r="I989" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="J989" s="4" t="n">
         <v>7</v>
       </c>
       <c r="K989" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="L989" s="8"/>
       <c r="M989" s="8"/>
@@ -28975,7 +28972,7 @@
       <c r="G990" s="8"/>
       <c r="H990" s="8"/>
       <c r="I990" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="J990" s="4" t="n">
         <v>90</v>
@@ -28996,13 +28993,13 @@
       <c r="G991" s="8"/>
       <c r="H991" s="8"/>
       <c r="I991" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="J991" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K991" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="L991" s="8"/>
       <c r="M991" s="8"/>
@@ -29033,34 +29030,34 @@
         <v>161</v>
       </c>
       <c r="B993" s="8" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C993" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D993" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E993" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F993" s="8" t="s">
         <v>1177</v>
       </c>
-      <c r="E993" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F993" s="8" t="s">
+      <c r="G993" s="8" t="s">
         <v>1178</v>
       </c>
-      <c r="G993" s="8" t="s">
+      <c r="H993" s="8" t="s">
         <v>1179</v>
       </c>
-      <c r="H993" s="8" t="s">
+      <c r="I993" s="4" t="s">
         <v>1180</v>
-      </c>
-      <c r="I993" s="4" t="s">
-        <v>1181</v>
       </c>
       <c r="J993" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K993" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L993" s="8" t="s">
         <v>95</v>
@@ -29163,13 +29160,13 @@
       <c r="G998" s="8"/>
       <c r="H998" s="8"/>
       <c r="I998" s="4" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="J998" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K998" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="L998" s="8"/>
       <c r="M998" s="8"/>
@@ -29268,13 +29265,13 @@
       <c r="G1003" s="8"/>
       <c r="H1003" s="8"/>
       <c r="I1003" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="J1003" s="4" t="n">
         <v>10</v>
       </c>
       <c r="K1003" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L1003" s="8"/>
       <c r="M1003" s="8"/>
@@ -29305,34 +29302,34 @@
         <v>162</v>
       </c>
       <c r="B1005" s="8" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C1005" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1005" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E1005" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1005" s="8" t="s">
         <v>1188</v>
       </c>
-      <c r="E1005" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1005" s="8" t="s">
+      <c r="G1005" s="8" t="s">
         <v>1189</v>
       </c>
-      <c r="G1005" s="8" t="s">
+      <c r="H1005" s="8" t="s">
         <v>1190</v>
       </c>
-      <c r="H1005" s="8" t="s">
+      <c r="I1005" s="4" t="s">
         <v>1191</v>
-      </c>
-      <c r="I1005" s="4" t="s">
-        <v>1192</v>
       </c>
       <c r="J1005" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K1005" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L1005" s="8" t="s">
         <v>95</v>
@@ -29367,7 +29364,7 @@
       <c r="B1007" s="8"/>
       <c r="C1007" s="8"/>
       <c r="D1007" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E1007" s="8"/>
       <c r="F1007" s="8"/>
@@ -29542,13 +29539,13 @@
       <c r="G1015" s="8"/>
       <c r="H1015" s="8"/>
       <c r="I1015" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="J1015" s="4" t="n">
         <v>10</v>
       </c>
       <c r="K1015" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="L1015" s="8"/>
       <c r="M1015" s="8"/>
@@ -29579,34 +29576,34 @@
         <v>163</v>
       </c>
       <c r="B1017" s="8" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C1017" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1017" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E1017" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1017" s="8" t="s">
         <v>1198</v>
       </c>
-      <c r="E1017" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1017" s="8" t="s">
+      <c r="G1017" s="8" t="s">
         <v>1199</v>
       </c>
-      <c r="G1017" s="8" t="s">
+      <c r="H1017" s="8" t="s">
         <v>1200</v>
       </c>
-      <c r="H1017" s="8" t="s">
-        <v>1201</v>
-      </c>
       <c r="I1017" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J1017" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K1017" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L1017" s="8" t="s">
         <v>95</v>
@@ -29814,13 +29811,13 @@
       <c r="G1027" s="8"/>
       <c r="H1027" s="8"/>
       <c r="I1027" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="J1027" s="4" t="n">
         <v>10</v>
       </c>
       <c r="K1027" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="L1027" s="8"/>
       <c r="M1027" s="8"/>
@@ -29851,34 +29848,34 @@
         <v>164</v>
       </c>
       <c r="B1029" s="8" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C1029" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1029" s="9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E1029" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1029" s="8" t="s">
         <v>1203</v>
       </c>
-      <c r="E1029" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1029" s="8" t="s">
+      <c r="G1029" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H1029" s="8" t="s">
         <v>1204</v>
       </c>
-      <c r="G1029" s="8" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H1029" s="8" t="s">
-        <v>1205</v>
-      </c>
       <c r="I1029" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J1029" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K1029" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L1029" s="8" t="s">
         <v>95</v>
@@ -30086,13 +30083,13 @@
       <c r="G1039" s="8"/>
       <c r="H1039" s="8"/>
       <c r="I1039" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="J1039" s="4" t="n">
         <v>10</v>
       </c>
       <c r="K1039" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="L1039" s="8"/>
       <c r="M1039" s="8"/>
@@ -30123,34 +30120,34 @@
         <v>165</v>
       </c>
       <c r="B1041" s="8" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C1041" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1041" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E1041" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1041" s="8" t="s">
         <v>1207</v>
       </c>
-      <c r="E1041" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1041" s="8" t="s">
+      <c r="G1041" s="8" t="s">
         <v>1208</v>
       </c>
-      <c r="G1041" s="8" t="s">
+      <c r="H1041" s="8" t="s">
         <v>1209</v>
       </c>
-      <c r="H1041" s="8" t="s">
-        <v>1210</v>
-      </c>
       <c r="I1041" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J1041" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K1041" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L1041" s="8" t="s">
         <v>95</v>
@@ -30358,13 +30355,13 @@
       <c r="G1051" s="8"/>
       <c r="H1051" s="8"/>
       <c r="I1051" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="J1051" s="4" t="n">
         <v>10</v>
       </c>
       <c r="K1051" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="L1051" s="8"/>
       <c r="M1051" s="8"/>
@@ -30395,34 +30392,34 @@
         <v>166</v>
       </c>
       <c r="B1053" s="8" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C1053" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1053" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E1053" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1053" s="8" t="s">
         <v>1212</v>
       </c>
-      <c r="E1053" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1053" s="8" t="s">
+      <c r="G1053" s="8" t="s">
         <v>1213</v>
       </c>
-      <c r="G1053" s="8" t="s">
+      <c r="H1053" s="8" t="s">
         <v>1214</v>
       </c>
-      <c r="H1053" s="8" t="s">
-        <v>1215</v>
-      </c>
       <c r="I1053" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J1053" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K1053" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L1053" s="8" t="s">
         <v>95</v>
@@ -30630,13 +30627,13 @@
       <c r="G1063" s="8"/>
       <c r="H1063" s="8"/>
       <c r="I1063" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="J1063" s="4" t="n">
         <v>10</v>
       </c>
       <c r="K1063" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="L1063" s="8"/>
       <c r="M1063" s="8"/>
@@ -30667,34 +30664,34 @@
         <v>167</v>
       </c>
       <c r="B1065" s="8" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C1065" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1065" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E1065" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1065" s="8" t="s">
         <v>1217</v>
       </c>
-      <c r="E1065" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1065" s="8" t="s">
+      <c r="G1065" s="8" t="s">
         <v>1218</v>
       </c>
-      <c r="G1065" s="8" t="s">
+      <c r="H1065" s="8" t="s">
         <v>1219</v>
       </c>
-      <c r="H1065" s="8" t="s">
-        <v>1220</v>
-      </c>
       <c r="I1065" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J1065" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K1065" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L1065" s="8" t="s">
         <v>95</v>
@@ -30729,7 +30726,7 @@
       <c r="B1067" s="8"/>
       <c r="C1067" s="8"/>
       <c r="D1067" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E1067" s="8"/>
       <c r="F1067" s="8"/>
@@ -30904,13 +30901,13 @@
       <c r="G1075" s="8"/>
       <c r="H1075" s="8"/>
       <c r="I1075" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="J1075" s="4" t="n">
         <v>10</v>
       </c>
       <c r="K1075" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="L1075" s="8"/>
       <c r="M1075" s="8"/>
@@ -30941,34 +30938,34 @@
         <v>168</v>
       </c>
       <c r="B1077" s="8" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C1077" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1077" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E1077" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1077" s="8" t="s">
         <v>1223</v>
       </c>
-      <c r="E1077" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1077" s="8" t="s">
+      <c r="G1077" s="8" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H1077" s="8" t="s">
         <v>1224</v>
       </c>
-      <c r="G1077" s="8" t="s">
-        <v>1224</v>
-      </c>
-      <c r="H1077" s="8" t="s">
-        <v>1225</v>
-      </c>
       <c r="I1077" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J1077" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K1077" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L1077" s="8" t="s">
         <v>95</v>
@@ -31003,7 +31000,7 @@
       <c r="B1079" s="8"/>
       <c r="C1079" s="8"/>
       <c r="D1079" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E1079" s="8"/>
       <c r="F1079" s="8"/>
@@ -31178,13 +31175,13 @@
       <c r="G1087" s="8"/>
       <c r="H1087" s="8"/>
       <c r="I1087" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="J1087" s="4" t="n">
         <v>10</v>
       </c>
       <c r="K1087" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="L1087" s="8"/>
       <c r="M1087" s="8"/>
@@ -31215,34 +31212,34 @@
         <v>169</v>
       </c>
       <c r="B1089" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C1089" s="8" t="s">
         <v>1227</v>
       </c>
-      <c r="C1089" s="8" t="s">
+      <c r="D1089" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="D1089" s="4" t="s">
+      <c r="E1089" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1089" s="8" t="s">
         <v>1229</v>
       </c>
-      <c r="E1089" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1089" s="8" t="s">
+      <c r="G1089" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H1089" s="8" t="s">
         <v>1230</v>
       </c>
-      <c r="G1089" s="8" t="s">
-        <v>1230</v>
-      </c>
-      <c r="H1089" s="8" t="s">
+      <c r="I1089" s="4" t="s">
         <v>1231</v>
-      </c>
-      <c r="I1089" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="J1089" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1089" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L1089" s="8" t="s">
         <v>95</v>
@@ -31261,13 +31258,13 @@
       <c r="G1090" s="8"/>
       <c r="H1090" s="8"/>
       <c r="I1090" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J1090" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1090" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="L1090" s="8"/>
       <c r="M1090" s="8"/>
@@ -31277,20 +31274,20 @@
       <c r="B1091" s="8"/>
       <c r="C1091" s="8"/>
       <c r="D1091" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E1091" s="8"/>
       <c r="F1091" s="8"/>
       <c r="G1091" s="8"/>
       <c r="H1091" s="8"/>
       <c r="I1091" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="J1091" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1091" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="L1091" s="8"/>
       <c r="M1091" s="8"/>
@@ -31305,13 +31302,13 @@
       <c r="G1092" s="8"/>
       <c r="H1092" s="8"/>
       <c r="I1092" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="J1092" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1092" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="L1092" s="8"/>
       <c r="M1092" s="8"/>
@@ -31342,34 +31339,34 @@
         <v>170</v>
       </c>
       <c r="B1094" s="8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C1094" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D1094" s="8" t="s">
         <v>1241</v>
       </c>
-      <c r="C1094" s="8" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D1094" s="8" t="s">
+      <c r="E1094" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1094" s="8" t="s">
         <v>1242</v>
       </c>
-      <c r="E1094" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1094" s="8" t="s">
+      <c r="G1094" s="8" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H1094" s="8" t="s">
         <v>1243</v>
       </c>
-      <c r="G1094" s="8" t="s">
-        <v>1243</v>
-      </c>
-      <c r="H1094" s="8" t="s">
-        <v>1244</v>
-      </c>
       <c r="I1094" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="J1094" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1094" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L1094" s="8" t="s">
         <v>95</v>
@@ -31388,13 +31385,13 @@
       <c r="G1095" s="8"/>
       <c r="H1095" s="8"/>
       <c r="I1095" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J1095" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1095" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="L1095" s="8"/>
       <c r="M1095" s="8"/>
@@ -31409,13 +31406,13 @@
       <c r="G1096" s="8"/>
       <c r="H1096" s="8"/>
       <c r="I1096" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="J1096" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1096" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="L1096" s="8"/>
       <c r="M1096" s="8"/>
@@ -31430,13 +31427,13 @@
       <c r="G1097" s="8"/>
       <c r="H1097" s="8"/>
       <c r="I1097" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="J1097" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1097" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="L1097" s="8"/>
       <c r="M1097" s="8"/>
@@ -31467,34 +31464,34 @@
         <v>171</v>
       </c>
       <c r="B1099" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C1099" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D1099" s="8" t="s">
         <v>1245</v>
       </c>
-      <c r="C1099" s="8" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D1099" s="8" t="s">
+      <c r="E1099" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1099" s="8" t="s">
         <v>1246</v>
       </c>
-      <c r="E1099" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1099" s="8" t="s">
+      <c r="G1099" s="8" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H1099" s="8" t="s">
         <v>1247</v>
       </c>
-      <c r="G1099" s="8" t="s">
-        <v>1247</v>
-      </c>
-      <c r="H1099" s="8" t="s">
-        <v>1248</v>
-      </c>
       <c r="I1099" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="J1099" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1099" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L1099" s="8" t="s">
         <v>95</v>
@@ -31513,13 +31510,13 @@
       <c r="G1100" s="8"/>
       <c r="H1100" s="8"/>
       <c r="I1100" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J1100" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1100" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="L1100" s="8"/>
       <c r="M1100" s="8"/>
@@ -31534,13 +31531,13 @@
       <c r="G1101" s="8"/>
       <c r="H1101" s="8"/>
       <c r="I1101" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="J1101" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1101" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="L1101" s="8"/>
       <c r="M1101" s="8"/>
@@ -31555,13 +31552,13 @@
       <c r="G1102" s="8"/>
       <c r="H1102" s="8"/>
       <c r="I1102" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="J1102" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1102" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="L1102" s="8"/>
       <c r="M1102" s="8"/>
@@ -31592,7 +31589,7 @@
     </row>
     <row r="1105" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31600,7 +31597,7 @@
     </row>
     <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="4" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31652,34 +31649,34 @@
         <v>172</v>
       </c>
       <c r="B1110" s="8" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C1110" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1110" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E1110" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1110" s="8" t="s">
         <v>1252</v>
       </c>
-      <c r="E1110" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1110" s="8" t="s">
+      <c r="G1110" s="8" t="s">
         <v>1253</v>
       </c>
-      <c r="G1110" s="8" t="s">
+      <c r="H1110" s="8" t="s">
         <v>1254</v>
       </c>
-      <c r="H1110" s="8" t="s">
+      <c r="I1110" s="4" t="s">
         <v>1255</v>
-      </c>
-      <c r="I1110" s="4" t="s">
-        <v>1256</v>
       </c>
       <c r="J1110" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1110" s="4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L1110" s="8" t="s">
         <v>95</v>
@@ -31761,13 +31758,13 @@
       <c r="G1114" s="8"/>
       <c r="H1114" s="8"/>
       <c r="I1114" s="4" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="J1114" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K1114" s="4" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L1114" s="8"/>
       <c r="M1114" s="8"/>
@@ -31798,34 +31795,34 @@
         <v>173</v>
       </c>
       <c r="B1116" s="8" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C1116" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1116" s="8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E1116" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1116" s="8" t="s">
         <v>1261</v>
       </c>
-      <c r="E1116" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1116" s="8" t="s">
+      <c r="G1116" s="8" t="s">
         <v>1262</v>
       </c>
-      <c r="G1116" s="8" t="s">
+      <c r="H1116" s="8" t="s">
         <v>1263</v>
       </c>
-      <c r="H1116" s="8" t="s">
+      <c r="I1116" s="4" t="s">
         <v>1264</v>
-      </c>
-      <c r="I1116" s="4" t="s">
-        <v>1265</v>
       </c>
       <c r="J1116" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1116" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L1116" s="8" t="s">
         <v>95</v>
@@ -31907,13 +31904,13 @@
       <c r="G1120" s="8"/>
       <c r="H1120" s="8"/>
       <c r="I1120" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="J1120" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K1120" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="L1120" s="8"/>
       <c r="M1120" s="8"/>
@@ -31944,34 +31941,34 @@
         <v>174</v>
       </c>
       <c r="B1122" s="8" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C1122" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1122" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E1122" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1122" s="8" t="s">
         <v>1270</v>
       </c>
-      <c r="E1122" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1122" s="8" t="s">
+      <c r="G1122" s="8" t="s">
         <v>1271</v>
       </c>
-      <c r="G1122" s="8" t="s">
+      <c r="H1122" s="8" t="s">
         <v>1272</v>
       </c>
-      <c r="H1122" s="8" t="s">
+      <c r="I1122" s="4" t="s">
         <v>1273</v>
-      </c>
-      <c r="I1122" s="4" t="s">
-        <v>1274</v>
       </c>
       <c r="J1122" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1122" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="L1122" s="8" t="s">
         <v>95</v>
@@ -32053,13 +32050,13 @@
       <c r="G1126" s="8"/>
       <c r="H1126" s="8"/>
       <c r="I1126" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="J1126" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K1126" s="4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="L1126" s="8"/>
       <c r="M1126" s="8"/>
@@ -32090,34 +32087,34 @@
         <v>175</v>
       </c>
       <c r="B1128" s="8" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C1128" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1128" s="8" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E1128" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1128" s="8" t="s">
         <v>1279</v>
       </c>
-      <c r="E1128" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1128" s="8" t="s">
+      <c r="G1128" s="8" t="s">
         <v>1280</v>
       </c>
-      <c r="G1128" s="8" t="s">
+      <c r="H1128" s="8" t="s">
         <v>1281</v>
       </c>
-      <c r="H1128" s="8" t="s">
+      <c r="I1128" s="4" t="s">
         <v>1282</v>
-      </c>
-      <c r="I1128" s="4" t="s">
-        <v>1283</v>
       </c>
       <c r="J1128" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1128" s="4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L1128" s="8" t="s">
         <v>95</v>
@@ -32199,13 +32196,13 @@
       <c r="G1132" s="8"/>
       <c r="H1132" s="8"/>
       <c r="I1132" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="J1132" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K1132" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="L1132" s="8"/>
       <c r="M1132" s="8"/>
@@ -32236,34 +32233,34 @@
         <v>176</v>
       </c>
       <c r="B1134" s="8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C1134" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1134" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E1134" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1134" s="8" t="s">
         <v>1288</v>
       </c>
-      <c r="E1134" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1134" s="8" t="s">
+      <c r="G1134" s="8" t="s">
         <v>1289</v>
       </c>
-      <c r="G1134" s="8" t="s">
+      <c r="H1134" s="8" t="s">
         <v>1290</v>
       </c>
-      <c r="H1134" s="8" t="s">
+      <c r="I1134" s="4" t="s">
         <v>1291</v>
-      </c>
-      <c r="I1134" s="4" t="s">
-        <v>1292</v>
       </c>
       <c r="J1134" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1134" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="L1134" s="8" t="s">
         <v>95</v>
@@ -32345,13 +32342,13 @@
       <c r="G1138" s="8"/>
       <c r="H1138" s="8"/>
       <c r="I1138" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="J1138" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K1138" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="L1138" s="8"/>
       <c r="M1138" s="8"/>
@@ -32382,34 +32379,34 @@
         <v>177</v>
       </c>
       <c r="B1140" s="8" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C1140" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1140" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E1140" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1140" s="8" t="s">
         <v>1297</v>
       </c>
-      <c r="E1140" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1140" s="8" t="s">
+      <c r="G1140" s="8" t="s">
         <v>1298</v>
       </c>
-      <c r="G1140" s="8" t="s">
+      <c r="H1140" s="8" t="s">
         <v>1299</v>
       </c>
-      <c r="H1140" s="8" t="s">
+      <c r="I1140" s="4" t="s">
         <v>1300</v>
-      </c>
-      <c r="I1140" s="4" t="s">
-        <v>1301</v>
       </c>
       <c r="J1140" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1140" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="L1140" s="8" t="s">
         <v>95</v>
@@ -32428,13 +32425,13 @@
       <c r="G1141" s="8"/>
       <c r="H1141" s="8"/>
       <c r="I1141" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="J1141" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1141" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L1141" s="8"/>
       <c r="M1141" s="8"/>
@@ -32444,20 +32441,20 @@
       <c r="B1142" s="8"/>
       <c r="C1142" s="8"/>
       <c r="D1142" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E1142" s="8"/>
       <c r="F1142" s="8"/>
       <c r="G1142" s="8"/>
       <c r="H1142" s="8"/>
       <c r="I1142" s="4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="J1142" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1142" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="L1142" s="8"/>
       <c r="M1142" s="8"/>
@@ -32472,13 +32469,13 @@
       <c r="G1143" s="8"/>
       <c r="H1143" s="8"/>
       <c r="I1143" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="J1143" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1143" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="L1143" s="8"/>
       <c r="M1143" s="8"/>
@@ -32509,34 +32506,34 @@
         <v>178</v>
       </c>
       <c r="B1145" s="8" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C1145" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1145" s="8" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E1145" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1145" s="8" t="s">
         <v>1311</v>
       </c>
-      <c r="E1145" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1145" s="8" t="s">
+      <c r="G1145" s="8" t="s">
         <v>1312</v>
       </c>
-      <c r="G1145" s="8" t="s">
+      <c r="H1145" s="8" t="s">
         <v>1313</v>
       </c>
-      <c r="H1145" s="8" t="s">
+      <c r="I1145" s="4" t="s">
         <v>1314</v>
-      </c>
-      <c r="I1145" s="4" t="s">
-        <v>1315</v>
       </c>
       <c r="J1145" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1145" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="L1145" s="8" t="s">
         <v>95</v>
@@ -32555,13 +32552,13 @@
       <c r="G1146" s="8"/>
       <c r="H1146" s="8"/>
       <c r="I1146" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="J1146" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1146" s="4" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="L1146" s="8"/>
       <c r="M1146" s="8"/>
@@ -32576,13 +32573,13 @@
       <c r="G1147" s="8"/>
       <c r="H1147" s="8"/>
       <c r="I1147" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="J1147" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1147" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="L1147" s="8"/>
       <c r="M1147" s="8"/>
@@ -32597,13 +32594,13 @@
       <c r="G1148" s="8"/>
       <c r="H1148" s="8"/>
       <c r="I1148" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J1148" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1148" s="4" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="L1148" s="8"/>
       <c r="M1148" s="8"/>
@@ -32634,34 +32631,34 @@
         <v>179</v>
       </c>
       <c r="B1150" s="8" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C1150" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1150" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E1150" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1150" s="8" t="s">
         <v>1324</v>
       </c>
-      <c r="E1150" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1150" s="8" t="s">
+      <c r="G1150" s="8" t="s">
         <v>1325</v>
       </c>
-      <c r="G1150" s="8" t="s">
+      <c r="H1150" s="8" t="s">
         <v>1326</v>
       </c>
-      <c r="H1150" s="8" t="s">
-        <v>1327</v>
-      </c>
       <c r="I1150" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J1150" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1150" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="L1150" s="8" t="s">
         <v>95</v>
@@ -32680,13 +32677,13 @@
       <c r="G1151" s="8"/>
       <c r="H1151" s="8"/>
       <c r="I1151" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="J1151" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1151" s="4" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="L1151" s="8"/>
       <c r="M1151" s="8"/>
@@ -32696,20 +32693,20 @@
       <c r="B1152" s="8"/>
       <c r="C1152" s="8"/>
       <c r="D1152" s="7" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E1152" s="8"/>
       <c r="F1152" s="8"/>
       <c r="G1152" s="8"/>
       <c r="H1152" s="8"/>
       <c r="I1152" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="J1152" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1152" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="L1152" s="8"/>
       <c r="M1152" s="8"/>
@@ -32724,13 +32721,13 @@
       <c r="G1153" s="8"/>
       <c r="H1153" s="8"/>
       <c r="I1153" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J1153" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1153" s="4" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="L1153" s="8"/>
       <c r="M1153" s="8"/>
@@ -32761,34 +32758,34 @@
         <v>180</v>
       </c>
       <c r="B1155" s="8" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C1155" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1155" s="9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E1155" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1155" s="8" t="s">
         <v>1330</v>
       </c>
-      <c r="E1155" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1155" s="8" t="s">
+      <c r="G1155" s="8" t="s">
         <v>1331</v>
       </c>
-      <c r="G1155" s="8" t="s">
+      <c r="H1155" s="8" t="s">
         <v>1332</v>
       </c>
-      <c r="H1155" s="8" t="s">
-        <v>1333</v>
-      </c>
       <c r="I1155" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J1155" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1155" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="L1155" s="8" t="s">
         <v>95</v>
@@ -32807,13 +32804,13 @@
       <c r="G1156" s="8"/>
       <c r="H1156" s="8"/>
       <c r="I1156" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="J1156" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1156" s="4" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="L1156" s="8"/>
       <c r="M1156" s="8"/>
@@ -32828,13 +32825,13 @@
       <c r="G1157" s="8"/>
       <c r="H1157" s="8"/>
       <c r="I1157" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="J1157" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1157" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="L1157" s="8"/>
       <c r="M1157" s="8"/>
@@ -32849,13 +32846,13 @@
       <c r="G1158" s="8"/>
       <c r="H1158" s="8"/>
       <c r="I1158" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J1158" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1158" s="4" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="L1158" s="8"/>
       <c r="M1158" s="8"/>
@@ -32886,28 +32883,28 @@
         <v>181</v>
       </c>
       <c r="B1160" s="8" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C1160" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1160" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E1160" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1160" s="8" t="s">
         <v>1335</v>
       </c>
-      <c r="E1160" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1160" s="8" t="s">
+      <c r="G1160" s="8" t="s">
         <v>1336</v>
       </c>
-      <c r="G1160" s="8" t="s">
+      <c r="H1160" s="8" t="s">
         <v>1337</v>
       </c>
-      <c r="H1160" s="8" t="s">
+      <c r="I1160" s="4" t="s">
         <v>1338</v>
-      </c>
-      <c r="I1160" s="4" t="s">
-        <v>1339</v>
       </c>
       <c r="J1160" s="4" t="n">
         <v>1</v>
@@ -32932,7 +32929,7 @@
       <c r="G1161" s="8"/>
       <c r="H1161" s="8"/>
       <c r="I1161" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="J1161" s="4" t="n">
         <v>2</v>
@@ -32948,14 +32945,14 @@
       <c r="B1162" s="8"/>
       <c r="C1162" s="8"/>
       <c r="D1162" s="4" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E1162" s="8"/>
       <c r="F1162" s="8"/>
       <c r="G1162" s="8"/>
       <c r="H1162" s="8"/>
       <c r="I1162" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="J1162" s="4" t="n">
         <v>3</v>
@@ -32976,7 +32973,7 @@
       <c r="G1163" s="8"/>
       <c r="H1163" s="8"/>
       <c r="I1163" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J1163" s="4" t="n">
         <v>4</v>
@@ -33013,28 +33010,28 @@
         <v>182</v>
       </c>
       <c r="B1165" s="8" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C1165" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1165" s="8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E1165" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1165" s="8" t="s">
         <v>1345</v>
       </c>
-      <c r="E1165" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1165" s="8" t="s">
+      <c r="G1165" s="8" t="s">
         <v>1346</v>
       </c>
-      <c r="G1165" s="8" t="s">
+      <c r="H1165" s="8" t="s">
         <v>1347</v>
       </c>
-      <c r="H1165" s="8" t="s">
-        <v>1348</v>
-      </c>
       <c r="I1165" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="J1165" s="4" t="n">
         <v>1</v>
@@ -33059,7 +33056,7 @@
       <c r="G1166" s="8"/>
       <c r="H1166" s="8"/>
       <c r="I1166" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="J1166" s="4" t="n">
         <v>2</v>
@@ -33080,7 +33077,7 @@
       <c r="G1167" s="8"/>
       <c r="H1167" s="8"/>
       <c r="I1167" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="J1167" s="4" t="n">
         <v>3</v>
@@ -33101,7 +33098,7 @@
       <c r="G1168" s="8"/>
       <c r="H1168" s="8"/>
       <c r="I1168" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J1168" s="4" t="n">
         <v>4</v>
@@ -33138,28 +33135,28 @@
         <v>183</v>
       </c>
       <c r="B1170" s="8" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C1170" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1170" s="8" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E1170" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1170" s="8" t="s">
         <v>1350</v>
       </c>
-      <c r="E1170" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1170" s="8" t="s">
+      <c r="G1170" s="8" t="s">
         <v>1351</v>
       </c>
-      <c r="G1170" s="8" t="s">
+      <c r="H1170" s="8" t="s">
         <v>1352</v>
       </c>
-      <c r="H1170" s="8" t="s">
-        <v>1353</v>
-      </c>
       <c r="I1170" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="J1170" s="4" t="n">
         <v>1</v>
@@ -33184,7 +33181,7 @@
       <c r="G1171" s="8"/>
       <c r="H1171" s="8"/>
       <c r="I1171" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="J1171" s="4" t="n">
         <v>2</v>
@@ -33205,7 +33202,7 @@
       <c r="G1172" s="8"/>
       <c r="H1172" s="8"/>
       <c r="I1172" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="J1172" s="4" t="n">
         <v>3</v>
@@ -33226,7 +33223,7 @@
       <c r="G1173" s="8"/>
       <c r="H1173" s="8"/>
       <c r="I1173" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J1173" s="4" t="n">
         <v>4</v>
@@ -33263,28 +33260,28 @@
         <v>184</v>
       </c>
       <c r="B1175" s="8" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C1175" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1175" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E1175" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1175" s="8" t="s">
         <v>1355</v>
       </c>
-      <c r="E1175" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1175" s="8" t="s">
+      <c r="G1175" s="8" t="s">
         <v>1356</v>
       </c>
-      <c r="G1175" s="8" t="s">
+      <c r="H1175" s="8" t="s">
         <v>1357</v>
       </c>
-      <c r="H1175" s="8" t="s">
-        <v>1358</v>
-      </c>
       <c r="I1175" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="J1175" s="4" t="n">
         <v>1</v>
@@ -33309,7 +33306,7 @@
       <c r="G1176" s="8"/>
       <c r="H1176" s="8"/>
       <c r="I1176" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="J1176" s="4" t="n">
         <v>2</v>
@@ -33330,7 +33327,7 @@
       <c r="G1177" s="8"/>
       <c r="H1177" s="8"/>
       <c r="I1177" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="J1177" s="4" t="n">
         <v>3</v>
@@ -33351,7 +33348,7 @@
       <c r="G1178" s="8"/>
       <c r="H1178" s="8"/>
       <c r="I1178" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J1178" s="4" t="n">
         <v>4</v>
@@ -33388,28 +33385,28 @@
         <v>185</v>
       </c>
       <c r="B1180" s="8" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C1180" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1180" s="8" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E1180" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1180" s="8" t="s">
         <v>1360</v>
       </c>
-      <c r="E1180" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1180" s="8" t="s">
+      <c r="G1180" s="8" t="s">
         <v>1361</v>
       </c>
-      <c r="G1180" s="8" t="s">
+      <c r="H1180" s="8" t="s">
         <v>1362</v>
       </c>
-      <c r="H1180" s="8" t="s">
-        <v>1363</v>
-      </c>
       <c r="I1180" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="J1180" s="4" t="n">
         <v>1</v>
@@ -33434,7 +33431,7 @@
       <c r="G1181" s="8"/>
       <c r="H1181" s="8"/>
       <c r="I1181" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="J1181" s="4" t="n">
         <v>2</v>
@@ -33455,7 +33452,7 @@
       <c r="G1182" s="8"/>
       <c r="H1182" s="8"/>
       <c r="I1182" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="J1182" s="4" t="n">
         <v>3</v>
@@ -33476,7 +33473,7 @@
       <c r="G1183" s="8"/>
       <c r="H1183" s="8"/>
       <c r="I1183" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J1183" s="4" t="n">
         <v>4</v>
@@ -33513,28 +33510,28 @@
         <v>186</v>
       </c>
       <c r="B1185" s="8" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C1185" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1185" s="8" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E1185" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1185" s="8" t="s">
         <v>1365</v>
       </c>
-      <c r="E1185" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1185" s="8" t="s">
+      <c r="G1185" s="8" t="s">
         <v>1366</v>
       </c>
-      <c r="G1185" s="8" t="s">
+      <c r="H1185" s="8" t="s">
         <v>1367</v>
       </c>
-      <c r="H1185" s="8" t="s">
-        <v>1368</v>
-      </c>
       <c r="I1185" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="J1185" s="4" t="n">
         <v>1</v>
@@ -33559,7 +33556,7 @@
       <c r="G1186" s="8"/>
       <c r="H1186" s="8"/>
       <c r="I1186" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="J1186" s="4" t="n">
         <v>2</v>
@@ -33580,7 +33577,7 @@
       <c r="G1187" s="8"/>
       <c r="H1187" s="8"/>
       <c r="I1187" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="J1187" s="4" t="n">
         <v>3</v>
@@ -33601,7 +33598,7 @@
       <c r="G1188" s="8"/>
       <c r="H1188" s="8"/>
       <c r="I1188" s="4" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J1188" s="4" t="n">
         <v>4</v>
@@ -33638,7 +33635,7 @@
     </row>
     <row r="1191" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33646,7 +33643,7 @@
     </row>
     <row r="1193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33698,25 +33695,25 @@
         <v>187</v>
       </c>
       <c r="B1196" s="8" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C1196" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1196" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E1196" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1196" s="8" t="s">
         <v>1372</v>
       </c>
-      <c r="E1196" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1196" s="8" t="s">
+      <c r="G1196" s="8" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H1196" s="8" t="s">
         <v>1373</v>
-      </c>
-      <c r="G1196" s="8" t="s">
-        <v>1373</v>
-      </c>
-      <c r="H1196" s="8" t="s">
-        <v>1374</v>
       </c>
       <c r="I1196" s="4" t="s">
         <v>152</v>
@@ -33844,34 +33841,34 @@
         <v>188</v>
       </c>
       <c r="B1202" s="8" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C1202" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1202" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E1202" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1202" s="8" t="s">
         <v>1376</v>
       </c>
-      <c r="E1202" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1202" s="8" t="s">
+      <c r="G1202" s="8" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H1202" s="8" t="s">
         <v>1377</v>
       </c>
-      <c r="G1202" s="8" t="s">
-        <v>1377</v>
-      </c>
-      <c r="H1202" s="8" t="s">
+      <c r="I1202" s="4" t="s">
         <v>1378</v>
-      </c>
-      <c r="I1202" s="4" t="s">
-        <v>1379</v>
       </c>
       <c r="J1202" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K1202" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="L1202" s="8" t="s">
         <v>95</v>
@@ -33890,13 +33887,13 @@
       <c r="G1203" s="8"/>
       <c r="H1203" s="8"/>
       <c r="I1203" s="4" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="J1203" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1203" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="L1203" s="8"/>
       <c r="M1203" s="8"/>
@@ -33911,13 +33908,13 @@
       <c r="G1204" s="8"/>
       <c r="H1204" s="8"/>
       <c r="I1204" s="4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="J1204" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1204" s="4" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="L1204" s="8"/>
       <c r="M1204" s="8"/>
@@ -33932,13 +33929,13 @@
       <c r="G1205" s="8"/>
       <c r="H1205" s="8"/>
       <c r="I1205" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="J1205" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1205" s="4" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="L1205" s="8"/>
       <c r="M1205" s="8"/>
@@ -33953,13 +33950,13 @@
       <c r="G1206" s="8"/>
       <c r="H1206" s="8"/>
       <c r="I1206" s="4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="J1206" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1206" s="4" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="L1206" s="8"/>
       <c r="M1206" s="8"/>
@@ -33974,13 +33971,13 @@
       <c r="G1207" s="8"/>
       <c r="H1207" s="8"/>
       <c r="I1207" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="J1207" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K1207" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="L1207" s="8"/>
       <c r="M1207" s="8"/>
@@ -33990,34 +33987,34 @@
         <v>189</v>
       </c>
       <c r="B1208" s="8" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C1208" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1208" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E1208" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1208" s="8" t="s">
         <v>1392</v>
       </c>
-      <c r="E1208" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1208" s="8" t="s">
+      <c r="G1208" s="8" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H1208" s="8" t="s">
         <v>1393</v>
       </c>
-      <c r="G1208" s="8" t="s">
-        <v>1393</v>
-      </c>
-      <c r="H1208" s="8" t="s">
+      <c r="I1208" s="4" t="s">
         <v>1394</v>
-      </c>
-      <c r="I1208" s="4" t="s">
-        <v>1395</v>
       </c>
       <c r="J1208" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1208" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="L1208" s="8" t="s">
         <v>95</v>
@@ -34036,13 +34033,13 @@
       <c r="G1209" s="8"/>
       <c r="H1209" s="8"/>
       <c r="I1209" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="J1209" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1209" s="4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="L1209" s="8"/>
       <c r="M1209" s="8"/>
@@ -34057,13 +34054,13 @@
       <c r="G1210" s="8"/>
       <c r="H1210" s="8"/>
       <c r="I1210" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J1210" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1210" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="L1210" s="8"/>
       <c r="M1210" s="8"/>
@@ -34078,13 +34075,13 @@
       <c r="G1211" s="8"/>
       <c r="H1211" s="8"/>
       <c r="I1211" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J1211" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1211" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="L1211" s="8"/>
       <c r="M1211" s="8"/>
@@ -34099,13 +34096,13 @@
       <c r="G1212" s="8"/>
       <c r="H1212" s="8"/>
       <c r="I1212" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J1212" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K1212" s="4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="L1212" s="8"/>
       <c r="M1212" s="8"/>
@@ -34120,13 +34117,13 @@
       <c r="G1213" s="8"/>
       <c r="H1213" s="8"/>
       <c r="I1213" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="J1213" s="4" t="n">
         <v>6</v>
       </c>
       <c r="K1213" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="L1213" s="8"/>
       <c r="M1213" s="8"/>
@@ -34141,13 +34138,13 @@
       <c r="G1214" s="8"/>
       <c r="H1214" s="8"/>
       <c r="I1214" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="J1214" s="4" t="n">
         <v>7</v>
       </c>
       <c r="K1214" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="L1214" s="8"/>
       <c r="M1214" s="8"/>
@@ -34157,34 +34154,34 @@
         <v>190</v>
       </c>
       <c r="B1215" s="8" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C1215" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1215" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E1215" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1215" s="8" t="s">
         <v>1410</v>
       </c>
-      <c r="E1215" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1215" s="8" t="s">
+      <c r="G1215" s="8" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H1215" s="8" t="s">
         <v>1411</v>
       </c>
-      <c r="G1215" s="8" t="s">
-        <v>1411</v>
-      </c>
-      <c r="H1215" s="8" t="s">
+      <c r="I1215" s="4" t="s">
         <v>1412</v>
-      </c>
-      <c r="I1215" s="4" t="s">
-        <v>1413</v>
       </c>
       <c r="J1215" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1215" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="L1215" s="8" t="s">
         <v>95</v>
@@ -34203,13 +34200,13 @@
       <c r="G1216" s="8"/>
       <c r="H1216" s="8"/>
       <c r="I1216" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="J1216" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1216" s="4" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="L1216" s="8"/>
       <c r="M1216" s="8"/>
@@ -34224,13 +34221,13 @@
       <c r="G1217" s="8"/>
       <c r="H1217" s="8"/>
       <c r="I1217" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="J1217" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1217" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="L1217" s="8"/>
       <c r="M1217" s="8"/>
@@ -34245,13 +34242,13 @@
       <c r="G1218" s="8"/>
       <c r="H1218" s="8"/>
       <c r="I1218" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J1218" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1218" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="L1218" s="8"/>
       <c r="M1218" s="8"/>
@@ -34266,13 +34263,13 @@
       <c r="G1219" s="8"/>
       <c r="H1219" s="8"/>
       <c r="I1219" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="J1219" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K1219" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="L1219" s="8"/>
       <c r="M1219" s="8"/>
@@ -34287,13 +34284,13 @@
       <c r="G1220" s="8"/>
       <c r="H1220" s="8"/>
       <c r="I1220" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="J1220" s="4" t="n">
         <v>6</v>
       </c>
       <c r="K1220" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="L1220" s="8"/>
       <c r="M1220" s="8"/>
@@ -34308,13 +34305,13 @@
       <c r="G1221" s="8"/>
       <c r="H1221" s="8"/>
       <c r="I1221" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="J1221" s="4" t="n">
         <v>7</v>
       </c>
       <c r="K1221" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="L1221" s="8"/>
       <c r="M1221" s="8"/>
@@ -34329,13 +34326,13 @@
       <c r="G1222" s="8"/>
       <c r="H1222" s="8"/>
       <c r="I1222" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="J1222" s="4" t="n">
         <v>8</v>
       </c>
       <c r="K1222" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="L1222" s="8"/>
       <c r="M1222" s="8"/>
@@ -34350,13 +34347,13 @@
       <c r="G1223" s="8"/>
       <c r="H1223" s="8"/>
       <c r="I1223" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="J1223" s="4" t="n">
         <v>9</v>
       </c>
       <c r="K1223" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="L1223" s="8"/>
       <c r="M1223" s="8"/>
@@ -34371,13 +34368,13 @@
       <c r="G1224" s="8"/>
       <c r="H1224" s="8"/>
       <c r="I1224" s="4" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="J1224" s="4" t="n">
         <v>10</v>
       </c>
       <c r="K1224" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="L1224" s="8"/>
       <c r="M1224" s="8"/>
@@ -34387,34 +34384,34 @@
         <v>191</v>
       </c>
       <c r="B1225" s="8" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C1225" s="8" t="s">
         <v>1433</v>
       </c>
-      <c r="C1225" s="8" t="s">
+      <c r="D1225" s="8" t="s">
         <v>1434</v>
       </c>
-      <c r="D1225" s="8" t="s">
+      <c r="E1225" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1225" s="8" t="s">
         <v>1435</v>
       </c>
-      <c r="E1225" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1225" s="8" t="s">
+      <c r="G1225" s="8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H1225" s="8" t="s">
         <v>1436</v>
       </c>
-      <c r="G1225" s="8" t="s">
-        <v>1436</v>
-      </c>
-      <c r="H1225" s="8" t="s">
+      <c r="I1225" s="4" t="s">
         <v>1437</v>
-      </c>
-      <c r="I1225" s="4" t="s">
-        <v>1438</v>
       </c>
       <c r="J1225" s="4" t="n">
         <v>11</v>
       </c>
       <c r="K1225" s="4" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="L1225" s="8" t="s">
         <v>95</v>
@@ -34433,13 +34430,13 @@
       <c r="G1226" s="8"/>
       <c r="H1226" s="8"/>
       <c r="I1226" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="J1226" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1226" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="L1226" s="8"/>
       <c r="M1226" s="8"/>
@@ -34454,13 +34451,13 @@
       <c r="G1227" s="8"/>
       <c r="H1227" s="8"/>
       <c r="I1227" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="J1227" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1227" s="4" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="L1227" s="8"/>
       <c r="M1227" s="8"/>
@@ -34475,13 +34472,13 @@
       <c r="G1228" s="8"/>
       <c r="H1228" s="8"/>
       <c r="I1228" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="J1228" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1228" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="L1228" s="8"/>
       <c r="M1228" s="8"/>
@@ -34496,13 +34493,13 @@
       <c r="G1229" s="8"/>
       <c r="H1229" s="8"/>
       <c r="I1229" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J1229" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1229" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="L1229" s="8"/>
       <c r="M1229" s="8"/>
@@ -34517,13 +34514,13 @@
       <c r="G1230" s="8"/>
       <c r="H1230" s="8"/>
       <c r="I1230" s="4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="J1230" s="4" t="n">
         <v>77</v>
       </c>
       <c r="K1230" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="L1230" s="8"/>
       <c r="M1230" s="8"/>
@@ -34533,34 +34530,34 @@
         <v>192</v>
       </c>
       <c r="B1231" s="8" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C1231" s="8" t="s">
         <v>1442</v>
       </c>
-      <c r="C1231" s="8" t="s">
+      <c r="D1231" s="8" t="s">
         <v>1443</v>
       </c>
-      <c r="D1231" s="8" t="s">
+      <c r="E1231" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1231" s="8" t="s">
         <v>1444</v>
       </c>
-      <c r="E1231" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1231" s="8" t="s">
+      <c r="G1231" s="8" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H1231" s="8" t="s">
         <v>1445</v>
       </c>
-      <c r="G1231" s="8" t="s">
-        <v>1445</v>
-      </c>
-      <c r="H1231" s="8" t="s">
+      <c r="I1231" s="4" t="s">
         <v>1446</v>
-      </c>
-      <c r="I1231" s="4" t="s">
-        <v>1447</v>
       </c>
       <c r="J1231" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1231" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="L1231" s="8" t="s">
         <v>95</v>
@@ -34579,13 +34576,13 @@
       <c r="G1232" s="8"/>
       <c r="H1232" s="8"/>
       <c r="I1232" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="J1232" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1232" s="4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="L1232" s="8"/>
       <c r="M1232" s="8"/>
@@ -34600,13 +34597,13 @@
       <c r="G1233" s="8"/>
       <c r="H1233" s="8"/>
       <c r="I1233" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="J1233" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1233" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="L1233" s="8"/>
       <c r="M1233" s="8"/>
@@ -34621,13 +34618,13 @@
       <c r="G1234" s="8"/>
       <c r="H1234" s="8"/>
       <c r="I1234" s="4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="J1234" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1234" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="L1234" s="8"/>
       <c r="M1234" s="8"/>
@@ -34637,34 +34634,34 @@
         <v>193</v>
       </c>
       <c r="B1235" s="8" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C1235" s="8" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D1235" s="8" t="s">
         <v>1455</v>
       </c>
-      <c r="C1235" s="8" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D1235" s="8" t="s">
+      <c r="E1235" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1235" s="8" t="s">
         <v>1456</v>
       </c>
-      <c r="E1235" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1235" s="8" t="s">
+      <c r="G1235" s="8" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H1235" s="8" t="s">
         <v>1457</v>
       </c>
-      <c r="G1235" s="8" t="s">
-        <v>1457</v>
-      </c>
-      <c r="H1235" s="8" t="s">
-        <v>1458</v>
-      </c>
       <c r="I1235" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="J1235" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1235" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="L1235" s="8" t="s">
         <v>95</v>
@@ -34683,13 +34680,13 @@
       <c r="G1236" s="8"/>
       <c r="H1236" s="8"/>
       <c r="I1236" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="J1236" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1236" s="4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="L1236" s="8"/>
       <c r="M1236" s="8"/>
@@ -34704,13 +34701,13 @@
       <c r="G1237" s="8"/>
       <c r="H1237" s="8"/>
       <c r="I1237" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="J1237" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1237" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="L1237" s="8"/>
       <c r="M1237" s="8"/>
@@ -34725,13 +34722,13 @@
       <c r="G1238" s="8"/>
       <c r="H1238" s="8"/>
       <c r="I1238" s="4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="J1238" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1238" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="L1238" s="8"/>
       <c r="M1238" s="8"/>
@@ -34741,34 +34738,34 @@
         <v>194</v>
       </c>
       <c r="B1239" s="8" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C1239" s="8" t="s">
         <v>1459</v>
       </c>
-      <c r="C1239" s="8" t="s">
+      <c r="D1239" s="8" t="s">
         <v>1460</v>
       </c>
-      <c r="D1239" s="8" t="s">
+      <c r="E1239" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1239" s="8" t="s">
         <v>1461</v>
       </c>
-      <c r="E1239" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1239" s="8" t="s">
+      <c r="G1239" s="8" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H1239" s="8" t="s">
         <v>1462</v>
       </c>
-      <c r="G1239" s="8" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H1239" s="8" t="s">
+      <c r="I1239" s="4" t="s">
         <v>1463</v>
-      </c>
-      <c r="I1239" s="4" t="s">
-        <v>1464</v>
       </c>
       <c r="J1239" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1239" s="4" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="L1239" s="8" t="s">
         <v>95</v>
@@ -34787,13 +34784,13 @@
       <c r="G1240" s="8"/>
       <c r="H1240" s="8"/>
       <c r="I1240" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="J1240" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1240" s="4" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L1240" s="8"/>
       <c r="M1240" s="8"/>
@@ -34808,13 +34805,13 @@
       <c r="G1241" s="8"/>
       <c r="H1241" s="8"/>
       <c r="I1241" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="J1241" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1241" s="4" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="L1241" s="8"/>
       <c r="M1241" s="8"/>
@@ -34824,34 +34821,34 @@
         <v>195</v>
       </c>
       <c r="B1242" s="8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C1242" s="8" t="s">
         <v>1470</v>
       </c>
-      <c r="C1242" s="8" t="s">
+      <c r="D1242" s="8" t="s">
         <v>1471</v>
       </c>
-      <c r="D1242" s="8" t="s">
+      <c r="E1242" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1242" s="8" t="s">
         <v>1472</v>
       </c>
-      <c r="E1242" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1242" s="8" t="s">
+      <c r="G1242" s="8" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H1242" s="8" t="s">
         <v>1473</v>
       </c>
-      <c r="G1242" s="8" t="s">
-        <v>1473</v>
-      </c>
-      <c r="H1242" s="8" t="s">
-        <v>1474</v>
-      </c>
       <c r="I1242" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="J1242" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1242" s="4" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="L1242" s="8" t="s">
         <v>95</v>
@@ -34870,13 +34867,13 @@
       <c r="G1243" s="8"/>
       <c r="H1243" s="8"/>
       <c r="I1243" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="J1243" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1243" s="4" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="L1243" s="8"/>
       <c r="M1243" s="8"/>
@@ -34891,13 +34888,13 @@
       <c r="G1244" s="8"/>
       <c r="H1244" s="8"/>
       <c r="I1244" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="J1244" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1244" s="4" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="L1244" s="8"/>
       <c r="M1244" s="8"/>
@@ -34907,34 +34904,34 @@
         <v>196</v>
       </c>
       <c r="B1245" s="8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C1245" s="8" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D1245" s="8" t="s">
         <v>1475</v>
       </c>
-      <c r="C1245" s="8" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D1245" s="8" t="s">
+      <c r="E1245" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1245" s="8" t="s">
         <v>1476</v>
       </c>
-      <c r="E1245" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1245" s="8" t="s">
+      <c r="G1245" s="8" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H1245" s="8" t="s">
         <v>1477</v>
       </c>
-      <c r="G1245" s="8" t="s">
-        <v>1477</v>
-      </c>
-      <c r="H1245" s="8" t="s">
+      <c r="I1245" s="4" t="s">
         <v>1478</v>
-      </c>
-      <c r="I1245" s="4" t="s">
-        <v>1479</v>
       </c>
       <c r="J1245" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1245" s="4" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="L1245" s="8" t="s">
         <v>95</v>
@@ -34953,13 +34950,13 @@
       <c r="G1246" s="8"/>
       <c r="H1246" s="8"/>
       <c r="I1246" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="J1246" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1246" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="L1246" s="8"/>
       <c r="M1246" s="8"/>
@@ -34974,13 +34971,13 @@
       <c r="G1247" s="8"/>
       <c r="H1247" s="8"/>
       <c r="I1247" s="4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="J1247" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1247" s="4" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="L1247" s="8"/>
       <c r="M1247" s="8"/>
@@ -34995,13 +34992,13 @@
       <c r="G1248" s="8"/>
       <c r="H1248" s="8"/>
       <c r="I1248" s="4" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="J1248" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1248" s="4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="L1248" s="8"/>
       <c r="M1248" s="8"/>
@@ -35011,34 +35008,34 @@
         <v>197</v>
       </c>
       <c r="B1249" s="8" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C1249" s="8" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D1249" s="8" t="s">
         <v>1487</v>
       </c>
-      <c r="C1249" s="8" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D1249" s="8" t="s">
+      <c r="E1249" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1249" s="8" t="s">
         <v>1488</v>
       </c>
-      <c r="E1249" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1249" s="8" t="s">
+      <c r="G1249" s="8" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H1249" s="8" t="s">
         <v>1489</v>
       </c>
-      <c r="G1249" s="8" t="s">
-        <v>1489</v>
-      </c>
-      <c r="H1249" s="8" t="s">
-        <v>1490</v>
-      </c>
       <c r="I1249" s="4" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J1249" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1249" s="4" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="L1249" s="8" t="s">
         <v>95</v>
@@ -35057,13 +35054,13 @@
       <c r="G1250" s="8"/>
       <c r="H1250" s="8"/>
       <c r="I1250" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="J1250" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1250" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="L1250" s="8"/>
       <c r="M1250" s="8"/>
@@ -35078,13 +35075,13 @@
       <c r="G1251" s="8"/>
       <c r="H1251" s="8"/>
       <c r="I1251" s="4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="J1251" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1251" s="4" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="L1251" s="8"/>
       <c r="M1251" s="8"/>
@@ -35099,13 +35096,13 @@
       <c r="G1252" s="8"/>
       <c r="H1252" s="8"/>
       <c r="I1252" s="4" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="J1252" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1252" s="4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="L1252" s="8"/>
       <c r="M1252" s="8"/>
@@ -35115,25 +35112,25 @@
         <v>198</v>
       </c>
       <c r="B1253" s="4" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C1253" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D1253" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E1253" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1253" s="4" t="s">
         <v>1492</v>
       </c>
-      <c r="E1253" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1253" s="4" t="s">
+      <c r="G1253" s="4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H1253" s="4" t="s">
         <v>1493</v>
-      </c>
-      <c r="G1253" s="4" t="s">
-        <v>1493</v>
-      </c>
-      <c r="H1253" s="4" t="s">
-        <v>1494</v>
       </c>
       <c r="I1253" s="7" t="s">
         <v>137</v>
@@ -35156,25 +35153,25 @@
         <v>199</v>
       </c>
       <c r="B1254" s="4" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C1254" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D1254" s="4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E1254" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1254" s="4" t="s">
         <v>1496</v>
       </c>
-      <c r="E1254" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1254" s="4" t="s">
+      <c r="G1254" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H1254" s="4" t="s">
         <v>1497</v>
-      </c>
-      <c r="G1254" s="4" t="s">
-        <v>1497</v>
-      </c>
-      <c r="H1254" s="4" t="s">
-        <v>1498</v>
       </c>
       <c r="I1254" s="7" t="s">
         <v>137</v>
@@ -35197,34 +35194,34 @@
         <v>200</v>
       </c>
       <c r="B1255" s="8" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C1255" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1255" s="8" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E1255" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1255" s="8" t="s">
         <v>1500</v>
       </c>
-      <c r="E1255" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1255" s="8" t="s">
+      <c r="G1255" s="8" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H1255" s="8" t="s">
         <v>1501</v>
       </c>
-      <c r="G1255" s="8" t="s">
-        <v>1501</v>
-      </c>
-      <c r="H1255" s="8" t="s">
+      <c r="I1255" s="4" t="s">
         <v>1502</v>
-      </c>
-      <c r="I1255" s="4" t="s">
-        <v>1503</v>
       </c>
       <c r="J1255" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1255" s="4" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="L1255" s="8" t="s">
         <v>95</v>
@@ -35243,13 +35240,13 @@
       <c r="G1256" s="8"/>
       <c r="H1256" s="8"/>
       <c r="I1256" s="4" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="J1256" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1256" s="4" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="L1256" s="8"/>
       <c r="M1256" s="8"/>
@@ -35264,13 +35261,13 @@
       <c r="G1257" s="8"/>
       <c r="H1257" s="8"/>
       <c r="I1257" s="4" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="J1257" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1257" s="4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="L1257" s="8"/>
       <c r="M1257" s="8"/>
@@ -35301,34 +35298,34 @@
         <v>201</v>
       </c>
       <c r="B1259" s="8" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C1259" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1259" s="8" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E1259" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1259" s="8" t="s">
         <v>1510</v>
       </c>
-      <c r="E1259" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1259" s="8" t="s">
+      <c r="G1259" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H1259" s="8" t="s">
         <v>1511</v>
       </c>
-      <c r="G1259" s="8" t="s">
-        <v>1511</v>
-      </c>
-      <c r="H1259" s="8" t="s">
+      <c r="I1259" s="4" t="s">
         <v>1512</v>
-      </c>
-      <c r="I1259" s="4" t="s">
-        <v>1513</v>
       </c>
       <c r="J1259" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1259" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="L1259" s="8" t="s">
         <v>95</v>
@@ -35347,13 +35344,13 @@
       <c r="G1260" s="8"/>
       <c r="H1260" s="8"/>
       <c r="I1260" s="4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="J1260" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1260" s="4" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="L1260" s="8"/>
       <c r="M1260" s="8"/>
@@ -35368,13 +35365,13 @@
       <c r="G1261" s="8"/>
       <c r="H1261" s="8"/>
       <c r="I1261" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="J1261" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1261" s="4" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="L1261" s="8"/>
       <c r="M1261" s="8"/>
@@ -35405,34 +35402,34 @@
         <v>202</v>
       </c>
       <c r="B1263" s="8" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C1263" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1263" s="8" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E1263" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1263" s="8" t="s">
         <v>1520</v>
       </c>
-      <c r="E1263" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1263" s="8" t="s">
+      <c r="G1263" s="8" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H1263" s="8" t="s">
         <v>1521</v>
       </c>
-      <c r="G1263" s="8" t="s">
-        <v>1521</v>
-      </c>
-      <c r="H1263" s="8" t="s">
+      <c r="I1263" s="4" t="s">
         <v>1522</v>
-      </c>
-      <c r="I1263" s="4" t="s">
-        <v>1523</v>
       </c>
       <c r="J1263" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1263" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="L1263" s="8" t="s">
         <v>95</v>
@@ -35451,13 +35448,13 @@
       <c r="G1264" s="8"/>
       <c r="H1264" s="8"/>
       <c r="I1264" s="4" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="J1264" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1264" s="4" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="L1264" s="8"/>
       <c r="M1264" s="8"/>
@@ -35472,13 +35469,13 @@
       <c r="G1265" s="8"/>
       <c r="H1265" s="8"/>
       <c r="I1265" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="J1265" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1265" s="4" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="L1265" s="8"/>
       <c r="M1265" s="8"/>
@@ -35509,34 +35506,34 @@
         <v>203</v>
       </c>
       <c r="B1267" s="8" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C1267" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1267" s="8" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E1267" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1267" s="8" t="s">
         <v>1529</v>
       </c>
-      <c r="E1267" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1267" s="8" t="s">
+      <c r="G1267" s="8" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H1267" s="8" t="s">
         <v>1530</v>
       </c>
-      <c r="G1267" s="8" t="s">
-        <v>1530</v>
-      </c>
-      <c r="H1267" s="8" t="s">
+      <c r="I1267" s="4" t="s">
         <v>1531</v>
-      </c>
-      <c r="I1267" s="4" t="s">
-        <v>1532</v>
       </c>
       <c r="J1267" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1267" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="L1267" s="8" t="s">
         <v>95</v>
@@ -35555,13 +35552,13 @@
       <c r="G1268" s="8"/>
       <c r="H1268" s="8"/>
       <c r="I1268" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="J1268" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1268" s="4" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="L1268" s="8"/>
       <c r="M1268" s="8"/>
@@ -35576,13 +35573,13 @@
       <c r="G1269" s="8"/>
       <c r="H1269" s="8"/>
       <c r="I1269" s="4" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="J1269" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1269" s="4" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="L1269" s="8"/>
       <c r="M1269" s="8"/>
@@ -35613,34 +35610,34 @@
         <v>204</v>
       </c>
       <c r="B1271" s="8" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C1271" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1271" s="8" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E1271" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1271" s="8" t="s">
         <v>1539</v>
       </c>
-      <c r="E1271" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1271" s="8" t="s">
+      <c r="G1271" s="8" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H1271" s="8" t="s">
         <v>1540</v>
       </c>
-      <c r="G1271" s="8" t="s">
-        <v>1540</v>
-      </c>
-      <c r="H1271" s="8" t="s">
+      <c r="I1271" s="4" t="s">
         <v>1541</v>
-      </c>
-      <c r="I1271" s="4" t="s">
-        <v>1542</v>
       </c>
       <c r="J1271" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1271" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="L1271" s="8" t="s">
         <v>95</v>
@@ -35659,13 +35656,13 @@
       <c r="G1272" s="8"/>
       <c r="H1272" s="8"/>
       <c r="I1272" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="J1272" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1272" s="4" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="L1272" s="8"/>
       <c r="M1272" s="8"/>
@@ -35680,13 +35677,13 @@
       <c r="G1273" s="8"/>
       <c r="H1273" s="8"/>
       <c r="I1273" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="J1273" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1273" s="4" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="L1273" s="8"/>
       <c r="M1273" s="8"/>
@@ -35701,13 +35698,13 @@
       <c r="G1274" s="8"/>
       <c r="H1274" s="8"/>
       <c r="I1274" s="4" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="J1274" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1274" s="4" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="L1274" s="8"/>
       <c r="M1274" s="8"/>
@@ -35722,13 +35719,13 @@
       <c r="G1275" s="8"/>
       <c r="H1275" s="8"/>
       <c r="I1275" s="4" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="J1275" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K1275" s="4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="L1275" s="8"/>
       <c r="M1275" s="8"/>
@@ -35743,13 +35740,13 @@
       <c r="G1276" s="8"/>
       <c r="H1276" s="8"/>
       <c r="I1276" s="4" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="J1276" s="4" t="n">
         <v>6</v>
       </c>
       <c r="K1276" s="4" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="L1276" s="8"/>
       <c r="M1276" s="8"/>
@@ -35764,13 +35761,13 @@
       <c r="G1277" s="8"/>
       <c r="H1277" s="8"/>
       <c r="I1277" s="4" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="J1277" s="4" t="n">
         <v>80</v>
       </c>
       <c r="K1277" s="4" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="L1277" s="8"/>
       <c r="M1277" s="8"/>
@@ -35780,34 +35777,34 @@
         <v>205</v>
       </c>
       <c r="B1278" s="8" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C1278" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1278" s="8" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E1278" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1278" s="8" t="s">
         <v>1557</v>
       </c>
-      <c r="E1278" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1278" s="8" t="s">
+      <c r="G1278" s="8" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H1278" s="8" t="s">
         <v>1558</v>
       </c>
-      <c r="G1278" s="8" t="s">
-        <v>1558</v>
-      </c>
-      <c r="H1278" s="8" t="s">
+      <c r="I1278" s="4" t="s">
         <v>1559</v>
-      </c>
-      <c r="I1278" s="4" t="s">
-        <v>1560</v>
       </c>
       <c r="J1278" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1278" s="4" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="L1278" s="8" t="s">
         <v>95</v>
@@ -35826,13 +35823,13 @@
       <c r="G1279" s="8"/>
       <c r="H1279" s="8"/>
       <c r="I1279" s="4" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="J1279" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1279" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="L1279" s="8"/>
       <c r="M1279" s="8"/>
@@ -35847,13 +35844,13 @@
       <c r="G1280" s="8"/>
       <c r="H1280" s="8"/>
       <c r="I1280" s="4" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="J1280" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1280" s="4" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="L1280" s="8"/>
       <c r="M1280" s="8"/>
@@ -35868,13 +35865,13 @@
       <c r="G1281" s="8"/>
       <c r="H1281" s="8"/>
       <c r="I1281" s="4" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="J1281" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1281" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="L1281" s="8"/>
       <c r="M1281" s="8"/>
@@ -35884,34 +35881,34 @@
         <v>206</v>
       </c>
       <c r="B1282" s="8" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C1282" s="8" t="s">
         <v>1568</v>
       </c>
-      <c r="C1282" s="8" t="s">
+      <c r="D1282" s="8" t="s">
         <v>1569</v>
       </c>
-      <c r="D1282" s="8" t="s">
+      <c r="E1282" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1282" s="8" t="s">
         <v>1570</v>
       </c>
-      <c r="E1282" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1282" s="8" t="s">
+      <c r="G1282" s="8" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H1282" s="8" t="s">
         <v>1571</v>
       </c>
-      <c r="G1282" s="8" t="s">
-        <v>1571</v>
-      </c>
-      <c r="H1282" s="8" t="s">
+      <c r="I1282" s="4" t="s">
         <v>1572</v>
-      </c>
-      <c r="I1282" s="4" t="s">
-        <v>1573</v>
       </c>
       <c r="J1282" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1282" s="4" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="L1282" s="8" t="s">
         <v>95</v>
@@ -35930,13 +35927,13 @@
       <c r="G1283" s="8"/>
       <c r="H1283" s="8"/>
       <c r="I1283" s="4" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="J1283" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1283" s="4" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="L1283" s="8"/>
       <c r="M1283" s="8"/>
@@ -35951,13 +35948,13 @@
       <c r="G1284" s="8"/>
       <c r="H1284" s="8"/>
       <c r="I1284" s="4" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="J1284" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1284" s="4" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="L1284" s="8"/>
       <c r="M1284" s="8"/>
@@ -35972,13 +35969,13 @@
       <c r="G1285" s="8"/>
       <c r="H1285" s="8"/>
       <c r="I1285" s="4" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="J1285" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1285" s="4" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="L1285" s="8"/>
       <c r="M1285" s="8"/>
@@ -35993,13 +35990,13 @@
       <c r="G1286" s="8"/>
       <c r="H1286" s="8"/>
       <c r="I1286" s="4" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="J1286" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K1286" s="4" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="L1286" s="8"/>
       <c r="M1286" s="8"/>
@@ -36030,28 +36027,28 @@
         <v>207</v>
       </c>
       <c r="B1288" s="4" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C1288" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D1288" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E1288" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1288" s="4" t="s">
         <v>1584</v>
       </c>
-      <c r="E1288" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1288" s="4" t="s">
+      <c r="G1288" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="H1288" s="4" t="s">
         <v>1585</v>
       </c>
-      <c r="G1288" s="4" t="s">
-        <v>1585</v>
-      </c>
-      <c r="H1288" s="4" t="s">
+      <c r="I1288" s="4" t="s">
         <v>1586</v>
-      </c>
-      <c r="I1288" s="4" t="s">
-        <v>1587</v>
       </c>
       <c r="J1288" s="4" t="n">
         <v>90</v>
@@ -36071,7 +36068,7 @@
     </row>
     <row r="1290" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1290" s="2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1291" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36079,7 +36076,7 @@
     </row>
     <row r="1292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1292" s="4" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1293" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36131,7 +36128,7 @@
         <v>2001</v>
       </c>
       <c r="B1295" s="4" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C1295" s="4" t="s">
         <v>93</v>
@@ -36143,13 +36140,13 @@
         <v>95</v>
       </c>
       <c r="F1295" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G1295" s="4" t="s">
         <v>1591</v>
       </c>
-      <c r="G1295" s="4" t="s">
+      <c r="H1295" s="4" t="s">
         <v>1592</v>
-      </c>
-      <c r="H1295" s="4" t="s">
-        <v>1593</v>
       </c>
       <c r="I1295" s="7" t="s">
         <v>137</v>
@@ -36172,7 +36169,7 @@
         <v>2002</v>
       </c>
       <c r="B1296" s="8" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C1296" s="8" t="s">
         <v>93</v>
@@ -36184,16 +36181,16 @@
         <v>95</v>
       </c>
       <c r="F1296" s="8" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G1296" s="8" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H1296" s="8" t="s">
         <v>1595</v>
       </c>
-      <c r="G1296" s="8" t="s">
-        <v>1595</v>
-      </c>
-      <c r="H1296" s="8" t="s">
+      <c r="I1296" s="4" t="s">
         <v>1596</v>
-      </c>
-      <c r="I1296" s="4" t="s">
-        <v>1597</v>
       </c>
       <c r="J1296" s="4" t="n">
         <v>1</v>
@@ -36218,7 +36215,7 @@
       <c r="G1297" s="8"/>
       <c r="H1297" s="8"/>
       <c r="I1297" s="4" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="J1297" s="4" t="n">
         <v>2</v>
@@ -36237,7 +36234,7 @@
       <c r="G1298" s="8"/>
       <c r="H1298" s="8"/>
       <c r="I1298" s="4" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="J1298" s="4" t="n">
         <v>3</v>
@@ -36256,7 +36253,7 @@
       <c r="G1299" s="8"/>
       <c r="H1299" s="8"/>
       <c r="I1299" s="4" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="J1299" s="4" t="n">
         <v>4</v>
@@ -36275,7 +36272,7 @@
       <c r="G1300" s="8"/>
       <c r="H1300" s="8"/>
       <c r="I1300" s="4" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="J1300" s="4" t="n">
         <v>5</v>
@@ -36294,7 +36291,7 @@
       <c r="G1301" s="8"/>
       <c r="H1301" s="8"/>
       <c r="I1301" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="J1301" s="4" t="n">
         <v>6</v>
@@ -36308,7 +36305,7 @@
         <v>2003</v>
       </c>
       <c r="B1302" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C1302" s="4" t="s">
         <v>93</v>
@@ -36320,13 +36317,13 @@
         <v>95</v>
       </c>
       <c r="F1302" s="4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G1302" s="4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H1302" s="4" t="s">
         <v>1604</v>
-      </c>
-      <c r="G1302" s="4" t="s">
-        <v>1604</v>
-      </c>
-      <c r="H1302" s="4" t="s">
-        <v>1605</v>
       </c>
       <c r="I1302" s="7" t="s">
         <v>137</v>
@@ -36349,7 +36346,7 @@
         <v>2004</v>
       </c>
       <c r="B1303" s="8" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C1303" s="8" t="s">
         <v>93</v>
@@ -36361,22 +36358,22 @@
         <v>95</v>
       </c>
       <c r="F1303" s="8" t="s">
+        <v>1606</v>
+      </c>
+      <c r="G1303" s="8" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H1303" s="8" t="s">
         <v>1607</v>
       </c>
-      <c r="G1303" s="8" t="s">
-        <v>1607</v>
-      </c>
-      <c r="H1303" s="8" t="s">
+      <c r="I1303" s="4" t="s">
         <v>1608</v>
-      </c>
-      <c r="I1303" s="4" t="s">
-        <v>1609</v>
       </c>
       <c r="J1303" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1303" s="4" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="L1303" s="8" t="s">
         <v>95</v>
@@ -36395,13 +36392,13 @@
       <c r="G1304" s="8"/>
       <c r="H1304" s="8"/>
       <c r="I1304" s="4" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="J1304" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1304" s="4" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="L1304" s="8"/>
       <c r="M1304" s="8"/>
@@ -36411,7 +36408,7 @@
         <v>2005</v>
       </c>
       <c r="B1305" s="8" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C1305" s="8" t="s">
         <v>93</v>
@@ -36423,22 +36420,22 @@
         <v>95</v>
       </c>
       <c r="F1305" s="8" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G1305" s="8" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H1305" s="8" t="s">
         <v>1612</v>
       </c>
-      <c r="G1305" s="8" t="s">
-        <v>1612</v>
-      </c>
-      <c r="H1305" s="8" t="s">
+      <c r="I1305" s="4" t="s">
         <v>1613</v>
-      </c>
-      <c r="I1305" s="4" t="s">
-        <v>1614</v>
       </c>
       <c r="J1305" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1305" s="4" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="L1305" s="8" t="s">
         <v>95</v>
@@ -36457,13 +36454,13 @@
       <c r="G1306" s="8"/>
       <c r="H1306" s="8"/>
       <c r="I1306" s="4" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="J1306" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1306" s="4" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="L1306" s="8"/>
       <c r="M1306" s="8"/>
@@ -36478,13 +36475,13 @@
       <c r="G1307" s="8"/>
       <c r="H1307" s="8"/>
       <c r="I1307" s="4" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="J1307" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1307" s="4" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="L1307" s="8"/>
       <c r="M1307" s="8"/>
@@ -36494,7 +36491,7 @@
         <v>2006</v>
       </c>
       <c r="B1308" s="8" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C1308" s="8" t="s">
         <v>93</v>
@@ -36506,22 +36503,22 @@
         <v>95</v>
       </c>
       <c r="F1308" s="8" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G1308" s="8" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H1308" s="8" t="s">
         <v>1621</v>
       </c>
-      <c r="G1308" s="8" t="s">
-        <v>1621</v>
-      </c>
-      <c r="H1308" s="8" t="s">
+      <c r="I1308" s="4" t="s">
         <v>1622</v>
-      </c>
-      <c r="I1308" s="4" t="s">
-        <v>1623</v>
       </c>
       <c r="J1308" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1308" s="4" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="L1308" s="8" t="s">
         <v>95</v>
@@ -36540,13 +36537,13 @@
       <c r="G1309" s="8"/>
       <c r="H1309" s="8"/>
       <c r="I1309" s="4" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="J1309" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1309" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="L1309" s="8"/>
       <c r="M1309" s="8"/>
@@ -36561,13 +36558,13 @@
       <c r="G1310" s="8"/>
       <c r="H1310" s="8"/>
       <c r="I1310" s="4" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="J1310" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1310" s="4" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="L1310" s="8"/>
       <c r="M1310" s="8"/>
@@ -36577,7 +36574,7 @@
         <v>2007</v>
       </c>
       <c r="B1311" s="8" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C1311" s="8" t="s">
         <v>93</v>
@@ -36589,22 +36586,22 @@
         <v>95</v>
       </c>
       <c r="F1311" s="8" t="s">
+        <v>1629</v>
+      </c>
+      <c r="G1311" s="8" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H1311" s="8" t="s">
         <v>1630</v>
       </c>
-      <c r="G1311" s="8" t="s">
-        <v>1630</v>
-      </c>
-      <c r="H1311" s="8" t="s">
+      <c r="I1311" s="4" t="s">
         <v>1631</v>
-      </c>
-      <c r="I1311" s="4" t="s">
-        <v>1632</v>
       </c>
       <c r="J1311" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K1311" s="4" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="L1311" s="8" t="s">
         <v>95</v>
@@ -36623,13 +36620,13 @@
       <c r="G1312" s="8"/>
       <c r="H1312" s="8"/>
       <c r="I1312" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="J1312" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1312" s="4" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="L1312" s="8"/>
       <c r="M1312" s="8"/>
@@ -36639,7 +36636,7 @@
         <v>2008</v>
       </c>
       <c r="B1313" s="8" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C1313" s="8" t="s">
         <v>93</v>
@@ -36651,22 +36648,22 @@
         <v>95</v>
       </c>
       <c r="F1313" s="8" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G1313" s="8" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H1313" s="8" t="s">
         <v>1637</v>
       </c>
-      <c r="G1313" s="8" t="s">
-        <v>1637</v>
-      </c>
-      <c r="H1313" s="8" t="s">
-        <v>1638</v>
-      </c>
       <c r="I1313" s="4" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="J1313" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1313" s="4" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="L1313" s="8" t="s">
         <v>95</v>
@@ -36685,13 +36682,13 @@
       <c r="G1314" s="8"/>
       <c r="H1314" s="8"/>
       <c r="I1314" s="4" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="J1314" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1314" s="4" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="L1314" s="8"/>
       <c r="M1314" s="8"/>
@@ -36706,13 +36703,13 @@
       <c r="G1315" s="8"/>
       <c r="H1315" s="8"/>
       <c r="I1315" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="J1315" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1315" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="L1315" s="8"/>
       <c r="M1315" s="8"/>
@@ -36727,13 +36724,13 @@
       <c r="G1316" s="8"/>
       <c r="H1316" s="8"/>
       <c r="I1316" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="J1316" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1316" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="L1316" s="8"/>
       <c r="M1316" s="8"/>
@@ -36748,13 +36745,13 @@
       <c r="G1317" s="8"/>
       <c r="H1317" s="8"/>
       <c r="I1317" s="4" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="J1317" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K1317" s="4" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="L1317" s="8"/>
       <c r="M1317" s="8"/>
@@ -36769,13 +36766,13 @@
       <c r="G1318" s="8"/>
       <c r="H1318" s="8"/>
       <c r="I1318" s="4" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="J1318" s="4" t="n">
         <v>6</v>
       </c>
       <c r="K1318" s="4" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="L1318" s="8"/>
       <c r="M1318" s="8"/>
@@ -36790,13 +36787,13 @@
       <c r="G1319" s="8"/>
       <c r="H1319" s="8"/>
       <c r="I1319" s="4" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="J1319" s="4" t="n">
         <v>7</v>
       </c>
       <c r="K1319" s="4" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="L1319" s="8"/>
       <c r="M1319" s="8"/>
@@ -36811,13 +36808,13 @@
       <c r="G1320" s="8"/>
       <c r="H1320" s="8"/>
       <c r="I1320" s="4" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="J1320" s="4" t="n">
         <v>8</v>
       </c>
       <c r="K1320" s="4" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="L1320" s="8"/>
       <c r="M1320" s="8"/>
@@ -36832,13 +36829,13 @@
       <c r="G1321" s="8"/>
       <c r="H1321" s="8"/>
       <c r="I1321" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="J1321" s="4" t="n">
         <v>9</v>
       </c>
       <c r="K1321" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="L1321" s="8"/>
       <c r="M1321" s="8"/>
@@ -36853,13 +36850,13 @@
       <c r="G1322" s="8"/>
       <c r="H1322" s="8"/>
       <c r="I1322" s="4" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="J1322" s="4" t="n">
         <v>10</v>
       </c>
       <c r="K1322" s="4" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="L1322" s="8"/>
       <c r="M1322" s="8"/>
@@ -36874,13 +36871,13 @@
       <c r="G1323" s="8"/>
       <c r="H1323" s="8"/>
       <c r="I1323" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="J1323" s="4" t="n">
         <v>11</v>
       </c>
       <c r="K1323" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="L1323" s="8"/>
       <c r="M1323" s="8"/>
@@ -36890,7 +36887,7 @@
         <v>2009</v>
       </c>
       <c r="B1324" s="10" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C1324" s="8" t="s">
         <v>93</v>
@@ -36902,22 +36899,22 @@
         <v>95</v>
       </c>
       <c r="F1324" s="8" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G1324" s="8" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H1324" s="8" t="s">
         <v>1649</v>
       </c>
-      <c r="G1324" s="8" t="s">
-        <v>1649</v>
-      </c>
-      <c r="H1324" s="8" t="s">
+      <c r="I1324" s="4" t="s">
         <v>1650</v>
-      </c>
-      <c r="I1324" s="4" t="s">
-        <v>1651</v>
       </c>
       <c r="J1324" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K1324" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="L1324" s="8" t="s">
         <v>95</v>
@@ -37104,13 +37101,13 @@
       <c r="G1333" s="8"/>
       <c r="H1333" s="8"/>
       <c r="I1333" s="4" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="J1333" s="4" t="n">
         <v>80</v>
       </c>
       <c r="K1333" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="L1333" s="8"/>
       <c r="M1333" s="8"/>
@@ -37120,7 +37117,7 @@
         <v>2010</v>
       </c>
       <c r="B1334" s="10" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C1334" s="8" t="s">
         <v>93</v>
@@ -37132,22 +37129,22 @@
         <v>95</v>
       </c>
       <c r="F1334" s="8" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G1334" s="8" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H1334" s="8" t="s">
         <v>1655</v>
       </c>
-      <c r="G1334" s="8" t="s">
-        <v>1655</v>
-      </c>
-      <c r="H1334" s="8" t="s">
-        <v>1656</v>
-      </c>
       <c r="I1334" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="J1334" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K1334" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="L1334" s="8" t="s">
         <v>95</v>
@@ -37334,13 +37331,13 @@
       <c r="G1343" s="8"/>
       <c r="H1343" s="8"/>
       <c r="I1343" s="4" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="J1343" s="4" t="n">
         <v>80</v>
       </c>
       <c r="K1343" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="L1343" s="8"/>
       <c r="M1343" s="8"/>
@@ -37350,7 +37347,7 @@
         <v>2011</v>
       </c>
       <c r="B1344" s="8" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C1344" s="8" t="s">
         <v>93</v>
@@ -37362,22 +37359,22 @@
         <v>95</v>
       </c>
       <c r="F1344" s="8" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G1344" s="8" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H1344" s="8" t="s">
         <v>1658</v>
       </c>
-      <c r="G1344" s="8" t="s">
-        <v>1658</v>
-      </c>
-      <c r="H1344" s="8" t="s">
+      <c r="I1344" s="4" t="s">
         <v>1659</v>
-      </c>
-      <c r="I1344" s="4" t="s">
-        <v>1660</v>
       </c>
       <c r="J1344" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1344" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="L1344" s="8" t="s">
         <v>95</v>
@@ -37396,13 +37393,13 @@
       <c r="G1345" s="8"/>
       <c r="H1345" s="8"/>
       <c r="I1345" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="J1345" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1345" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="L1345" s="8"/>
       <c r="M1345" s="8"/>
@@ -37417,13 +37414,13 @@
       <c r="G1346" s="8"/>
       <c r="H1346" s="8"/>
       <c r="I1346" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="J1346" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1346" s="4" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="L1346" s="8"/>
       <c r="M1346" s="8"/>
@@ -37438,13 +37435,13 @@
       <c r="G1347" s="8"/>
       <c r="H1347" s="8"/>
       <c r="I1347" s="4" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="J1347" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1347" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="L1347" s="8"/>
       <c r="M1347" s="8"/>
@@ -37459,13 +37456,13 @@
       <c r="G1348" s="8"/>
       <c r="H1348" s="8"/>
       <c r="I1348" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="J1348" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K1348" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="L1348" s="8"/>
       <c r="M1348" s="8"/>
@@ -37480,13 +37477,13 @@
       <c r="G1349" s="8"/>
       <c r="H1349" s="8"/>
       <c r="I1349" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="J1349" s="4" t="n">
         <v>6</v>
       </c>
       <c r="K1349" s="4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="L1349" s="8"/>
       <c r="M1349" s="8"/>
@@ -37501,13 +37498,13 @@
       <c r="G1350" s="8"/>
       <c r="H1350" s="8"/>
       <c r="I1350" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="J1350" s="4" t="n">
         <v>7</v>
       </c>
       <c r="K1350" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="L1350" s="8"/>
       <c r="M1350" s="8"/>
@@ -37522,13 +37519,13 @@
       <c r="G1351" s="8"/>
       <c r="H1351" s="8"/>
       <c r="I1351" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="J1351" s="4" t="n">
         <v>8</v>
       </c>
       <c r="K1351" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="L1351" s="8"/>
       <c r="M1351" s="8"/>
@@ -37538,7 +37535,7 @@
         <v>2012</v>
       </c>
       <c r="B1352" s="8" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C1352" s="8" t="s">
         <v>93</v>
@@ -37550,22 +37547,22 @@
         <v>95</v>
       </c>
       <c r="F1352" s="8" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G1352" s="8" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H1352" s="8" t="s">
         <v>1677</v>
       </c>
-      <c r="G1352" s="8" t="s">
-        <v>1677</v>
-      </c>
-      <c r="H1352" s="8" t="s">
+      <c r="I1352" s="4" t="s">
         <v>1678</v>
-      </c>
-      <c r="I1352" s="4" t="s">
-        <v>1679</v>
       </c>
       <c r="J1352" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1352" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="L1352" s="8" t="s">
         <v>95</v>
@@ -37584,13 +37581,13 @@
       <c r="G1353" s="8"/>
       <c r="H1353" s="8"/>
       <c r="I1353" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="J1353" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1353" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="L1353" s="8"/>
       <c r="M1353" s="8"/>
@@ -37605,13 +37602,13 @@
       <c r="G1354" s="8"/>
       <c r="H1354" s="8"/>
       <c r="I1354" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="J1354" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1354" s="4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="L1354" s="8"/>
       <c r="M1354" s="8"/>
@@ -37626,13 +37623,13 @@
       <c r="G1355" s="8"/>
       <c r="H1355" s="8"/>
       <c r="I1355" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="J1355" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1355" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="L1355" s="8"/>
       <c r="M1355" s="8"/>
@@ -37647,13 +37644,13 @@
       <c r="G1356" s="8"/>
       <c r="H1356" s="8"/>
       <c r="I1356" s="4" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="J1356" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K1356" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="L1356" s="8"/>
       <c r="M1356" s="8"/>
@@ -37668,13 +37665,13 @@
       <c r="G1357" s="8"/>
       <c r="H1357" s="8"/>
       <c r="I1357" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="J1357" s="4" t="n">
         <v>6</v>
       </c>
       <c r="K1357" s="4" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="L1357" s="8"/>
       <c r="M1357" s="8"/>
@@ -37689,13 +37686,13 @@
       <c r="G1358" s="8"/>
       <c r="H1358" s="8"/>
       <c r="I1358" s="4" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="J1358" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K1358" s="4" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="L1358" s="8"/>
       <c r="M1358" s="8"/>
@@ -37705,7 +37702,7 @@
         <v>2013</v>
       </c>
       <c r="B1359" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C1359" s="8" t="s">
         <v>93</v>
@@ -37717,22 +37714,22 @@
         <v>95</v>
       </c>
       <c r="F1359" s="8" t="s">
+        <v>1693</v>
+      </c>
+      <c r="G1359" s="8" t="s">
         <v>1694</v>
       </c>
-      <c r="G1359" s="8" t="s">
+      <c r="H1359" s="8" t="s">
         <v>1695</v>
       </c>
-      <c r="H1359" s="8" t="s">
+      <c r="I1359" s="4" t="s">
         <v>1696</v>
-      </c>
-      <c r="I1359" s="4" t="s">
-        <v>1697</v>
       </c>
       <c r="J1359" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1359" s="4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="L1359" s="8" t="s">
         <v>95</v>
@@ -37751,13 +37748,13 @@
       <c r="G1360" s="8"/>
       <c r="H1360" s="8"/>
       <c r="I1360" s="4" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="J1360" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1360" s="4" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="L1360" s="8"/>
       <c r="M1360" s="8"/>
@@ -37772,13 +37769,13 @@
       <c r="G1361" s="8"/>
       <c r="H1361" s="8"/>
       <c r="I1361" s="4" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="J1361" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1361" s="4" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="L1361" s="8"/>
       <c r="M1361" s="8"/>
@@ -37793,13 +37790,13 @@
       <c r="G1362" s="8"/>
       <c r="H1362" s="8"/>
       <c r="I1362" s="4" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="J1362" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K1362" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="L1362" s="8"/>
       <c r="M1362" s="8"/>
@@ -37814,13 +37811,13 @@
       <c r="G1363" s="8"/>
       <c r="H1363" s="8"/>
       <c r="I1363" s="4" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="J1363" s="4" t="n">
         <v>5</v>
       </c>
       <c r="K1363" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="L1363" s="8"/>
       <c r="M1363" s="8"/>
@@ -37835,13 +37832,13 @@
       <c r="G1364" s="8"/>
       <c r="H1364" s="8"/>
       <c r="I1364" s="4" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="J1364" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K1364" s="4" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="L1364" s="8"/>
       <c r="M1364" s="8"/>
@@ -37851,7 +37848,7 @@
         <v>2014</v>
       </c>
       <c r="B1365" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C1365" s="8" t="s">
         <v>93</v>
@@ -37863,22 +37860,22 @@
         <v>95</v>
       </c>
       <c r="F1365" s="8" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G1365" s="8" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H1365" s="8" t="s">
         <v>1709</v>
       </c>
-      <c r="G1365" s="8" t="s">
-        <v>1709</v>
-      </c>
-      <c r="H1365" s="8" t="s">
+      <c r="I1365" s="4" t="s">
         <v>1710</v>
-      </c>
-      <c r="I1365" s="4" t="s">
-        <v>1711</v>
       </c>
       <c r="J1365" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1365" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="L1365" s="8" t="s">
         <v>95</v>
@@ -37897,13 +37894,13 @@
       <c r="G1366" s="8"/>
       <c r="H1366" s="8"/>
       <c r="I1366" s="4" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="J1366" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K1366" s="4" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="L1366" s="8"/>
       <c r="M1366" s="8"/>
@@ -37913,7 +37910,7 @@
         <v>2015</v>
       </c>
       <c r="B1367" s="8" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C1367" s="8" t="s">
         <v>93</v>
@@ -37925,22 +37922,22 @@
         <v>95</v>
       </c>
       <c r="F1367" s="8" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G1367" s="8" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H1367" s="8" t="s">
         <v>1716</v>
       </c>
-      <c r="G1367" s="8" t="s">
-        <v>1716</v>
-      </c>
-      <c r="H1367" s="8" t="s">
+      <c r="I1367" s="4" t="s">
         <v>1717</v>
-      </c>
-      <c r="I1367" s="4" t="s">
-        <v>1718</v>
       </c>
       <c r="J1367" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1367" s="4" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="L1367" s="8" t="s">
         <v>95</v>
@@ -37959,13 +37956,13 @@
       <c r="G1368" s="8"/>
       <c r="H1368" s="8"/>
       <c r="I1368" s="4" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="J1368" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1368" s="4" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="L1368" s="8"/>
       <c r="M1368" s="8"/>
@@ -37980,13 +37977,13 @@
       <c r="G1369" s="8"/>
       <c r="H1369" s="8"/>
       <c r="I1369" s="4" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="J1369" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1369" s="4" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="L1369" s="8"/>
       <c r="M1369" s="8"/>
@@ -37996,7 +37993,7 @@
         <v>2016</v>
       </c>
       <c r="B1370" s="8" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C1370" s="8" t="s">
         <v>93</v>
@@ -38008,22 +38005,22 @@
         <v>95</v>
       </c>
       <c r="F1370" s="8" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G1370" s="8" t="s">
         <v>1725</v>
       </c>
-      <c r="G1370" s="8" t="s">
+      <c r="H1370" s="8" t="s">
         <v>1726</v>
       </c>
-      <c r="H1370" s="8" t="s">
+      <c r="I1370" s="4" t="s">
         <v>1727</v>
-      </c>
-      <c r="I1370" s="4" t="s">
-        <v>1728</v>
       </c>
       <c r="J1370" s="4" t="n">
         <v>11</v>
       </c>
       <c r="K1370" s="4" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="L1370" s="8" t="s">
         <v>95</v>
@@ -38042,13 +38039,13 @@
       <c r="G1371" s="8"/>
       <c r="H1371" s="8"/>
       <c r="I1371" s="4" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="J1371" s="4" t="n">
         <v>12</v>
       </c>
       <c r="K1371" s="4" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="L1371" s="8"/>
       <c r="M1371" s="8"/>
@@ -38063,13 +38060,13 @@
       <c r="G1372" s="8"/>
       <c r="H1372" s="8"/>
       <c r="I1372" s="4" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="J1372" s="4" t="n">
         <v>13</v>
       </c>
       <c r="K1372" s="4" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="L1372" s="8"/>
       <c r="M1372" s="8"/>
@@ -38084,13 +38081,13 @@
       <c r="G1373" s="8"/>
       <c r="H1373" s="8"/>
       <c r="I1373" s="4" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="J1373" s="4" t="n">
         <v>21</v>
       </c>
       <c r="K1373" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="L1373" s="8"/>
       <c r="M1373" s="8"/>
@@ -38105,13 +38102,13 @@
       <c r="G1374" s="8"/>
       <c r="H1374" s="8"/>
       <c r="I1374" s="4" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="J1374" s="4" t="n">
         <v>22</v>
       </c>
       <c r="K1374" s="4" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="L1374" s="8"/>
       <c r="M1374" s="8"/>
@@ -38126,13 +38123,13 @@
       <c r="G1375" s="8"/>
       <c r="H1375" s="8"/>
       <c r="I1375" s="4" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="J1375" s="4" t="n">
         <v>23</v>
       </c>
       <c r="K1375" s="4" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="L1375" s="8"/>
       <c r="M1375" s="8"/>
@@ -38147,13 +38144,13 @@
       <c r="G1376" s="8"/>
       <c r="H1376" s="8"/>
       <c r="I1376" s="4" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="J1376" s="4" t="n">
         <v>31</v>
       </c>
       <c r="K1376" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="L1376" s="8"/>
       <c r="M1376" s="8"/>
@@ -38168,13 +38165,13 @@
       <c r="G1377" s="8"/>
       <c r="H1377" s="8"/>
       <c r="I1377" s="4" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="J1377" s="4" t="n">
         <v>32</v>
       </c>
       <c r="K1377" s="4" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="L1377" s="8"/>
       <c r="M1377" s="8"/>
@@ -38189,13 +38186,13 @@
       <c r="G1378" s="8"/>
       <c r="H1378" s="8"/>
       <c r="I1378" s="4" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="J1378" s="4" t="n">
         <v>33</v>
       </c>
       <c r="K1378" s="4" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="L1378" s="8"/>
       <c r="M1378" s="8"/>
@@ -38205,7 +38202,7 @@
         <v>2017</v>
       </c>
       <c r="B1379" s="8" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C1379" s="8" t="s">
         <v>93</v>
@@ -38217,22 +38214,22 @@
         <v>95</v>
       </c>
       <c r="F1379" s="8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G1379" s="8" t="s">
         <v>1747</v>
       </c>
-      <c r="G1379" s="8" t="s">
+      <c r="H1379" s="8" t="s">
         <v>1748</v>
       </c>
-      <c r="H1379" s="8" t="s">
+      <c r="I1379" s="4" t="s">
         <v>1749</v>
-      </c>
-      <c r="I1379" s="4" t="s">
-        <v>1750</v>
       </c>
       <c r="J1379" s="4" t="n">
         <v>111</v>
       </c>
       <c r="K1379" s="4" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="L1379" s="8" t="s">
         <v>95</v>
@@ -38251,13 +38248,13 @@
       <c r="G1380" s="8"/>
       <c r="H1380" s="8"/>
       <c r="I1380" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="J1380" s="4" t="n">
         <v>112</v>
       </c>
       <c r="K1380" s="4" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="L1380" s="8"/>
       <c r="M1380" s="8"/>
@@ -38272,13 +38269,13 @@
       <c r="G1381" s="8"/>
       <c r="H1381" s="8"/>
       <c r="I1381" s="4" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="J1381" s="4" t="n">
         <v>113</v>
       </c>
       <c r="K1381" s="4" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="L1381" s="8"/>
       <c r="M1381" s="8"/>
@@ -38293,13 +38290,13 @@
       <c r="G1382" s="8"/>
       <c r="H1382" s="8"/>
       <c r="I1382" s="4" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="J1382" s="4" t="n">
         <v>121</v>
       </c>
       <c r="K1382" s="4" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="L1382" s="8"/>
       <c r="M1382" s="8"/>
@@ -38314,13 +38311,13 @@
       <c r="G1383" s="8"/>
       <c r="H1383" s="8"/>
       <c r="I1383" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="J1383" s="4" t="n">
         <v>122</v>
       </c>
       <c r="K1383" s="4" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="L1383" s="8"/>
       <c r="M1383" s="8"/>
@@ -38335,13 +38332,13 @@
       <c r="G1384" s="8"/>
       <c r="H1384" s="8"/>
       <c r="I1384" s="4" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="J1384" s="4" t="n">
         <v>123</v>
       </c>
       <c r="K1384" s="4" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="L1384" s="8"/>
       <c r="M1384" s="8"/>
@@ -38356,13 +38353,13 @@
       <c r="G1385" s="8"/>
       <c r="H1385" s="8"/>
       <c r="I1385" s="4" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="J1385" s="4" t="n">
         <v>134</v>
       </c>
       <c r="K1385" s="4" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="L1385" s="8"/>
       <c r="M1385" s="8"/>
@@ -38377,13 +38374,13 @@
       <c r="G1386" s="8"/>
       <c r="H1386" s="8"/>
       <c r="I1386" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="J1386" s="4" t="n">
         <v>136</v>
       </c>
       <c r="K1386" s="4" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="L1386" s="8"/>
       <c r="M1386" s="8"/>
@@ -38398,13 +38395,13 @@
       <c r="G1387" s="8"/>
       <c r="H1387" s="8"/>
       <c r="I1387" s="4" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="J1387" s="4" t="n">
         <v>137</v>
       </c>
       <c r="K1387" s="4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="L1387" s="8"/>
       <c r="M1387" s="8"/>
@@ -38419,13 +38416,13 @@
       <c r="G1388" s="8"/>
       <c r="H1388" s="8"/>
       <c r="I1388" s="4" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="J1388" s="4" t="n">
         <v>216</v>
       </c>
       <c r="K1388" s="4" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="L1388" s="8"/>
       <c r="M1388" s="8"/>
@@ -38440,13 +38437,13 @@
       <c r="G1389" s="8"/>
       <c r="H1389" s="8"/>
       <c r="I1389" s="4" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="J1389" s="4" t="n">
         <v>217</v>
       </c>
       <c r="K1389" s="4" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="L1389" s="8"/>
       <c r="M1389" s="8"/>
@@ -38461,13 +38458,13 @@
       <c r="G1390" s="8"/>
       <c r="H1390" s="8"/>
       <c r="I1390" s="4" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="J1390" s="4" t="n">
         <v>226</v>
       </c>
       <c r="K1390" s="4" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="L1390" s="8"/>
       <c r="M1390" s="8"/>
@@ -38482,13 +38479,13 @@
       <c r="G1391" s="8"/>
       <c r="H1391" s="8"/>
       <c r="I1391" s="4" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="J1391" s="4" t="n">
         <v>227</v>
       </c>
       <c r="K1391" s="4" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="L1391" s="8"/>
       <c r="M1391" s="8"/>
@@ -38503,13 +38500,13 @@
       <c r="G1392" s="8"/>
       <c r="H1392" s="8"/>
       <c r="I1392" s="4" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="J1392" s="4" t="n">
         <v>235</v>
       </c>
       <c r="K1392" s="4" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="L1392" s="8"/>
       <c r="M1392" s="8"/>
@@ -38524,13 +38521,13 @@
       <c r="G1393" s="8"/>
       <c r="H1393" s="8"/>
       <c r="I1393" s="4" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="J1393" s="4" t="n">
         <v>236</v>
       </c>
       <c r="K1393" s="4" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="L1393" s="8"/>
       <c r="M1393" s="8"/>
@@ -38545,13 +38542,13 @@
       <c r="G1394" s="8"/>
       <c r="H1394" s="8"/>
       <c r="I1394" s="4" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="J1394" s="4" t="n">
         <v>237</v>
       </c>
       <c r="K1394" s="4" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="L1394" s="8"/>
       <c r="M1394" s="8"/>
@@ -38566,13 +38563,13 @@
       <c r="G1395" s="8"/>
       <c r="H1395" s="8"/>
       <c r="I1395" s="4" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J1395" s="4" t="n">
         <v>314</v>
       </c>
       <c r="K1395" s="4" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="L1395" s="8"/>
       <c r="M1395" s="8"/>
@@ -38587,13 +38584,13 @@
       <c r="G1396" s="8"/>
       <c r="H1396" s="8"/>
       <c r="I1396" s="4" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="J1396" s="4" t="n">
         <v>316</v>
       </c>
       <c r="K1396" s="4" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="L1396" s="8"/>
       <c r="M1396" s="8"/>
@@ -38608,13 +38605,13 @@
       <c r="G1397" s="8"/>
       <c r="H1397" s="8"/>
       <c r="I1397" s="4" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="J1397" s="4" t="n">
         <v>317</v>
       </c>
       <c r="K1397" s="4" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="L1397" s="8"/>
       <c r="M1397" s="8"/>
@@ -38629,13 +38626,13 @@
       <c r="G1398" s="8"/>
       <c r="H1398" s="8"/>
       <c r="I1398" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="J1398" s="4" t="n">
         <v>325</v>
       </c>
       <c r="K1398" s="4" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="L1398" s="8"/>
       <c r="M1398" s="8"/>
@@ -38650,13 +38647,13 @@
       <c r="G1399" s="8"/>
       <c r="H1399" s="8"/>
       <c r="I1399" s="4" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="J1399" s="4" t="n">
         <v>326</v>
       </c>
       <c r="K1399" s="4" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="L1399" s="8"/>
       <c r="M1399" s="8"/>
@@ -38671,13 +38668,13 @@
       <c r="G1400" s="8"/>
       <c r="H1400" s="8"/>
       <c r="I1400" s="4" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="J1400" s="4" t="n">
         <v>327</v>
       </c>
       <c r="K1400" s="4" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="L1400" s="8"/>
       <c r="M1400" s="8"/>
@@ -38692,13 +38689,13 @@
       <c r="G1401" s="8"/>
       <c r="H1401" s="8"/>
       <c r="I1401" s="4" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="J1401" s="4" t="n">
         <v>334</v>
       </c>
       <c r="K1401" s="4" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="L1401" s="8"/>
       <c r="M1401" s="8"/>
@@ -38713,13 +38710,13 @@
       <c r="G1402" s="8"/>
       <c r="H1402" s="8"/>
       <c r="I1402" s="4" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="J1402" s="4" t="n">
         <v>335</v>
       </c>
       <c r="K1402" s="4" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="L1402" s="8"/>
       <c r="M1402" s="8"/>
@@ -38734,13 +38731,13 @@
       <c r="G1403" s="8"/>
       <c r="H1403" s="8"/>
       <c r="I1403" s="4" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="J1403" s="4" t="n">
         <v>338</v>
       </c>
       <c r="K1403" s="4" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="L1403" s="8"/>
       <c r="M1403" s="8"/>
@@ -38750,7 +38747,7 @@
         <v>2018</v>
       </c>
       <c r="B1404" s="8" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C1404" s="8" t="s">
         <v>93</v>
@@ -38762,22 +38759,22 @@
         <v>95</v>
       </c>
       <c r="F1404" s="8" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G1404" s="8" t="s">
         <v>1801</v>
       </c>
-      <c r="G1404" s="8" t="s">
+      <c r="H1404" s="8" t="s">
         <v>1802</v>
       </c>
-      <c r="H1404" s="8" t="s">
+      <c r="I1404" s="4" t="s">
         <v>1803</v>
-      </c>
-      <c r="I1404" s="4" t="s">
-        <v>1804</v>
       </c>
       <c r="J1404" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1404" s="4" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="L1404" s="8" t="s">
         <v>95</v>
@@ -38796,13 +38793,13 @@
       <c r="G1405" s="8"/>
       <c r="H1405" s="8"/>
       <c r="I1405" s="4" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="J1405" s="4" t="n">
         <v>2</v>
       </c>
       <c r="K1405" s="4" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="L1405" s="8"/>
       <c r="M1405" s="8"/>
@@ -38817,13 +38814,13 @@
       <c r="G1406" s="8"/>
       <c r="H1406" s="8"/>
       <c r="I1406" s="4" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="J1406" s="4" t="n">
         <v>3</v>
       </c>
       <c r="K1406" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="L1406" s="8"/>
       <c r="M1406" s="8"/>
@@ -38833,7 +38830,7 @@
         <v>2019</v>
       </c>
       <c r="B1407" s="8" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C1407" s="8" t="s">
         <v>93</v>
@@ -38845,22 +38842,22 @@
         <v>95</v>
       </c>
       <c r="F1407" s="8" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G1407" s="8" t="s">
+        <v>1810</v>
+      </c>
+      <c r="H1407" s="8" t="s">
         <v>1811</v>
       </c>
-      <c r="G1407" s="8" t="s">
-        <v>1811</v>
-      </c>
-      <c r="H1407" s="8" t="s">
+      <c r="I1407" s="4" t="s">
         <v>1812</v>
-      </c>
-      <c r="I1407" s="4" t="s">
-        <v>1813</v>
       </c>
       <c r="J1407" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K1407" s="4" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="L1407" s="8" t="s">
         <v>95</v>
@@ -38879,13 +38876,13 @@
       <c r="G1408" s="8"/>
       <c r="H1408" s="8"/>
       <c r="I1408" s="4" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="J1408" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K1408" s="4" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="L1408" s="8"/>
       <c r="M1408" s="8"/>
@@ -38895,25 +38892,25 @@
         <v>2020</v>
       </c>
       <c r="B1409" s="8" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C1409" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D1409" s="8" t="s">
         <v>1817</v>
       </c>
-      <c r="C1409" s="8" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D1409" s="8" t="s">
+      <c r="E1409" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1409" s="8" t="s">
         <v>1818</v>
       </c>
-      <c r="E1409" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1409" s="8" t="s">
+      <c r="G1409" s="8" t="s">
+        <v>1818</v>
+      </c>
+      <c r="H1409" s="8" t="s">
         <v>1819</v>
-      </c>
-      <c r="G1409" s="8" t="s">
-        <v>1819</v>
-      </c>
-      <c r="H1409" s="8" t="s">
-        <v>1820</v>
       </c>
       <c r="I1409" s="4" t="s">
         <v>180</v>
@@ -38922,7 +38919,7 @@
         <v>1</v>
       </c>
       <c r="K1409" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="L1409" s="8" t="s">
         <v>95</v>
@@ -38947,7 +38944,7 @@
         <v>2</v>
       </c>
       <c r="K1410" s="4" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="L1410" s="8"/>
       <c r="M1410" s="8"/>
@@ -38957,10 +38954,10 @@
         <v>2021</v>
       </c>
       <c r="B1411" s="4" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C1411" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D1411" s="4" t="s">
         <v>94</v>
@@ -38969,13 +38966,13 @@
         <v>95</v>
       </c>
       <c r="F1411" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G1411" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H1411" s="4" t="s">
         <v>1824</v>
-      </c>
-      <c r="G1411" s="4" t="s">
-        <v>1824</v>
-      </c>
-      <c r="H1411" s="4" t="s">
-        <v>1825</v>
       </c>
       <c r="I1411" s="7" t="s">
         <v>111</v>
@@ -38998,10 +38995,10 @@
         <v>2022</v>
       </c>
       <c r="B1412" s="4" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C1412" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D1412" s="4" t="s">
         <v>94</v>
@@ -39010,13 +39007,13 @@
         <v>95</v>
       </c>
       <c r="F1412" s="4" t="s">
+        <v>1826</v>
+      </c>
+      <c r="G1412" s="4" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H1412" s="4" t="s">
         <v>1827</v>
-      </c>
-      <c r="G1412" s="4" t="s">
-        <v>1827</v>
-      </c>
-      <c r="H1412" s="4" t="s">
-        <v>1828</v>
       </c>
       <c r="I1412" s="7" t="s">
         <v>111</v>
@@ -39039,10 +39036,10 @@
         <v>2023</v>
       </c>
       <c r="B1413" s="4" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C1413" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D1413" s="4" t="s">
         <v>94</v>
@@ -39051,16 +39048,16 @@
         <v>95</v>
       </c>
       <c r="F1413" s="4" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G1413" s="4" t="s">
+        <v>1829</v>
+      </c>
+      <c r="H1413" s="4" t="s">
         <v>1830</v>
       </c>
-      <c r="G1413" s="4" t="s">
-        <v>1830</v>
-      </c>
-      <c r="H1413" s="4" t="s">
+      <c r="I1413" s="7" t="s">
         <v>1831</v>
-      </c>
-      <c r="I1413" s="7" t="s">
-        <v>1832</v>
       </c>
       <c r="J1413" s="4" t="s">
         <v>94</v>
@@ -39080,10 +39077,10 @@
         <v>2024</v>
       </c>
       <c r="B1414" s="4" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C1414" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D1414" s="4" t="s">
         <v>94</v>
@@ -39092,16 +39089,16 @@
         <v>95</v>
       </c>
       <c r="F1414" s="4" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G1414" s="4" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H1414" s="4" t="s">
         <v>1834</v>
       </c>
-      <c r="G1414" s="4" t="s">
-        <v>1834</v>
-      </c>
-      <c r="H1414" s="4" t="s">
-        <v>1835</v>
-      </c>
       <c r="I1414" s="7" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="J1414" s="4" t="s">
         <v>94</v>
@@ -39121,10 +39118,10 @@
         <v>2025</v>
       </c>
       <c r="B1415" s="4" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C1415" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D1415" s="4" t="s">
         <v>94</v>
@@ -39133,13 +39130,13 @@
         <v>95</v>
       </c>
       <c r="F1415" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G1415" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H1415" s="4" t="s">
         <v>1837</v>
-      </c>
-      <c r="G1415" s="4" t="s">
-        <v>1837</v>
-      </c>
-      <c r="H1415" s="4" t="s">
-        <v>1838</v>
       </c>
       <c r="I1415" s="7" t="s">
         <v>137</v>
@@ -39162,10 +39159,10 @@
         <v>2026</v>
       </c>
       <c r="B1416" s="4" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C1416" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D1416" s="4" t="s">
         <v>94</v>
@@ -39174,13 +39171,13 @@
         <v>95</v>
       </c>
       <c r="F1416" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G1416" s="4" t="s">
         <v>1840</v>
       </c>
-      <c r="G1416" s="4" t="s">
+      <c r="H1416" s="4" t="s">
         <v>1841</v>
-      </c>
-      <c r="H1416" s="4" t="s">
-        <v>1842</v>
       </c>
       <c r="I1416" s="7" t="s">
         <v>137</v>
@@ -39203,10 +39200,10 @@
         <v>2027</v>
       </c>
       <c r="B1417" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C1417" s="4" t="s">
         <v>1843</v>
-      </c>
-      <c r="C1417" s="4" t="s">
-        <v>1844</v>
       </c>
       <c r="D1417" s="4" t="s">
         <v>94</v>
@@ -39215,13 +39212,13 @@
         <v>95</v>
       </c>
       <c r="F1417" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G1417" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="H1417" s="4" t="s">
         <v>1845</v>
-      </c>
-      <c r="G1417" s="4" t="s">
-        <v>1845</v>
-      </c>
-      <c r="H1417" s="4" t="s">
-        <v>1846</v>
       </c>
       <c r="I1417" s="7" t="s">
         <v>98</v>
@@ -39244,7 +39241,7 @@
     </row>
     <row r="1419" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1419" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1420" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39252,7 +39249,7 @@
     </row>
     <row r="1421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1421" s="4" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1422" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39260,7 +39257,7 @@
     </row>
     <row r="1423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1423" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1424" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39312,7 +39309,7 @@
         <v>3001</v>
       </c>
       <c r="B1426" s="4" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C1426" s="4" t="s">
         <v>93</v>
@@ -39324,13 +39321,13 @@
         <v>95</v>
       </c>
       <c r="F1426" s="4" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G1426" s="4" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H1426" s="4" t="s">
         <v>1851</v>
-      </c>
-      <c r="G1426" s="4" t="s">
-        <v>1851</v>
-      </c>
-      <c r="H1426" s="4" t="s">
-        <v>1852</v>
       </c>
       <c r="I1426" s="7" t="s">
         <v>137</v>
@@ -39353,7 +39350,7 @@
         <v>3002</v>
       </c>
       <c r="B1427" s="8" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C1427" s="8" t="s">
         <v>93</v>
@@ -39365,22 +39362,22 @@
         <v>95</v>
       </c>
       <c r="F1427" s="8" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G1427" s="8" t="s">
+        <v>1853</v>
+      </c>
+      <c r="H1427" s="8" t="s">
         <v>1854</v>
       </c>
-      <c r="G1427" s="8" t="s">
-        <v>1854</v>
-      </c>
-      <c r="H1427" s="8" t="s">
+      <c r="I1427" s="4" t="s">
         <v>1855</v>
-      </c>
-      <c r="I1427" s="4" t="s">
-        <v>1856</v>
       </c>
       <c r="J1427" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1427" s="4" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="L1427" s="8" t="s">
         <v>95</v>
@@ -39399,11 +39396,11 @@
       <c r="G1428" s="8"/>
       <c r="H1428" s="8"/>
       <c r="I1428" s="4" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="J1428" s="8"/>
       <c r="K1428" s="4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="L1428" s="8"/>
       <c r="M1428" s="8"/>
@@ -39418,11 +39415,11 @@
       <c r="G1429" s="8"/>
       <c r="H1429" s="8"/>
       <c r="I1429" s="4" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="J1429" s="8"/>
       <c r="K1429" s="4" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="L1429" s="8"/>
       <c r="M1429" s="8"/>
@@ -39437,11 +39434,11 @@
       <c r="G1430" s="8"/>
       <c r="H1430" s="8"/>
       <c r="I1430" s="4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="J1430" s="8"/>
       <c r="K1430" s="4" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="L1430" s="8"/>
       <c r="M1430" s="8"/>
@@ -39456,11 +39453,11 @@
       <c r="G1431" s="8"/>
       <c r="H1431" s="8"/>
       <c r="I1431" s="4" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="J1431" s="8"/>
       <c r="K1431" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="L1431" s="8"/>
       <c r="M1431" s="8"/>
@@ -39475,11 +39472,11 @@
       <c r="G1432" s="8"/>
       <c r="H1432" s="8"/>
       <c r="I1432" s="4" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="J1432" s="8"/>
       <c r="K1432" s="4" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="L1432" s="8"/>
       <c r="M1432" s="8"/>
@@ -39489,25 +39486,25 @@
         <v>3003</v>
       </c>
       <c r="B1433" s="8" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C1433" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1433" s="8" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E1433" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F1433" s="8" t="s">
+        <v>1868</v>
+      </c>
+      <c r="G1433" s="8" t="s">
         <v>1869</v>
       </c>
-      <c r="G1433" s="8" t="s">
+      <c r="H1433" s="8" t="s">
         <v>1870</v>
-      </c>
-      <c r="H1433" s="8" t="s">
-        <v>1871</v>
       </c>
       <c r="I1433" s="4" t="s">
         <v>152</v>
@@ -39535,11 +39532,11 @@
       <c r="G1434" s="8"/>
       <c r="H1434" s="8"/>
       <c r="I1434" s="4" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="J1434" s="8"/>
       <c r="K1434" s="4" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="L1434" s="8"/>
       <c r="M1434" s="8"/>
@@ -39573,11 +39570,11 @@
       <c r="G1436" s="8"/>
       <c r="H1436" s="8"/>
       <c r="I1436" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="J1436" s="8"/>
       <c r="K1436" s="4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="L1436" s="8"/>
       <c r="M1436" s="8"/>
@@ -39587,7 +39584,7 @@
         <v>3004</v>
       </c>
       <c r="B1437" s="8" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C1437" s="8" t="s">
         <v>93</v>
@@ -39599,13 +39596,13 @@
         <v>95</v>
       </c>
       <c r="F1437" s="8" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G1437" s="8" t="s">
         <v>1877</v>
       </c>
-      <c r="G1437" s="8" t="s">
+      <c r="H1437" s="8" t="s">
         <v>1878</v>
-      </c>
-      <c r="H1437" s="8" t="s">
-        <v>1879</v>
       </c>
       <c r="I1437" s="4" t="s">
         <v>152</v>
@@ -39633,11 +39630,11 @@
       <c r="G1438" s="8"/>
       <c r="H1438" s="8"/>
       <c r="I1438" s="4" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="J1438" s="8"/>
       <c r="K1438" s="4" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="L1438" s="8"/>
       <c r="M1438" s="8"/>
@@ -39671,11 +39668,11 @@
       <c r="G1440" s="8"/>
       <c r="H1440" s="8"/>
       <c r="I1440" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="J1440" s="8"/>
       <c r="K1440" s="4" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="L1440" s="8"/>
       <c r="M1440" s="8"/>
@@ -39685,34 +39682,34 @@
         <v>3005</v>
       </c>
       <c r="B1441" s="8" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C1441" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1441" s="8" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E1441" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F1441" s="8" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G1441" s="8" t="s">
         <v>1881</v>
       </c>
-      <c r="G1441" s="8" t="s">
+      <c r="H1441" s="8" t="s">
         <v>1882</v>
       </c>
-      <c r="H1441" s="8" t="s">
-        <v>1883</v>
-      </c>
       <c r="I1441" s="4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="J1441" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1441" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="L1441" s="8" t="s">
         <v>95</v>
@@ -39731,11 +39728,11 @@
       <c r="G1442" s="8"/>
       <c r="H1442" s="8"/>
       <c r="I1442" s="4" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="J1442" s="8"/>
       <c r="K1442" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="L1442" s="8"/>
       <c r="M1442" s="8"/>
@@ -39750,11 +39747,11 @@
       <c r="G1443" s="8"/>
       <c r="H1443" s="8"/>
       <c r="I1443" s="4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="J1443" s="8"/>
       <c r="K1443" s="4" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="L1443" s="8"/>
       <c r="M1443" s="8"/>
@@ -39769,11 +39766,11 @@
       <c r="G1444" s="8"/>
       <c r="H1444" s="8"/>
       <c r="I1444" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="J1444" s="8"/>
       <c r="K1444" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="L1444" s="8"/>
       <c r="M1444" s="8"/>
@@ -39783,34 +39780,34 @@
         <v>3006</v>
       </c>
       <c r="B1445" s="8" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C1445" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1445" s="8" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="E1445" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F1445" s="8" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G1445" s="8" t="s">
         <v>1885</v>
       </c>
-      <c r="G1445" s="8" t="s">
+      <c r="H1445" s="8" t="s">
         <v>1886</v>
       </c>
-      <c r="H1445" s="8" t="s">
+      <c r="I1445" s="4" t="s">
         <v>1887</v>
-      </c>
-      <c r="I1445" s="4" t="s">
-        <v>1888</v>
       </c>
       <c r="J1445" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1445" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="L1445" s="8" t="s">
         <v>95</v>
@@ -39829,11 +39826,11 @@
       <c r="G1446" s="8"/>
       <c r="H1446" s="8"/>
       <c r="I1446" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J1446" s="8"/>
       <c r="K1446" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="L1446" s="8"/>
       <c r="M1446" s="8"/>
@@ -39848,11 +39845,11 @@
       <c r="G1447" s="8"/>
       <c r="H1447" s="8"/>
       <c r="I1447" s="4" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="J1447" s="8"/>
       <c r="K1447" s="4" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="L1447" s="8"/>
       <c r="M1447" s="8"/>
@@ -39867,11 +39864,11 @@
       <c r="G1448" s="8"/>
       <c r="H1448" s="8"/>
       <c r="I1448" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="J1448" s="8"/>
       <c r="K1448" s="4" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="L1448" s="8"/>
       <c r="M1448" s="8"/>
@@ -39881,34 +39878,34 @@
         <v>3007</v>
       </c>
       <c r="B1449" s="8" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C1449" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1449" s="8" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E1449" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F1449" s="8" t="s">
+        <v>1894</v>
+      </c>
+      <c r="G1449" s="8" t="s">
         <v>1895</v>
       </c>
-      <c r="G1449" s="8" t="s">
+      <c r="H1449" s="8" t="s">
         <v>1896</v>
       </c>
-      <c r="H1449" s="8" t="s">
-        <v>1897</v>
-      </c>
       <c r="I1449" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="J1449" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1449" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="L1449" s="8" t="s">
         <v>95</v>
@@ -39927,11 +39924,11 @@
       <c r="G1450" s="8"/>
       <c r="H1450" s="8"/>
       <c r="I1450" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="J1450" s="8"/>
       <c r="K1450" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="L1450" s="8"/>
       <c r="M1450" s="8"/>
@@ -39946,11 +39943,11 @@
       <c r="G1451" s="8"/>
       <c r="H1451" s="8"/>
       <c r="I1451" s="4" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="J1451" s="8"/>
       <c r="K1451" s="4" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="L1451" s="8"/>
       <c r="M1451" s="8"/>
@@ -39965,11 +39962,11 @@
       <c r="G1452" s="8"/>
       <c r="H1452" s="8"/>
       <c r="I1452" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="J1452" s="8"/>
       <c r="K1452" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="L1452" s="8"/>
       <c r="M1452" s="8"/>
@@ -39984,11 +39981,11 @@
       <c r="G1453" s="8"/>
       <c r="H1453" s="8"/>
       <c r="I1453" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="J1453" s="8"/>
       <c r="K1453" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="L1453" s="8"/>
       <c r="M1453" s="8"/>
@@ -40003,11 +40000,11 @@
       <c r="G1454" s="8"/>
       <c r="H1454" s="8"/>
       <c r="I1454" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="J1454" s="8"/>
       <c r="K1454" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="L1454" s="8"/>
       <c r="M1454" s="8"/>
@@ -40022,11 +40019,11 @@
       <c r="G1455" s="8"/>
       <c r="H1455" s="8"/>
       <c r="I1455" s="4" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="J1455" s="8"/>
       <c r="K1455" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="L1455" s="8"/>
       <c r="M1455" s="8"/>
@@ -40036,34 +40033,34 @@
         <v>3008</v>
       </c>
       <c r="B1456" s="8" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C1456" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1456" s="8" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E1456" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F1456" s="8" t="s">
+        <v>1900</v>
+      </c>
+      <c r="G1456" s="8" t="s">
         <v>1901</v>
       </c>
-      <c r="G1456" s="8" t="s">
+      <c r="H1456" s="8" t="s">
         <v>1902</v>
       </c>
-      <c r="H1456" s="8" t="s">
-        <v>1903</v>
-      </c>
       <c r="I1456" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="J1456" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1456" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="L1456" s="8" t="s">
         <v>95</v>
@@ -40082,11 +40079,11 @@
       <c r="G1457" s="8"/>
       <c r="H1457" s="8"/>
       <c r="I1457" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="J1457" s="8"/>
       <c r="K1457" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="L1457" s="8"/>
       <c r="M1457" s="8"/>
@@ -40101,11 +40098,11 @@
       <c r="G1458" s="8"/>
       <c r="H1458" s="8"/>
       <c r="I1458" s="4" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="J1458" s="8"/>
       <c r="K1458" s="4" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="L1458" s="8"/>
       <c r="M1458" s="8"/>
@@ -40120,11 +40117,11 @@
       <c r="G1459" s="8"/>
       <c r="H1459" s="8"/>
       <c r="I1459" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="J1459" s="8"/>
       <c r="K1459" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="L1459" s="8"/>
       <c r="M1459" s="8"/>
@@ -40139,11 +40136,11 @@
       <c r="G1460" s="8"/>
       <c r="H1460" s="8"/>
       <c r="I1460" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="J1460" s="8"/>
       <c r="K1460" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="L1460" s="8"/>
       <c r="M1460" s="8"/>
@@ -40158,11 +40155,11 @@
       <c r="G1461" s="8"/>
       <c r="H1461" s="8"/>
       <c r="I1461" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="J1461" s="8"/>
       <c r="K1461" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="L1461" s="8"/>
       <c r="M1461" s="8"/>
@@ -40177,11 +40174,11 @@
       <c r="G1462" s="8"/>
       <c r="H1462" s="8"/>
       <c r="I1462" s="4" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="J1462" s="8"/>
       <c r="K1462" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="L1462" s="8"/>
       <c r="M1462" s="8"/>
@@ -40191,7 +40188,7 @@
         <v>3009</v>
       </c>
       <c r="B1463" s="4" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C1463" s="4" t="s">
         <v>93</v>
@@ -40203,16 +40200,16 @@
         <v>95</v>
       </c>
       <c r="F1463" s="4" t="s">
+        <v>1904</v>
+      </c>
+      <c r="G1463" s="4" t="s">
         <v>1905</v>
       </c>
-      <c r="G1463" s="4" t="s">
+      <c r="H1463" s="4" t="s">
         <v>1906</v>
       </c>
-      <c r="H1463" s="4" t="s">
+      <c r="I1463" s="7" t="s">
         <v>1907</v>
-      </c>
-      <c r="I1463" s="7" t="s">
-        <v>1908</v>
       </c>
       <c r="J1463" s="4" t="s">
         <v>94</v>
@@ -40232,7 +40229,7 @@
         <v>3010</v>
       </c>
       <c r="B1464" s="8" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C1464" s="8" t="s">
         <v>93</v>
@@ -40244,22 +40241,22 @@
         <v>95</v>
       </c>
       <c r="F1464" s="8" t="s">
+        <v>1909</v>
+      </c>
+      <c r="G1464" s="8" t="s">
         <v>1910</v>
       </c>
-      <c r="G1464" s="8" t="s">
+      <c r="H1464" s="8" t="s">
         <v>1911</v>
       </c>
-      <c r="H1464" s="8" t="s">
+      <c r="I1464" s="4" t="s">
         <v>1912</v>
-      </c>
-      <c r="I1464" s="4" t="s">
-        <v>1913</v>
       </c>
       <c r="J1464" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1464" s="4" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="L1464" s="8" t="s">
         <v>95</v>
@@ -40278,11 +40275,11 @@
       <c r="G1465" s="8"/>
       <c r="H1465" s="8"/>
       <c r="I1465" s="4" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="J1465" s="8"/>
       <c r="K1465" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="L1465" s="8"/>
       <c r="M1465" s="8"/>
@@ -40297,11 +40294,11 @@
       <c r="G1466" s="8"/>
       <c r="H1466" s="8"/>
       <c r="I1466" s="4" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="J1466" s="8"/>
       <c r="K1466" s="4" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="L1466" s="8"/>
       <c r="M1466" s="8"/>
@@ -40316,11 +40313,11 @@
       <c r="G1467" s="8"/>
       <c r="H1467" s="8"/>
       <c r="I1467" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="J1467" s="8"/>
       <c r="K1467" s="4" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="L1467" s="8"/>
       <c r="M1467" s="8"/>
@@ -40330,7 +40327,7 @@
         <v>3011</v>
       </c>
       <c r="B1468" s="8" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C1468" s="8" t="s">
         <v>93</v>
@@ -40342,13 +40339,13 @@
         <v>95</v>
       </c>
       <c r="F1468" s="8" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G1468" s="8" t="s">
+        <v>1921</v>
+      </c>
+      <c r="H1468" s="8" t="s">
         <v>1922</v>
-      </c>
-      <c r="G1468" s="8" t="s">
-        <v>1922</v>
-      </c>
-      <c r="H1468" s="8" t="s">
-        <v>1923</v>
       </c>
       <c r="I1468" s="4" t="s">
         <v>1165</v>
@@ -40414,11 +40411,11 @@
       <c r="G1471" s="8"/>
       <c r="H1471" s="8"/>
       <c r="I1471" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="J1471" s="8"/>
       <c r="K1471" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="L1471" s="8"/>
       <c r="M1471" s="8"/>
@@ -40433,11 +40430,11 @@
       <c r="G1472" s="8"/>
       <c r="H1472" s="8"/>
       <c r="I1472" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J1472" s="8"/>
       <c r="K1472" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L1472" s="8"/>
       <c r="M1472" s="8"/>
@@ -40452,11 +40449,11 @@
       <c r="G1473" s="8"/>
       <c r="H1473" s="8"/>
       <c r="I1473" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J1473" s="8"/>
       <c r="K1473" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L1473" s="8"/>
       <c r="M1473" s="8"/>
@@ -40471,11 +40468,11 @@
       <c r="G1474" s="8"/>
       <c r="H1474" s="8"/>
       <c r="I1474" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="J1474" s="8"/>
       <c r="K1474" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="L1474" s="8"/>
       <c r="M1474" s="8"/>
@@ -40490,11 +40487,11 @@
       <c r="G1475" s="8"/>
       <c r="H1475" s="8"/>
       <c r="I1475" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="J1475" s="8"/>
       <c r="K1475" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="L1475" s="8"/>
       <c r="M1475" s="8"/>
@@ -40509,11 +40506,11 @@
       <c r="G1476" s="8"/>
       <c r="H1476" s="8"/>
       <c r="I1476" s="4" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="J1476" s="8"/>
       <c r="K1476" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="L1476" s="8"/>
       <c r="M1476" s="8"/>
@@ -40528,11 +40525,11 @@
       <c r="G1477" s="8"/>
       <c r="H1477" s="8"/>
       <c r="I1477" s="4" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="J1477" s="8"/>
       <c r="K1477" s="4" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="L1477" s="8"/>
       <c r="M1477" s="8"/>
@@ -40547,11 +40544,11 @@
       <c r="G1478" s="8"/>
       <c r="H1478" s="8"/>
       <c r="I1478" s="4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="J1478" s="8"/>
       <c r="K1478" s="4" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="L1478" s="8"/>
       <c r="M1478" s="8"/>
@@ -40566,11 +40563,11 @@
       <c r="G1479" s="8"/>
       <c r="H1479" s="8"/>
       <c r="I1479" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="J1479" s="8"/>
       <c r="K1479" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="L1479" s="8"/>
       <c r="M1479" s="8"/>
@@ -40599,34 +40596,34 @@
         <v>3012</v>
       </c>
       <c r="B1481" s="8" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C1481" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1481" s="8" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E1481" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F1481" s="8" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G1481" s="8" t="s">
         <v>1931</v>
       </c>
-      <c r="G1481" s="8" t="s">
+      <c r="H1481" s="8" t="s">
         <v>1932</v>
       </c>
-      <c r="H1481" s="8" t="s">
+      <c r="I1481" s="4" t="s">
         <v>1933</v>
-      </c>
-      <c r="I1481" s="4" t="s">
-        <v>1934</v>
       </c>
       <c r="J1481" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1481" s="4" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="L1481" s="8" t="s">
         <v>95</v>
@@ -40645,11 +40642,11 @@
       <c r="G1482" s="8"/>
       <c r="H1482" s="8"/>
       <c r="I1482" s="4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="J1482" s="8"/>
       <c r="K1482" s="4" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="L1482" s="8"/>
       <c r="M1482" s="8"/>
@@ -40664,11 +40661,11 @@
       <c r="G1483" s="8"/>
       <c r="H1483" s="8"/>
       <c r="I1483" s="4" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="J1483" s="8"/>
       <c r="K1483" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="L1483" s="8"/>
       <c r="M1483" s="8"/>
@@ -40683,11 +40680,11 @@
       <c r="G1484" s="8"/>
       <c r="H1484" s="8"/>
       <c r="I1484" s="4" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="J1484" s="8"/>
       <c r="K1484" s="4" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="L1484" s="8"/>
       <c r="M1484" s="8"/>
@@ -40702,11 +40699,11 @@
       <c r="G1485" s="8"/>
       <c r="H1485" s="8"/>
       <c r="I1485" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="J1485" s="8"/>
       <c r="K1485" s="4" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="L1485" s="8"/>
       <c r="M1485" s="8"/>
@@ -40735,34 +40732,34 @@
         <v>3013</v>
       </c>
       <c r="B1487" s="8" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C1487" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1487" s="9" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E1487" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F1487" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G1487" s="8" t="s">
         <v>1945</v>
       </c>
-      <c r="G1487" s="8" t="s">
+      <c r="H1487" s="8" t="s">
         <v>1946</v>
       </c>
-      <c r="H1487" s="8" t="s">
+      <c r="I1487" s="4" t="s">
         <v>1947</v>
-      </c>
-      <c r="I1487" s="4" t="s">
-        <v>1948</v>
       </c>
       <c r="J1487" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1487" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="L1487" s="8" t="s">
         <v>95</v>
@@ -40781,11 +40778,11 @@
       <c r="G1488" s="8"/>
       <c r="H1488" s="8"/>
       <c r="I1488" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="J1488" s="8"/>
       <c r="K1488" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="L1488" s="8"/>
       <c r="M1488" s="8"/>
@@ -40800,11 +40797,11 @@
       <c r="G1489" s="8"/>
       <c r="H1489" s="8"/>
       <c r="I1489" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="J1489" s="8"/>
       <c r="K1489" s="4" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="L1489" s="8"/>
       <c r="M1489" s="8"/>
@@ -40819,11 +40816,11 @@
       <c r="G1490" s="8"/>
       <c r="H1490" s="8"/>
       <c r="I1490" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="J1490" s="8"/>
       <c r="K1490" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="L1490" s="8"/>
       <c r="M1490" s="8"/>
@@ -40838,11 +40835,11 @@
       <c r="G1491" s="8"/>
       <c r="H1491" s="8"/>
       <c r="I1491" s="4" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="J1491" s="8"/>
       <c r="K1491" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="L1491" s="8"/>
       <c r="M1491" s="8"/>
@@ -40871,34 +40868,34 @@
         <v>3014</v>
       </c>
       <c r="B1493" s="8" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C1493" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1493" s="9" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E1493" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F1493" s="8" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G1493" s="8" t="s">
         <v>1959</v>
       </c>
-      <c r="G1493" s="8" t="s">
+      <c r="H1493" s="8" t="s">
         <v>1960</v>
       </c>
-      <c r="H1493" s="8" t="s">
-        <v>1961</v>
-      </c>
       <c r="I1493" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="J1493" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1493" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="L1493" s="8" t="s">
         <v>95</v>
@@ -40917,11 +40914,11 @@
       <c r="G1494" s="8"/>
       <c r="H1494" s="8"/>
       <c r="I1494" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="J1494" s="8"/>
       <c r="K1494" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="L1494" s="8"/>
       <c r="M1494" s="8"/>
@@ -40936,11 +40933,11 @@
       <c r="G1495" s="8"/>
       <c r="H1495" s="8"/>
       <c r="I1495" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="J1495" s="8"/>
       <c r="K1495" s="4" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="L1495" s="8"/>
       <c r="M1495" s="8"/>
@@ -40955,11 +40952,11 @@
       <c r="G1496" s="8"/>
       <c r="H1496" s="8"/>
       <c r="I1496" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="J1496" s="8"/>
       <c r="K1496" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="L1496" s="8"/>
       <c r="M1496" s="8"/>
@@ -40974,11 +40971,11 @@
       <c r="G1497" s="8"/>
       <c r="H1497" s="8"/>
       <c r="I1497" s="4" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="J1497" s="8"/>
       <c r="K1497" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="L1497" s="8"/>
       <c r="M1497" s="8"/>
@@ -41007,34 +41004,34 @@
         <v>3015</v>
       </c>
       <c r="B1499" s="8" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C1499" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1499" s="9" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E1499" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F1499" s="8" t="s">
+        <v>1962</v>
+      </c>
+      <c r="G1499" s="8" t="s">
         <v>1963</v>
       </c>
-      <c r="G1499" s="8" t="s">
+      <c r="H1499" s="8" t="s">
         <v>1964</v>
       </c>
-      <c r="H1499" s="8" t="s">
-        <v>1965</v>
-      </c>
       <c r="I1499" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="J1499" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1499" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="L1499" s="8" t="s">
         <v>95</v>
@@ -41053,11 +41050,11 @@
       <c r="G1500" s="8"/>
       <c r="H1500" s="8"/>
       <c r="I1500" s="4" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="J1500" s="8"/>
       <c r="K1500" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="L1500" s="8"/>
       <c r="M1500" s="8"/>
@@ -41072,11 +41069,11 @@
       <c r="G1501" s="8"/>
       <c r="H1501" s="8"/>
       <c r="I1501" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="J1501" s="8"/>
       <c r="K1501" s="4" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="L1501" s="8"/>
       <c r="M1501" s="8"/>
@@ -41091,11 +41088,11 @@
       <c r="G1502" s="8"/>
       <c r="H1502" s="8"/>
       <c r="I1502" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="J1502" s="8"/>
       <c r="K1502" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="L1502" s="8"/>
       <c r="M1502" s="8"/>
@@ -41110,11 +41107,11 @@
       <c r="G1503" s="8"/>
       <c r="H1503" s="8"/>
       <c r="I1503" s="4" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="J1503" s="8"/>
       <c r="K1503" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="L1503" s="8"/>
       <c r="M1503" s="8"/>
@@ -41143,7 +41140,7 @@
         <v>3016</v>
       </c>
       <c r="B1505" s="8" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C1505" s="8" t="s">
         <v>93</v>
@@ -41155,13 +41152,13 @@
         <v>95</v>
       </c>
       <c r="F1505" s="8" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G1505" s="8" t="s">
         <v>1967</v>
       </c>
-      <c r="G1505" s="8" t="s">
+      <c r="H1505" s="8" t="s">
         <v>1968</v>
-      </c>
-      <c r="H1505" s="8" t="s">
-        <v>1969</v>
       </c>
       <c r="I1505" s="4" t="s">
         <v>228</v>
@@ -41203,7 +41200,7 @@
         <v>3017</v>
       </c>
       <c r="B1507" s="8" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C1507" s="8" t="s">
         <v>93</v>
@@ -41215,13 +41212,13 @@
         <v>95</v>
       </c>
       <c r="F1507" s="8" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G1507" s="8" t="s">
         <v>1971</v>
       </c>
-      <c r="G1507" s="8" t="s">
+      <c r="H1507" s="8" t="s">
         <v>1972</v>
-      </c>
-      <c r="H1507" s="8" t="s">
-        <v>1973</v>
       </c>
       <c r="I1507" s="4" t="s">
         <v>228</v>
@@ -41263,7 +41260,7 @@
         <v>3018</v>
       </c>
       <c r="B1509" s="8" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C1509" s="8" t="s">
         <v>93</v>
@@ -41275,13 +41272,13 @@
         <v>95</v>
       </c>
       <c r="F1509" s="8" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G1509" s="8" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H1509" s="8" t="s">
         <v>1975</v>
-      </c>
-      <c r="G1509" s="8" t="s">
-        <v>1975</v>
-      </c>
-      <c r="H1509" s="8" t="s">
-        <v>1976</v>
       </c>
       <c r="I1509" s="4" t="s">
         <v>228</v>
@@ -41323,7 +41320,7 @@
         <v>3019</v>
       </c>
       <c r="B1511" s="8" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="C1511" s="8" t="s">
         <v>93</v>
@@ -41335,13 +41332,13 @@
         <v>95</v>
       </c>
       <c r="F1511" s="8" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G1511" s="8" t="s">
         <v>1978</v>
       </c>
-      <c r="G1511" s="8" t="s">
+      <c r="H1511" s="8" t="s">
         <v>1979</v>
-      </c>
-      <c r="H1511" s="8" t="s">
-        <v>1980</v>
       </c>
       <c r="I1511" s="4" t="s">
         <v>228</v>
@@ -41383,7 +41380,7 @@
         <v>3020</v>
       </c>
       <c r="B1513" s="8" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C1513" s="8" t="s">
         <v>93</v>
@@ -41395,13 +41392,13 @@
         <v>95</v>
       </c>
       <c r="F1513" s="8" t="s">
+        <v>1981</v>
+      </c>
+      <c r="G1513" s="8" t="s">
         <v>1982</v>
       </c>
-      <c r="G1513" s="8" t="s">
+      <c r="H1513" s="8" t="s">
         <v>1983</v>
-      </c>
-      <c r="H1513" s="8" t="s">
-        <v>1984</v>
       </c>
       <c r="I1513" s="4" t="s">
         <v>228</v>
@@ -41443,7 +41440,7 @@
         <v>3021</v>
       </c>
       <c r="B1515" s="8" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C1515" s="8" t="s">
         <v>93</v>
@@ -41455,22 +41452,22 @@
         <v>95</v>
       </c>
       <c r="F1515" s="8" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G1515" s="8" t="s">
         <v>1986</v>
       </c>
-      <c r="G1515" s="8" t="s">
+      <c r="H1515" s="8" t="s">
         <v>1987</v>
       </c>
-      <c r="H1515" s="8" t="s">
+      <c r="I1515" s="4" t="s">
         <v>1988</v>
-      </c>
-      <c r="I1515" s="4" t="s">
-        <v>1989</v>
       </c>
       <c r="J1515" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1515" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="L1515" s="8" t="s">
         <v>95</v>
@@ -41489,11 +41486,11 @@
       <c r="G1516" s="8"/>
       <c r="H1516" s="8"/>
       <c r="I1516" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="J1516" s="8"/>
       <c r="K1516" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="L1516" s="8"/>
       <c r="M1516" s="8"/>
@@ -41503,7 +41500,7 @@
         <v>3022</v>
       </c>
       <c r="B1517" s="8" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C1517" s="8" t="s">
         <v>93</v>
@@ -41515,22 +41512,22 @@
         <v>95</v>
       </c>
       <c r="F1517" s="8" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G1517" s="8" t="s">
+        <v>1993</v>
+      </c>
+      <c r="H1517" s="8" t="s">
         <v>1994</v>
       </c>
-      <c r="G1517" s="8" t="s">
-        <v>1994</v>
-      </c>
-      <c r="H1517" s="8" t="s">
+      <c r="I1517" s="4" t="s">
         <v>1995</v>
-      </c>
-      <c r="I1517" s="4" t="s">
-        <v>1996</v>
       </c>
       <c r="J1517" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1517" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="L1517" s="8" t="s">
         <v>95</v>
@@ -41549,11 +41546,11 @@
       <c r="G1518" s="8"/>
       <c r="H1518" s="8"/>
       <c r="I1518" s="4" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="J1518" s="8"/>
       <c r="K1518" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="L1518" s="8"/>
       <c r="M1518" s="8"/>
@@ -41563,7 +41560,7 @@
         <v>3023</v>
       </c>
       <c r="B1519" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C1519" s="4" t="s">
         <v>93</v>
@@ -41575,13 +41572,13 @@
         <v>95</v>
       </c>
       <c r="F1519" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G1519" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H1519" s="4" t="s">
         <v>2001</v>
-      </c>
-      <c r="G1519" s="4" t="s">
-        <v>2001</v>
-      </c>
-      <c r="H1519" s="4" t="s">
-        <v>2002</v>
       </c>
       <c r="I1519" s="7" t="s">
         <v>137</v>
@@ -41604,7 +41601,7 @@
         <v>3024</v>
       </c>
       <c r="B1520" s="8" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C1520" s="8" t="s">
         <v>93</v>
@@ -41616,22 +41613,22 @@
         <v>95</v>
       </c>
       <c r="F1520" s="8" t="s">
+        <v>2003</v>
+      </c>
+      <c r="G1520" s="8" t="s">
         <v>2004</v>
       </c>
-      <c r="G1520" s="8" t="s">
+      <c r="H1520" s="8" t="s">
         <v>2005</v>
       </c>
-      <c r="H1520" s="8" t="s">
+      <c r="I1520" s="4" t="s">
         <v>2006</v>
-      </c>
-      <c r="I1520" s="4" t="s">
-        <v>2007</v>
       </c>
       <c r="J1520" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1520" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="L1520" s="8" t="s">
         <v>95</v>
@@ -41650,11 +41647,11 @@
       <c r="G1521" s="8"/>
       <c r="H1521" s="8"/>
       <c r="I1521" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="J1521" s="8"/>
       <c r="K1521" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="L1521" s="8"/>
       <c r="M1521" s="8"/>
@@ -41671,11 +41668,11 @@
       <c r="G1522" s="8"/>
       <c r="H1522" s="8"/>
       <c r="I1522" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="J1522" s="8"/>
       <c r="K1522" s="4" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="L1522" s="8"/>
       <c r="M1522" s="8"/>
@@ -41690,11 +41687,11 @@
       <c r="G1523" s="8"/>
       <c r="H1523" s="8"/>
       <c r="I1523" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="J1523" s="8"/>
       <c r="K1523" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="L1523" s="8"/>
       <c r="M1523" s="8"/>
@@ -41709,11 +41706,11 @@
       <c r="G1524" s="8"/>
       <c r="H1524" s="8"/>
       <c r="I1524" s="4" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="J1524" s="8"/>
       <c r="K1524" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="L1524" s="8"/>
       <c r="M1524" s="8"/>
@@ -41742,7 +41739,7 @@
         <v>3025</v>
       </c>
       <c r="B1526" s="8" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C1526" s="8" t="s">
         <v>93</v>
@@ -41754,22 +41751,22 @@
         <v>95</v>
       </c>
       <c r="F1526" s="8" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G1526" s="8" t="s">
         <v>2010</v>
       </c>
-      <c r="G1526" s="8" t="s">
+      <c r="H1526" s="8" t="s">
         <v>2011</v>
       </c>
-      <c r="H1526" s="8" t="s">
-        <v>2012</v>
-      </c>
       <c r="I1526" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="J1526" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1526" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="L1526" s="8" t="s">
         <v>95</v>
@@ -41788,11 +41785,11 @@
       <c r="G1527" s="8"/>
       <c r="H1527" s="8"/>
       <c r="I1527" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="J1527" s="8"/>
       <c r="K1527" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="L1527" s="8"/>
       <c r="M1527" s="8"/>
@@ -41807,11 +41804,11 @@
       <c r="G1528" s="8"/>
       <c r="H1528" s="8"/>
       <c r="I1528" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="J1528" s="8"/>
       <c r="K1528" s="4" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="L1528" s="8"/>
       <c r="M1528" s="8"/>
@@ -41826,11 +41823,11 @@
       <c r="G1529" s="8"/>
       <c r="H1529" s="8"/>
       <c r="I1529" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="J1529" s="8"/>
       <c r="K1529" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="L1529" s="8"/>
       <c r="M1529" s="8"/>
@@ -41845,11 +41842,11 @@
       <c r="G1530" s="8"/>
       <c r="H1530" s="8"/>
       <c r="I1530" s="4" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="J1530" s="8"/>
       <c r="K1530" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="L1530" s="8"/>
       <c r="M1530" s="8"/>
@@ -41878,7 +41875,7 @@
         <v>3026</v>
       </c>
       <c r="B1532" s="8" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C1532" s="8" t="s">
         <v>93</v>
@@ -41890,22 +41887,22 @@
         <v>95</v>
       </c>
       <c r="F1532" s="8" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G1532" s="8" t="s">
         <v>2014</v>
       </c>
-      <c r="G1532" s="8" t="s">
+      <c r="H1532" s="8" t="s">
         <v>2015</v>
       </c>
-      <c r="H1532" s="8" t="s">
-        <v>2016</v>
-      </c>
       <c r="I1532" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="J1532" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1532" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="L1532" s="8" t="s">
         <v>95</v>
@@ -41924,11 +41921,11 @@
       <c r="G1533" s="8"/>
       <c r="H1533" s="8"/>
       <c r="I1533" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="J1533" s="8"/>
       <c r="K1533" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="L1533" s="8"/>
       <c r="M1533" s="8"/>
@@ -41943,11 +41940,11 @@
       <c r="G1534" s="8"/>
       <c r="H1534" s="8"/>
       <c r="I1534" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="J1534" s="8"/>
       <c r="K1534" s="4" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="L1534" s="8"/>
       <c r="M1534" s="8"/>
@@ -41962,11 +41959,11 @@
       <c r="G1535" s="8"/>
       <c r="H1535" s="8"/>
       <c r="I1535" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="J1535" s="8"/>
       <c r="K1535" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="L1535" s="8"/>
       <c r="M1535" s="8"/>
@@ -41981,11 +41978,11 @@
       <c r="G1536" s="8"/>
       <c r="H1536" s="8"/>
       <c r="I1536" s="4" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="J1536" s="8"/>
       <c r="K1536" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="L1536" s="8"/>
       <c r="M1536" s="8"/>
@@ -42014,7 +42011,7 @@
         <v>3027</v>
       </c>
       <c r="B1538" s="8" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C1538" s="8" t="s">
         <v>93</v>
@@ -42026,22 +42023,22 @@
         <v>95</v>
       </c>
       <c r="F1538" s="8" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G1538" s="8" t="s">
         <v>2018</v>
       </c>
-      <c r="G1538" s="8" t="s">
+      <c r="H1538" s="8" t="s">
         <v>2019</v>
       </c>
-      <c r="H1538" s="8" t="s">
-        <v>2020</v>
-      </c>
       <c r="I1538" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="J1538" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1538" s="4" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="L1538" s="8" t="s">
         <v>95</v>
@@ -42060,11 +42057,11 @@
       <c r="G1539" s="8"/>
       <c r="H1539" s="8"/>
       <c r="I1539" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="J1539" s="8"/>
       <c r="K1539" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="L1539" s="8"/>
       <c r="M1539" s="8"/>
@@ -42079,11 +42076,11 @@
       <c r="G1540" s="8"/>
       <c r="H1540" s="8"/>
       <c r="I1540" s="4" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="J1540" s="8"/>
       <c r="K1540" s="4" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="L1540" s="8"/>
       <c r="M1540" s="8"/>
@@ -42098,11 +42095,11 @@
       <c r="G1541" s="8"/>
       <c r="H1541" s="8"/>
       <c r="I1541" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="J1541" s="8"/>
       <c r="K1541" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="L1541" s="8"/>
       <c r="M1541" s="8"/>
@@ -42117,11 +42114,11 @@
       <c r="G1542" s="8"/>
       <c r="H1542" s="8"/>
       <c r="I1542" s="4" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="J1542" s="8"/>
       <c r="K1542" s="4" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="L1542" s="8"/>
       <c r="M1542" s="8"/>
@@ -42150,7 +42147,7 @@
         <v>3028</v>
       </c>
       <c r="B1544" s="8" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C1544" s="8" t="s">
         <v>93</v>
@@ -42162,22 +42159,22 @@
         <v>95</v>
       </c>
       <c r="F1544" s="8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G1544" s="8" t="s">
         <v>2022</v>
       </c>
-      <c r="G1544" s="8" t="s">
+      <c r="H1544" s="8" t="s">
         <v>2023</v>
       </c>
-      <c r="H1544" s="8" t="s">
+      <c r="I1544" s="4" t="s">
         <v>2024</v>
-      </c>
-      <c r="I1544" s="4" t="s">
-        <v>2025</v>
       </c>
       <c r="J1544" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1544" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L1544" s="8" t="s">
         <v>95</v>
@@ -42196,11 +42193,11 @@
       <c r="G1545" s="8"/>
       <c r="H1545" s="8"/>
       <c r="I1545" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="J1545" s="8"/>
       <c r="K1545" s="4" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="L1545" s="8"/>
       <c r="M1545" s="8"/>
@@ -42229,7 +42226,7 @@
         <v>3029</v>
       </c>
       <c r="B1547" s="8" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C1547" s="8" t="s">
         <v>93</v>
@@ -42241,22 +42238,22 @@
         <v>95</v>
       </c>
       <c r="F1547" s="8" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G1547" s="8" t="s">
         <v>2030</v>
       </c>
-      <c r="G1547" s="8" t="s">
+      <c r="H1547" s="8" t="s">
         <v>2031</v>
       </c>
-      <c r="H1547" s="8" t="s">
-        <v>2032</v>
-      </c>
       <c r="I1547" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J1547" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1547" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L1547" s="8" t="s">
         <v>95</v>
@@ -42275,11 +42272,11 @@
       <c r="G1548" s="8"/>
       <c r="H1548" s="8"/>
       <c r="I1548" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="J1548" s="8"/>
       <c r="K1548" s="4" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="L1548" s="8"/>
       <c r="M1548" s="8"/>
@@ -42308,7 +42305,7 @@
         <v>3030</v>
       </c>
       <c r="B1550" s="8" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C1550" s="8" t="s">
         <v>93</v>
@@ -42320,22 +42317,22 @@
         <v>95</v>
       </c>
       <c r="F1550" s="8" t="s">
+        <v>2033</v>
+      </c>
+      <c r="G1550" s="8" t="s">
         <v>2034</v>
       </c>
-      <c r="G1550" s="8" t="s">
+      <c r="H1550" s="8" t="s">
         <v>2035</v>
       </c>
-      <c r="H1550" s="8" t="s">
-        <v>2036</v>
-      </c>
       <c r="I1550" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J1550" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1550" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L1550" s="8" t="s">
         <v>95</v>
@@ -42354,11 +42351,11 @@
       <c r="G1551" s="8"/>
       <c r="H1551" s="8"/>
       <c r="I1551" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="J1551" s="8"/>
       <c r="K1551" s="4" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="L1551" s="8"/>
       <c r="M1551" s="8"/>
@@ -42387,7 +42384,7 @@
         <v>3031</v>
       </c>
       <c r="B1553" s="8" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C1553" s="8" t="s">
         <v>93</v>
@@ -42399,22 +42396,22 @@
         <v>95</v>
       </c>
       <c r="F1553" s="8" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G1553" s="8" t="s">
         <v>2038</v>
       </c>
-      <c r="G1553" s="8" t="s">
+      <c r="H1553" s="8" t="s">
         <v>2039</v>
       </c>
-      <c r="H1553" s="8" t="s">
-        <v>2040</v>
-      </c>
       <c r="I1553" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J1553" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1553" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="L1553" s="8" t="s">
         <v>95</v>
@@ -42433,11 +42430,11 @@
       <c r="G1554" s="8"/>
       <c r="H1554" s="8"/>
       <c r="I1554" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="J1554" s="8"/>
       <c r="K1554" s="4" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="L1554" s="8"/>
       <c r="M1554" s="8"/>
@@ -42466,7 +42463,7 @@
         <v>3032</v>
       </c>
       <c r="B1556" s="8" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C1556" s="8" t="s">
         <v>408</v>
@@ -42478,22 +42475,22 @@
         <v>95</v>
       </c>
       <c r="F1556" s="8" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G1556" s="8" t="s">
         <v>2042</v>
       </c>
-      <c r="G1556" s="8" t="s">
+      <c r="H1556" s="8" t="s">
         <v>2043</v>
       </c>
-      <c r="H1556" s="8" t="s">
+      <c r="I1556" s="4" t="s">
         <v>2044</v>
-      </c>
-      <c r="I1556" s="4" t="s">
-        <v>2045</v>
       </c>
       <c r="J1556" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1556" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="L1556" s="8" t="s">
         <v>95</v>
@@ -42512,11 +42509,11 @@
       <c r="G1557" s="8"/>
       <c r="H1557" s="8"/>
       <c r="I1557" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="J1557" s="8"/>
       <c r="K1557" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="L1557" s="8"/>
       <c r="M1557" s="8"/>
@@ -42526,7 +42523,7 @@
         <v>3033</v>
       </c>
       <c r="B1558" s="8" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C1558" s="8" t="s">
         <v>408</v>
@@ -42538,22 +42535,22 @@
         <v>95</v>
       </c>
       <c r="F1558" s="8" t="s">
+        <v>2049</v>
+      </c>
+      <c r="G1558" s="8" t="s">
         <v>2050</v>
       </c>
-      <c r="G1558" s="8" t="s">
-        <v>2051</v>
-      </c>
       <c r="H1558" s="8" t="s">
+        <v>2043</v>
+      </c>
+      <c r="I1558" s="4" t="s">
         <v>2044</v>
-      </c>
-      <c r="I1558" s="4" t="s">
-        <v>2045</v>
       </c>
       <c r="J1558" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1558" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="L1558" s="8" t="s">
         <v>95</v>
@@ -42572,11 +42569,11 @@
       <c r="G1559" s="8"/>
       <c r="H1559" s="8"/>
       <c r="I1559" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="J1559" s="8"/>
       <c r="K1559" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="L1559" s="8"/>
       <c r="M1559" s="8"/>
@@ -42586,7 +42583,7 @@
         <v>3034</v>
       </c>
       <c r="B1560" s="8" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C1560" s="8" t="s">
         <v>408</v>
@@ -42598,22 +42595,22 @@
         <v>95</v>
       </c>
       <c r="F1560" s="8" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G1560" s="8" t="s">
         <v>2053</v>
       </c>
-      <c r="G1560" s="8" t="s">
-        <v>2054</v>
-      </c>
       <c r="H1560" s="8" t="s">
+        <v>2043</v>
+      </c>
+      <c r="I1560" s="4" t="s">
         <v>2044</v>
-      </c>
-      <c r="I1560" s="4" t="s">
-        <v>2045</v>
       </c>
       <c r="J1560" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1560" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="L1560" s="8" t="s">
         <v>95</v>
@@ -42632,11 +42629,11 @@
       <c r="G1561" s="8"/>
       <c r="H1561" s="8"/>
       <c r="I1561" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="J1561" s="8"/>
       <c r="K1561" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="L1561" s="8"/>
       <c r="M1561" s="8"/>
@@ -42646,7 +42643,7 @@
         <v>3035</v>
       </c>
       <c r="B1562" s="8" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C1562" s="8" t="s">
         <v>408</v>
@@ -42658,22 +42655,22 @@
         <v>95</v>
       </c>
       <c r="F1562" s="8" t="s">
+        <v>2055</v>
+      </c>
+      <c r="G1562" s="8" t="s">
         <v>2056</v>
       </c>
-      <c r="G1562" s="8" t="s">
+      <c r="H1562" s="8" t="s">
         <v>2057</v>
       </c>
-      <c r="H1562" s="8" t="s">
-        <v>2058</v>
-      </c>
       <c r="I1562" s="4" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="J1562" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1562" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="L1562" s="8" t="s">
         <v>95</v>
@@ -42692,11 +42689,11 @@
       <c r="G1563" s="8"/>
       <c r="H1563" s="8"/>
       <c r="I1563" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="J1563" s="8"/>
       <c r="K1563" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="L1563" s="8"/>
       <c r="M1563" s="8"/>
@@ -42706,7 +42703,7 @@
         <v>3036</v>
       </c>
       <c r="B1564" s="8" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C1564" s="8" t="s">
         <v>408</v>
@@ -42718,22 +42715,22 @@
         <v>95</v>
       </c>
       <c r="F1564" s="8" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G1564" s="8" t="s">
         <v>2060</v>
       </c>
-      <c r="G1564" s="8" t="s">
-        <v>2061</v>
-      </c>
       <c r="H1564" s="8" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="I1564" s="4" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="J1564" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1564" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="L1564" s="8" t="s">
         <v>95</v>
@@ -42752,11 +42749,11 @@
       <c r="G1565" s="8"/>
       <c r="H1565" s="8"/>
       <c r="I1565" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="J1565" s="8"/>
       <c r="K1565" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="L1565" s="8"/>
       <c r="M1565" s="8"/>
@@ -42766,7 +42763,7 @@
         <v>3037</v>
       </c>
       <c r="B1566" s="8" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C1566" s="8" t="s">
         <v>408</v>
@@ -42778,22 +42775,22 @@
         <v>95</v>
       </c>
       <c r="F1566" s="8" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G1566" s="8" t="s">
         <v>2063</v>
       </c>
-      <c r="G1566" s="8" t="s">
-        <v>2064</v>
-      </c>
       <c r="H1566" s="8" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="I1566" s="4" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="J1566" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1566" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="L1566" s="8" t="s">
         <v>95</v>
@@ -42812,11 +42809,11 @@
       <c r="G1567" s="8"/>
       <c r="H1567" s="8"/>
       <c r="I1567" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="J1567" s="8"/>
       <c r="K1567" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="L1567" s="8"/>
       <c r="M1567" s="8"/>
@@ -42826,7 +42823,7 @@
         <v>3038</v>
       </c>
       <c r="B1568" s="8" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C1568" s="8" t="s">
         <v>408</v>
@@ -42838,22 +42835,22 @@
         <v>95</v>
       </c>
       <c r="F1568" s="8" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G1568" s="8" t="s">
         <v>2066</v>
       </c>
-      <c r="G1568" s="8" t="s">
+      <c r="H1568" s="8" t="s">
         <v>2067</v>
       </c>
-      <c r="H1568" s="8" t="s">
-        <v>2068</v>
-      </c>
       <c r="I1568" s="4" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="J1568" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1568" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="L1568" s="8" t="s">
         <v>95</v>
@@ -42872,11 +42869,11 @@
       <c r="G1569" s="8"/>
       <c r="H1569" s="8"/>
       <c r="I1569" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="J1569" s="8"/>
       <c r="K1569" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="L1569" s="8"/>
       <c r="M1569" s="8"/>
@@ -42886,7 +42883,7 @@
         <v>3039</v>
       </c>
       <c r="B1570" s="8" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C1570" s="8" t="s">
         <v>408</v>
@@ -42898,22 +42895,22 @@
         <v>95</v>
       </c>
       <c r="F1570" s="8" t="s">
+        <v>2069</v>
+      </c>
+      <c r="G1570" s="8" t="s">
         <v>2070</v>
       </c>
-      <c r="G1570" s="8" t="s">
-        <v>2071</v>
-      </c>
       <c r="H1570" s="8" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="I1570" s="4" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="J1570" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1570" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="L1570" s="8" t="s">
         <v>95</v>
@@ -42932,11 +42929,11 @@
       <c r="G1571" s="8"/>
       <c r="H1571" s="8"/>
       <c r="I1571" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="J1571" s="8"/>
       <c r="K1571" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="L1571" s="8"/>
       <c r="M1571" s="8"/>
@@ -42946,7 +42943,7 @@
         <v>3040</v>
       </c>
       <c r="B1572" s="8" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C1572" s="8" t="s">
         <v>408</v>
@@ -42958,22 +42955,22 @@
         <v>95</v>
       </c>
       <c r="F1572" s="8" t="s">
+        <v>2072</v>
+      </c>
+      <c r="G1572" s="8" t="s">
         <v>2073</v>
       </c>
-      <c r="G1572" s="8" t="s">
-        <v>2074</v>
-      </c>
       <c r="H1572" s="8" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="I1572" s="4" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="J1572" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1572" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="L1572" s="8" t="s">
         <v>95</v>
@@ -42992,11 +42989,11 @@
       <c r="G1573" s="8"/>
       <c r="H1573" s="8"/>
       <c r="I1573" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="J1573" s="8"/>
       <c r="K1573" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="L1573" s="8"/>
       <c r="M1573" s="8"/>
@@ -43006,7 +43003,7 @@
         <v>3041</v>
       </c>
       <c r="B1574" s="4" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C1574" s="4" t="s">
         <v>408</v>
@@ -43018,16 +43015,16 @@
         <v>95</v>
       </c>
       <c r="F1574" s="4" t="s">
+        <v>2075</v>
+      </c>
+      <c r="G1574" s="4" t="s">
         <v>2076</v>
       </c>
-      <c r="G1574" s="4" t="s">
+      <c r="H1574" s="4" t="s">
         <v>2077</v>
       </c>
-      <c r="H1574" s="4" t="s">
-        <v>2078</v>
-      </c>
       <c r="I1574" s="7" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="J1574" s="4" t="s">
         <v>94</v>
@@ -43047,7 +43044,7 @@
         <v>3042</v>
       </c>
       <c r="B1575" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C1575" s="4" t="s">
         <v>408</v>
@@ -43059,16 +43056,16 @@
         <v>95</v>
       </c>
       <c r="F1575" s="4" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G1575" s="4" t="s">
         <v>2080</v>
       </c>
-      <c r="G1575" s="4" t="s">
+      <c r="H1575" s="4" t="s">
         <v>2081</v>
       </c>
-      <c r="H1575" s="4" t="s">
-        <v>2082</v>
-      </c>
       <c r="I1575" s="7" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="J1575" s="4" t="s">
         <v>94</v>
@@ -43088,7 +43085,7 @@
         <v>3043</v>
       </c>
       <c r="B1576" s="4" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C1576" s="4" t="s">
         <v>408</v>
@@ -43100,16 +43097,16 @@
         <v>95</v>
       </c>
       <c r="F1576" s="4" t="s">
+        <v>2083</v>
+      </c>
+      <c r="G1576" s="4" t="s">
         <v>2084</v>
       </c>
-      <c r="G1576" s="4" t="s">
+      <c r="H1576" s="4" t="s">
         <v>2085</v>
       </c>
-      <c r="H1576" s="4" t="s">
-        <v>2086</v>
-      </c>
       <c r="I1576" s="7" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="J1576" s="4" t="s">
         <v>94</v>
@@ -43129,7 +43126,7 @@
         <v>3044</v>
       </c>
       <c r="B1577" s="8" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C1577" s="8" t="s">
         <v>408</v>
@@ -43141,22 +43138,22 @@
         <v>95</v>
       </c>
       <c r="F1577" s="8" t="s">
+        <v>2087</v>
+      </c>
+      <c r="G1577" s="8" t="s">
         <v>2088</v>
       </c>
-      <c r="G1577" s="8" t="s">
+      <c r="H1577" s="8" t="s">
         <v>2089</v>
       </c>
-      <c r="H1577" s="8" t="s">
+      <c r="I1577" s="4" t="s">
         <v>2090</v>
-      </c>
-      <c r="I1577" s="4" t="s">
-        <v>2091</v>
       </c>
       <c r="J1577" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1577" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="L1577" s="8" t="s">
         <v>95</v>
@@ -43175,11 +43172,11 @@
       <c r="G1578" s="8"/>
       <c r="H1578" s="8"/>
       <c r="I1578" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="J1578" s="8"/>
       <c r="K1578" s="4" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="L1578" s="8"/>
       <c r="M1578" s="8"/>
@@ -43194,11 +43191,11 @@
       <c r="G1579" s="8"/>
       <c r="H1579" s="8"/>
       <c r="I1579" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="J1579" s="8"/>
       <c r="K1579" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="L1579" s="8"/>
       <c r="M1579" s="8"/>
@@ -43213,11 +43210,11 @@
       <c r="G1580" s="8"/>
       <c r="H1580" s="8"/>
       <c r="I1580" s="4" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="J1580" s="8"/>
       <c r="K1580" s="4" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="L1580" s="8"/>
       <c r="M1580" s="8"/>
@@ -43232,11 +43229,11 @@
       <c r="G1581" s="8"/>
       <c r="H1581" s="8"/>
       <c r="I1581" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="J1581" s="8"/>
       <c r="K1581" s="4" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="L1581" s="8"/>
       <c r="M1581" s="8"/>
@@ -43246,7 +43243,7 @@
         <v>3045</v>
       </c>
       <c r="B1582" s="8" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C1582" s="8" t="s">
         <v>408</v>
@@ -43258,22 +43255,22 @@
         <v>95</v>
       </c>
       <c r="F1582" s="8" t="s">
+        <v>2101</v>
+      </c>
+      <c r="G1582" s="8" t="s">
         <v>2102</v>
       </c>
-      <c r="G1582" s="8" t="s">
+      <c r="H1582" s="8" t="s">
         <v>2103</v>
       </c>
-      <c r="H1582" s="8" t="s">
-        <v>2104</v>
-      </c>
       <c r="I1582" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="J1582" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1582" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="L1582" s="8" t="s">
         <v>95</v>
@@ -43292,11 +43289,11 @@
       <c r="G1583" s="8"/>
       <c r="H1583" s="8"/>
       <c r="I1583" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="J1583" s="8"/>
       <c r="K1583" s="4" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="L1583" s="8"/>
       <c r="M1583" s="8"/>
@@ -43311,11 +43308,11 @@
       <c r="G1584" s="8"/>
       <c r="H1584" s="8"/>
       <c r="I1584" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="J1584" s="8"/>
       <c r="K1584" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="L1584" s="8"/>
       <c r="M1584" s="8"/>
@@ -43330,11 +43327,11 @@
       <c r="G1585" s="8"/>
       <c r="H1585" s="8"/>
       <c r="I1585" s="4" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="J1585" s="8"/>
       <c r="K1585" s="4" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="L1585" s="8"/>
       <c r="M1585" s="8"/>
@@ -43349,11 +43346,11 @@
       <c r="G1586" s="8"/>
       <c r="H1586" s="8"/>
       <c r="I1586" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="J1586" s="8"/>
       <c r="K1586" s="4" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="L1586" s="8"/>
       <c r="M1586" s="8"/>
@@ -43363,7 +43360,7 @@
         <v>3046</v>
       </c>
       <c r="B1587" s="8" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C1587" s="8" t="s">
         <v>408</v>
@@ -43375,22 +43372,22 @@
         <v>95</v>
       </c>
       <c r="F1587" s="8" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G1587" s="8" t="s">
         <v>2106</v>
       </c>
-      <c r="G1587" s="8" t="s">
+      <c r="H1587" s="8" t="s">
         <v>2107</v>
       </c>
-      <c r="H1587" s="8" t="s">
-        <v>2108</v>
-      </c>
       <c r="I1587" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="J1587" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1587" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="L1587" s="8" t="s">
         <v>95</v>
@@ -43409,11 +43406,11 @@
       <c r="G1588" s="8"/>
       <c r="H1588" s="8"/>
       <c r="I1588" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="J1588" s="8"/>
       <c r="K1588" s="4" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="L1588" s="8"/>
       <c r="M1588" s="8"/>
@@ -43428,11 +43425,11 @@
       <c r="G1589" s="8"/>
       <c r="H1589" s="8"/>
       <c r="I1589" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="J1589" s="8"/>
       <c r="K1589" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="L1589" s="8"/>
       <c r="M1589" s="8"/>
@@ -43447,11 +43444,11 @@
       <c r="G1590" s="8"/>
       <c r="H1590" s="8"/>
       <c r="I1590" s="4" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="J1590" s="8"/>
       <c r="K1590" s="4" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="L1590" s="8"/>
       <c r="M1590" s="8"/>
@@ -43466,11 +43463,11 @@
       <c r="G1591" s="8"/>
       <c r="H1591" s="8"/>
       <c r="I1591" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="J1591" s="8"/>
       <c r="K1591" s="4" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="L1591" s="8"/>
       <c r="M1591" s="8"/>
@@ -43480,7 +43477,7 @@
         <v>3047</v>
       </c>
       <c r="B1592" s="4" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="C1592" s="4" t="s">
         <v>408</v>
@@ -43492,16 +43489,16 @@
         <v>95</v>
       </c>
       <c r="F1592" s="4" t="s">
+        <v>2109</v>
+      </c>
+      <c r="G1592" s="4" t="s">
         <v>2110</v>
       </c>
-      <c r="G1592" s="4" t="s">
+      <c r="H1592" s="4" t="s">
         <v>2111</v>
       </c>
-      <c r="H1592" s="4" t="s">
-        <v>2112</v>
-      </c>
       <c r="I1592" s="7" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="J1592" s="4" t="s">
         <v>94</v>
@@ -43521,7 +43518,7 @@
         <v>3048</v>
       </c>
       <c r="B1593" s="4" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C1593" s="4" t="s">
         <v>408</v>
@@ -43533,16 +43530,16 @@
         <v>95</v>
       </c>
       <c r="F1593" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="G1593" s="4" t="s">
         <v>2114</v>
       </c>
-      <c r="G1593" s="4" t="s">
+      <c r="H1593" s="4" t="s">
         <v>2115</v>
       </c>
-      <c r="H1593" s="4" t="s">
-        <v>2116</v>
-      </c>
       <c r="I1593" s="7" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="J1593" s="4" t="s">
         <v>94</v>
@@ -43562,7 +43559,7 @@
         <v>3049</v>
       </c>
       <c r="B1594" s="8" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C1594" s="8" t="s">
         <v>408</v>
@@ -43574,22 +43571,22 @@
         <v>95</v>
       </c>
       <c r="F1594" s="8" t="s">
+        <v>2117</v>
+      </c>
+      <c r="G1594" s="8" t="s">
         <v>2118</v>
       </c>
-      <c r="G1594" s="8" t="s">
+      <c r="H1594" s="8" t="s">
         <v>2119</v>
       </c>
-      <c r="H1594" s="8" t="s">
-        <v>2120</v>
-      </c>
       <c r="I1594" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="J1594" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1594" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="L1594" s="8" t="s">
         <v>95</v>
@@ -43608,11 +43605,11 @@
       <c r="G1595" s="8"/>
       <c r="H1595" s="8"/>
       <c r="I1595" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="J1595" s="8"/>
       <c r="K1595" s="4" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="L1595" s="8"/>
       <c r="M1595" s="8"/>
@@ -43627,11 +43624,11 @@
       <c r="G1596" s="8"/>
       <c r="H1596" s="8"/>
       <c r="I1596" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="J1596" s="8"/>
       <c r="K1596" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="L1596" s="8"/>
       <c r="M1596" s="8"/>
@@ -43646,11 +43643,11 @@
       <c r="G1597" s="8"/>
       <c r="H1597" s="8"/>
       <c r="I1597" s="4" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="J1597" s="8"/>
       <c r="K1597" s="4" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="L1597" s="8"/>
       <c r="M1597" s="8"/>
@@ -43665,11 +43662,11 @@
       <c r="G1598" s="8"/>
       <c r="H1598" s="8"/>
       <c r="I1598" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="J1598" s="8"/>
       <c r="K1598" s="4" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="L1598" s="8"/>
       <c r="M1598" s="8"/>
@@ -43679,7 +43676,7 @@
         <v>3050</v>
       </c>
       <c r="B1599" s="8" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C1599" s="8" t="s">
         <v>408</v>
@@ -43691,22 +43688,22 @@
         <v>95</v>
       </c>
       <c r="F1599" s="8" t="s">
+        <v>2121</v>
+      </c>
+      <c r="G1599" s="8" t="s">
         <v>2122</v>
       </c>
-      <c r="G1599" s="8" t="s">
+      <c r="H1599" s="8" t="s">
         <v>2123</v>
       </c>
-      <c r="H1599" s="8" t="s">
-        <v>2124</v>
-      </c>
       <c r="I1599" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="J1599" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1599" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="L1599" s="8" t="s">
         <v>95</v>
@@ -43725,11 +43722,11 @@
       <c r="G1600" s="8"/>
       <c r="H1600" s="8"/>
       <c r="I1600" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="J1600" s="8"/>
       <c r="K1600" s="4" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="L1600" s="8"/>
       <c r="M1600" s="8"/>
@@ -43744,11 +43741,11 @@
       <c r="G1601" s="8"/>
       <c r="H1601" s="8"/>
       <c r="I1601" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="J1601" s="8"/>
       <c r="K1601" s="4" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="L1601" s="8"/>
       <c r="M1601" s="8"/>
@@ -43763,11 +43760,11 @@
       <c r="G1602" s="8"/>
       <c r="H1602" s="8"/>
       <c r="I1602" s="4" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="J1602" s="8"/>
       <c r="K1602" s="4" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="L1602" s="8"/>
       <c r="M1602" s="8"/>
@@ -43782,11 +43779,11 @@
       <c r="G1603" s="8"/>
       <c r="H1603" s="8"/>
       <c r="I1603" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="J1603" s="8"/>
       <c r="K1603" s="4" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="L1603" s="8"/>
       <c r="M1603" s="8"/>
@@ -43796,10 +43793,10 @@
         <v>3051</v>
       </c>
       <c r="B1604" s="8" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C1604" s="8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D1604" s="8" t="s">
         <v>94</v>
@@ -43808,22 +43805,22 @@
         <v>95</v>
       </c>
       <c r="F1604" s="8" t="s">
+        <v>2125</v>
+      </c>
+      <c r="G1604" s="8" t="s">
+        <v>2125</v>
+      </c>
+      <c r="H1604" s="8" t="s">
         <v>2126</v>
       </c>
-      <c r="G1604" s="8" t="s">
-        <v>2126</v>
-      </c>
-      <c r="H1604" s="8" t="s">
+      <c r="I1604" s="4" t="s">
         <v>2127</v>
-      </c>
-      <c r="I1604" s="4" t="s">
-        <v>2128</v>
       </c>
       <c r="J1604" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1604" s="4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="L1604" s="8" t="s">
         <v>95</v>
@@ -43842,11 +43839,11 @@
       <c r="G1605" s="8"/>
       <c r="H1605" s="8"/>
       <c r="I1605" s="4" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="J1605" s="8"/>
       <c r="K1605" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="L1605" s="8"/>
       <c r="M1605" s="8"/>
@@ -43856,7 +43853,7 @@
         <v>3052</v>
       </c>
       <c r="B1606" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C1606" s="4" t="s">
         <v>93</v>
@@ -43868,16 +43865,16 @@
         <v>95</v>
       </c>
       <c r="F1606" s="4" t="s">
+        <v>2132</v>
+      </c>
+      <c r="G1606" s="4" t="s">
         <v>2133</v>
       </c>
-      <c r="G1606" s="4" t="s">
+      <c r="H1606" s="4" t="s">
         <v>2134</v>
       </c>
-      <c r="H1606" s="4" t="s">
-        <v>2135</v>
-      </c>
       <c r="I1606" s="7" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="J1606" s="4" t="s">
         <v>94</v>
@@ -43897,7 +43894,7 @@
         <v>3053</v>
       </c>
       <c r="B1607" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="C1607" s="4" t="s">
         <v>408</v>
@@ -43909,16 +43906,16 @@
         <v>95</v>
       </c>
       <c r="F1607" s="4" t="s">
+        <v>2136</v>
+      </c>
+      <c r="G1607" s="4" t="s">
         <v>2137</v>
       </c>
-      <c r="G1607" s="4" t="s">
+      <c r="H1607" s="4" t="s">
         <v>2138</v>
       </c>
-      <c r="H1607" s="4" t="s">
-        <v>2139</v>
-      </c>
       <c r="I1607" s="7" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="J1607" s="4" t="s">
         <v>94</v>
@@ -43941,7 +43938,7 @@
     </row>
     <row r="1610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1610" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1611" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43949,7 +43946,7 @@
     </row>
     <row r="1612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1612" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1613" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43957,7 +43954,7 @@
     </row>
     <row r="1614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1614" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1615" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43965,7 +43962,7 @@
     </row>
     <row r="1616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1616" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1617" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43973,7 +43970,7 @@
     </row>
     <row r="1618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1618" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1619" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43981,7 +43978,7 @@
     </row>
     <row r="1620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1620" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1621" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43989,7 +43986,7 @@
     </row>
     <row r="1622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1622" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1623" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43997,7 +43994,7 @@
     </row>
     <row r="1624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1624" s="4" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1625" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44005,7 +44002,7 @@
     </row>
     <row r="1626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1626" s="4" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1627" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44013,7 +44010,7 @@
     </row>
     <row r="1628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1628" s="4" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1629" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44021,7 +44018,7 @@
     </row>
     <row r="1630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1630" s="4" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1631" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44029,7 +44026,7 @@
     </row>
     <row r="1632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1632" s="4" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1633" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44037,7 +44034,7 @@
     </row>
     <row r="1634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1634" s="4" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1635" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44045,7 +44042,7 @@
     </row>
     <row r="1636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1636" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1637" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44053,7 +44050,7 @@
     </row>
     <row r="1638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1638" s="4" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1639" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44061,7 +44058,7 @@
     </row>
     <row r="1640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1640" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="1641" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44069,7 +44066,7 @@
     </row>
     <row r="1642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1642" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="1643" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44077,7 +44074,7 @@
     </row>
     <row r="1644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1644" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="1645" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44085,7 +44082,7 @@
     </row>
     <row r="1646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1646" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="1647" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44093,7 +44090,7 @@
     </row>
     <row r="1648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1648" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
   </sheetData>

--- a/output/questionnaires/2023-06-18_aargau.xlsx
+++ b/output/questionnaires/2023-06-18_aargau.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">Sheet1!$A$167:$M$190</definedName>
     <definedName function="false" hidden="false" name="HTML_10" vbProcedure="false">Sheet1!$A$1294:$M$1417</definedName>
-    <definedName function="false" hidden="false" name="HTML_11" vbProcedure="false">Sheet1!$A$1425:$M$1607</definedName>
+    <definedName function="false" hidden="false" name="HTML_11" vbProcedure="false">Sheet1!$A$1425:$M$1631</definedName>
     <definedName function="false" hidden="false" name="HTML_2" vbProcedure="false">Sheet1!$A$196:$M$208</definedName>
     <definedName function="false" hidden="false" name="HTML_3" vbProcedure="false">Sheet1!$A$212:$M$269</definedName>
     <definedName function="false" hidden="false" name="HTML_4" vbProcedure="false">Sheet1!$A$273:$M$314</definedName>
@@ -22,7 +22,7 @@
     <definedName function="false" hidden="false" name="HTML_7" vbProcedure="false">Sheet1!$A$982:$M$1103</definedName>
     <definedName function="false" hidden="false" name="HTML_8" vbProcedure="false">Sheet1!$A$1109:$M$1189</definedName>
     <definedName function="false" hidden="false" name="HTML_9" vbProcedure="false">Sheet1!$A$1195:$M$1288</definedName>
-    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">Sheet1!$A$1:$M$1648</definedName>
+    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">Sheet1!$A$1:$M$1672</definedName>
     <definedName function="false" hidden="false" name="HTML_tables" vbProcedure="false">Sheet1!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5419" uniqueCount="2219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5509" uniqueCount="2235">
   <si>
     <t xml:space="preserve">FOKUS-Aargau-Fragebogen für den Abstimmungstermin vom 18. Juni 2023</t>
   </si>
@@ -7039,6 +7039,54 @@
   </si>
   <si>
     <t xml:space="preserve">importance (reduced) the respondent attaches to the federal proposal “Bundesgesetz über die Ziele im Klimaschutz, die Innovation und die Stärkung der Energiesicherheit (indirekter Gegenvorschlag zur Gletscher-Initiative)”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationsgrad kantonale Vorlage 1 (reduziert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_cantonal_proposal_1_reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_cp_1_rdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent’s information level (reduced) on the cantonal proposal “Gesetz über die Ombudsstelle (Ombudsgesetz) vom 17. Januar 2023”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationsgrad kantonale Vorlage 2 (reduziert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_cantonal_proposal_2_reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_cp_2_rdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent’s information level (reduced) on the cantonal proposal “Verdichtung des Bahnangebots der Regio-S-Bahn Stein-Säckingen–Laufenburg; Verpflichtungskredit vom 17. Januar 2023”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationsgrad kantonale Vorlage 3 (reduziert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_cantonal_proposal_3_reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_cp_3_rdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent’s information level (reduced) on the cantonal proposal “Aargauische Volksinitiative”Klimaschutz braucht Initiative! (Aargauische Klimaschutzinitiative)“”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationsgrad eidgenössische Vorlage 2 (reduziert)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_federal_proposal_2_reduced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information_level_fp_2_rdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respondent’s information level (reduced) on the federal proposal “Bundesgesetz über die Ziele im Klimaschutz, die Innovation und die Stärkung der Energiesicherheit (indirekter Gegenvorschlag zur Gletscher-Initiative)”</t>
   </si>
   <si>
     <t xml:space="preserve">Verständnisschwierigkeit kantonale Vorlage 1 (reduziert)</t>
@@ -8092,7 +8140,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1648"/>
+  <dimension ref="A1:M1672"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -42377,8 +42425,8 @@
       <c r="C1544" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D1544" s="8" t="s">
-        <v>94</v>
+      <c r="D1544" s="4" t="s">
+        <v>485</v>
       </c>
       <c r="E1544" s="8" t="s">
         <v>95</v>
@@ -42393,13 +42441,13 @@
         <v>2092</v>
       </c>
       <c r="I1544" s="4" t="s">
-        <v>2093</v>
+        <v>2075</v>
       </c>
       <c r="J1544" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1544" s="4" t="s">
-        <v>2094</v>
+        <v>2017</v>
       </c>
       <c r="L1544" s="8" t="s">
         <v>95</v>
@@ -42412,17 +42460,17 @@
       <c r="A1545" s="8"/>
       <c r="B1545" s="8"/>
       <c r="C1545" s="8"/>
-      <c r="D1545" s="8"/>
+      <c r="D1545" s="4"/>
       <c r="E1545" s="8"/>
       <c r="F1545" s="8"/>
       <c r="G1545" s="8"/>
       <c r="H1545" s="8"/>
       <c r="I1545" s="4" t="s">
-        <v>2095</v>
+        <v>2076</v>
       </c>
       <c r="J1545" s="8"/>
       <c r="K1545" s="4" t="s">
-        <v>2096</v>
+        <v>2019</v>
       </c>
       <c r="L1545" s="8"/>
       <c r="M1545" s="8"/>
@@ -42431,86 +42479,66 @@
       <c r="A1546" s="8"/>
       <c r="B1546" s="8"/>
       <c r="C1546" s="8"/>
-      <c r="D1546" s="8"/>
+      <c r="D1546" s="4" t="s">
+        <v>489</v>
+      </c>
       <c r="E1546" s="8"/>
       <c r="F1546" s="8"/>
       <c r="G1546" s="8"/>
       <c r="H1546" s="8"/>
       <c r="I1546" s="4" t="s">
-        <v>203</v>
+        <v>2020</v>
       </c>
       <c r="J1546" s="8"/>
       <c r="K1546" s="4" t="s">
-        <v>204</v>
+        <v>2021</v>
       </c>
       <c r="L1546" s="8"/>
       <c r="M1546" s="8"/>
     </row>
-    <row r="1547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1547" s="8" t="n">
-        <v>3029</v>
-      </c>
-      <c r="B1547" s="8" t="s">
-        <v>2097</v>
-      </c>
-      <c r="C1547" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1547" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1547" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1547" s="8" t="s">
-        <v>2098</v>
-      </c>
-      <c r="G1547" s="8" t="s">
-        <v>2099</v>
-      </c>
-      <c r="H1547" s="8" t="s">
-        <v>2100</v>
-      </c>
+    <row r="1547" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1547" s="8"/>
+      <c r="B1547" s="8"/>
+      <c r="C1547" s="8"/>
+      <c r="D1547" s="1"/>
+      <c r="E1547" s="8"/>
+      <c r="F1547" s="8"/>
+      <c r="G1547" s="8"/>
+      <c r="H1547" s="8"/>
       <c r="I1547" s="4" t="s">
-        <v>2093</v>
-      </c>
-      <c r="J1547" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="J1547" s="8"/>
       <c r="K1547" s="4" t="s">
-        <v>2094</v>
-      </c>
-      <c r="L1547" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1547" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="1548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2023</v>
+      </c>
+      <c r="L1547" s="8"/>
+      <c r="M1547" s="8"/>
+    </row>
+    <row r="1548" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1548" s="8"/>
       <c r="B1548" s="8"/>
       <c r="C1548" s="8"/>
-      <c r="D1548" s="8"/>
+      <c r="D1548" s="1"/>
       <c r="E1548" s="8"/>
       <c r="F1548" s="8"/>
       <c r="G1548" s="8"/>
       <c r="H1548" s="8"/>
       <c r="I1548" s="4" t="s">
-        <v>2095</v>
+        <v>2024</v>
       </c>
       <c r="J1548" s="8"/>
       <c r="K1548" s="4" t="s">
-        <v>2096</v>
+        <v>2025</v>
       </c>
       <c r="L1548" s="8"/>
       <c r="M1548" s="8"/>
     </row>
-    <row r="1549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1549" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1549" s="8"/>
       <c r="B1549" s="8"/>
       <c r="C1549" s="8"/>
-      <c r="D1549" s="8"/>
+      <c r="D1549" s="1"/>
       <c r="E1549" s="8"/>
       <c r="F1549" s="8"/>
       <c r="G1549" s="8"/>
@@ -42527,37 +42555,37 @@
     </row>
     <row r="1550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1550" s="8" t="n">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="B1550" s="8" t="s">
-        <v>2101</v>
+        <v>2093</v>
       </c>
       <c r="C1550" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D1550" s="8" t="s">
-        <v>94</v>
+        <v>491</v>
       </c>
       <c r="E1550" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F1550" s="8" t="s">
-        <v>2102</v>
+        <v>2094</v>
       </c>
       <c r="G1550" s="8" t="s">
-        <v>2103</v>
+        <v>2095</v>
       </c>
       <c r="H1550" s="8" t="s">
-        <v>2104</v>
+        <v>2096</v>
       </c>
       <c r="I1550" s="4" t="s">
-        <v>2093</v>
+        <v>2075</v>
       </c>
       <c r="J1550" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1550" s="4" t="s">
-        <v>2094</v>
+        <v>2017</v>
       </c>
       <c r="L1550" s="8" t="s">
         <v>95</v>
@@ -42576,11 +42604,11 @@
       <c r="G1551" s="8"/>
       <c r="H1551" s="8"/>
       <c r="I1551" s="4" t="s">
-        <v>2095</v>
+        <v>2076</v>
       </c>
       <c r="J1551" s="8"/>
       <c r="K1551" s="4" t="s">
-        <v>2096</v>
+        <v>2019</v>
       </c>
       <c r="L1551" s="8"/>
       <c r="M1551" s="8"/>
@@ -42595,55 +42623,33 @@
       <c r="G1552" s="8"/>
       <c r="H1552" s="8"/>
       <c r="I1552" s="4" t="s">
-        <v>203</v>
+        <v>2020</v>
       </c>
       <c r="J1552" s="8"/>
       <c r="K1552" s="4" t="s">
-        <v>204</v>
+        <v>2021</v>
       </c>
       <c r="L1552" s="8"/>
       <c r="M1552" s="8"/>
     </row>
     <row r="1553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1553" s="8" t="n">
-        <v>3031</v>
-      </c>
-      <c r="B1553" s="8" t="s">
-        <v>2105</v>
-      </c>
-      <c r="C1553" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1553" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1553" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1553" s="8" t="s">
-        <v>2106</v>
-      </c>
-      <c r="G1553" s="8" t="s">
-        <v>2107</v>
-      </c>
-      <c r="H1553" s="8" t="s">
-        <v>2108</v>
-      </c>
+      <c r="A1553" s="8"/>
+      <c r="B1553" s="8"/>
+      <c r="C1553" s="8"/>
+      <c r="D1553" s="8"/>
+      <c r="E1553" s="8"/>
+      <c r="F1553" s="8"/>
+      <c r="G1553" s="8"/>
+      <c r="H1553" s="8"/>
       <c r="I1553" s="4" t="s">
-        <v>2093</v>
-      </c>
-      <c r="J1553" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="J1553" s="8"/>
       <c r="K1553" s="4" t="s">
-        <v>2094</v>
-      </c>
-      <c r="L1553" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1553" s="8" t="s">
-        <v>95</v>
-      </c>
+        <v>2023</v>
+      </c>
+      <c r="L1553" s="8"/>
+      <c r="M1553" s="8"/>
     </row>
     <row r="1554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1554" s="8"/>
@@ -42655,11 +42661,11 @@
       <c r="G1554" s="8"/>
       <c r="H1554" s="8"/>
       <c r="I1554" s="4" t="s">
-        <v>2095</v>
+        <v>2024</v>
       </c>
       <c r="J1554" s="8"/>
       <c r="K1554" s="4" t="s">
-        <v>2096</v>
+        <v>2025</v>
       </c>
       <c r="L1554" s="8"/>
       <c r="M1554" s="8"/>
@@ -42685,37 +42691,37 @@
     </row>
     <row r="1556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1556" s="8" t="n">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="B1556" s="8" t="s">
-        <v>2109</v>
+        <v>2097</v>
       </c>
       <c r="C1556" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1556" s="9" t="s">
-        <v>824</v>
+        <v>93</v>
+      </c>
+      <c r="D1556" s="8" t="s">
+        <v>496</v>
       </c>
       <c r="E1556" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F1556" s="8" t="s">
-        <v>2110</v>
+        <v>2098</v>
       </c>
       <c r="G1556" s="8" t="s">
-        <v>2111</v>
+        <v>2099</v>
       </c>
       <c r="H1556" s="8" t="s">
-        <v>2112</v>
+        <v>2100</v>
       </c>
       <c r="I1556" s="4" t="s">
-        <v>2113</v>
+        <v>2075</v>
       </c>
       <c r="J1556" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1556" s="4" t="s">
-        <v>2114</v>
+        <v>2017</v>
       </c>
       <c r="L1556" s="8" t="s">
         <v>95</v>
@@ -42734,55 +42740,33 @@
       <c r="G1557" s="8"/>
       <c r="H1557" s="8"/>
       <c r="I1557" s="4" t="s">
-        <v>2115</v>
+        <v>2076</v>
       </c>
       <c r="J1557" s="8"/>
       <c r="K1557" s="4" t="s">
-        <v>2116</v>
+        <v>2019</v>
       </c>
       <c r="L1557" s="8"/>
       <c r="M1557" s="8"/>
     </row>
     <row r="1558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1558" s="8" t="n">
-        <v>3033</v>
-      </c>
-      <c r="B1558" s="8" t="s">
-        <v>2117</v>
-      </c>
-      <c r="C1558" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1558" s="9" t="s">
-        <v>830</v>
-      </c>
-      <c r="E1558" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1558" s="8" t="s">
-        <v>2118</v>
-      </c>
-      <c r="G1558" s="8" t="s">
-        <v>2119</v>
-      </c>
-      <c r="H1558" s="8" t="s">
-        <v>2120</v>
-      </c>
+      <c r="A1558" s="8"/>
+      <c r="B1558" s="8"/>
+      <c r="C1558" s="8"/>
+      <c r="D1558" s="8"/>
+      <c r="E1558" s="8"/>
+      <c r="F1558" s="8"/>
+      <c r="G1558" s="8"/>
+      <c r="H1558" s="8"/>
       <c r="I1558" s="4" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J1558" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="J1558" s="8"/>
       <c r="K1558" s="4" t="s">
-        <v>2114</v>
-      </c>
-      <c r="L1558" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1558" s="8" t="s">
-        <v>95</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="L1558" s="8"/>
+      <c r="M1558" s="8"/>
     </row>
     <row r="1559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1559" s="8"/>
@@ -42794,55 +42778,33 @@
       <c r="G1559" s="8"/>
       <c r="H1559" s="8"/>
       <c r="I1559" s="4" t="s">
-        <v>2115</v>
+        <v>2022</v>
       </c>
       <c r="J1559" s="8"/>
       <c r="K1559" s="4" t="s">
-        <v>2116</v>
+        <v>2023</v>
       </c>
       <c r="L1559" s="8"/>
       <c r="M1559" s="8"/>
     </row>
     <row r="1560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1560" s="8" t="n">
-        <v>3034</v>
-      </c>
-      <c r="B1560" s="8" t="s">
-        <v>2121</v>
-      </c>
-      <c r="C1560" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1560" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="E1560" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1560" s="8" t="s">
-        <v>2122</v>
-      </c>
-      <c r="G1560" s="8" t="s">
-        <v>2123</v>
-      </c>
-      <c r="H1560" s="8" t="s">
-        <v>2124</v>
-      </c>
+      <c r="A1560" s="8"/>
+      <c r="B1560" s="8"/>
+      <c r="C1560" s="8"/>
+      <c r="D1560" s="8"/>
+      <c r="E1560" s="8"/>
+      <c r="F1560" s="8"/>
+      <c r="G1560" s="8"/>
+      <c r="H1560" s="8"/>
       <c r="I1560" s="4" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J1560" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="J1560" s="8"/>
       <c r="K1560" s="4" t="s">
-        <v>2114</v>
-      </c>
-      <c r="L1560" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1560" s="8" t="s">
-        <v>95</v>
-      </c>
+        <v>2025</v>
+      </c>
+      <c r="L1560" s="8"/>
+      <c r="M1560" s="8"/>
     </row>
     <row r="1561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1561" s="8"/>
@@ -42854,48 +42816,48 @@
       <c r="G1561" s="8"/>
       <c r="H1561" s="8"/>
       <c r="I1561" s="4" t="s">
-        <v>2115</v>
+        <v>203</v>
       </c>
       <c r="J1561" s="8"/>
       <c r="K1561" s="4" t="s">
-        <v>2116</v>
+        <v>204</v>
       </c>
       <c r="L1561" s="8"/>
       <c r="M1561" s="8"/>
     </row>
     <row r="1562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1562" s="8" t="n">
-        <v>3035</v>
+        <v>3031</v>
       </c>
       <c r="B1562" s="8" t="s">
-        <v>2125</v>
+        <v>2101</v>
       </c>
       <c r="C1562" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1562" s="9" t="s">
-        <v>860</v>
+        <v>93</v>
+      </c>
+      <c r="D1562" s="4" t="s">
+        <v>475</v>
       </c>
       <c r="E1562" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F1562" s="8" t="s">
-        <v>2126</v>
+        <v>2102</v>
       </c>
       <c r="G1562" s="8" t="s">
-        <v>2127</v>
+        <v>2103</v>
       </c>
       <c r="H1562" s="8" t="s">
-        <v>2128</v>
+        <v>2104</v>
       </c>
       <c r="I1562" s="4" t="s">
-        <v>2113</v>
+        <v>2075</v>
       </c>
       <c r="J1562" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1562" s="4" t="s">
-        <v>2114</v>
+        <v>2017</v>
       </c>
       <c r="L1562" s="8" t="s">
         <v>95</v>
@@ -42908,174 +42870,132 @@
       <c r="A1563" s="8"/>
       <c r="B1563" s="8"/>
       <c r="C1563" s="8"/>
-      <c r="D1563" s="8"/>
+      <c r="D1563" s="4"/>
       <c r="E1563" s="8"/>
       <c r="F1563" s="8"/>
       <c r="G1563" s="8"/>
       <c r="H1563" s="8"/>
       <c r="I1563" s="4" t="s">
-        <v>2115</v>
+        <v>2076</v>
       </c>
       <c r="J1563" s="8"/>
       <c r="K1563" s="4" t="s">
-        <v>2116</v>
+        <v>2019</v>
       </c>
       <c r="L1563" s="8"/>
       <c r="M1563" s="8"/>
     </row>
     <row r="1564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1564" s="8" t="n">
-        <v>3036</v>
-      </c>
-      <c r="B1564" s="8" t="s">
-        <v>2129</v>
-      </c>
-      <c r="C1564" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1564" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="E1564" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1564" s="8" t="s">
-        <v>2130</v>
-      </c>
-      <c r="G1564" s="8" t="s">
-        <v>2131</v>
-      </c>
-      <c r="H1564" s="8" t="s">
-        <v>2132</v>
-      </c>
+      <c r="A1564" s="8"/>
+      <c r="B1564" s="8"/>
+      <c r="C1564" s="8"/>
+      <c r="D1564" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E1564" s="8"/>
+      <c r="F1564" s="8"/>
+      <c r="G1564" s="8"/>
+      <c r="H1564" s="8"/>
       <c r="I1564" s="4" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J1564" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="J1564" s="8"/>
       <c r="K1564" s="4" t="s">
-        <v>2114</v>
-      </c>
-      <c r="L1564" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1564" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="1565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2021</v>
+      </c>
+      <c r="L1564" s="8"/>
+      <c r="M1564" s="8"/>
+    </row>
+    <row r="1565" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1565" s="8"/>
       <c r="B1565" s="8"/>
       <c r="C1565" s="8"/>
-      <c r="D1565" s="8"/>
+      <c r="D1565" s="1"/>
       <c r="E1565" s="8"/>
       <c r="F1565" s="8"/>
       <c r="G1565" s="8"/>
       <c r="H1565" s="8"/>
       <c r="I1565" s="4" t="s">
-        <v>2115</v>
+        <v>2022</v>
       </c>
       <c r="J1565" s="8"/>
       <c r="K1565" s="4" t="s">
-        <v>2116</v>
+        <v>2023</v>
       </c>
       <c r="L1565" s="8"/>
       <c r="M1565" s="8"/>
     </row>
-    <row r="1566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1566" s="8" t="n">
-        <v>3037</v>
-      </c>
-      <c r="B1566" s="8" t="s">
-        <v>2133</v>
-      </c>
-      <c r="C1566" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1566" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="E1566" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1566" s="8" t="s">
-        <v>2134</v>
-      </c>
-      <c r="G1566" s="8" t="s">
-        <v>2135</v>
-      </c>
-      <c r="H1566" s="8" t="s">
-        <v>2136</v>
-      </c>
+    <row r="1566" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1566" s="8"/>
+      <c r="B1566" s="8"/>
+      <c r="C1566" s="8"/>
+      <c r="D1566" s="1"/>
+      <c r="E1566" s="8"/>
+      <c r="F1566" s="8"/>
+      <c r="G1566" s="8"/>
+      <c r="H1566" s="8"/>
       <c r="I1566" s="4" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J1566" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="J1566" s="8"/>
       <c r="K1566" s="4" t="s">
-        <v>2114</v>
-      </c>
-      <c r="L1566" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1566" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="1567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2025</v>
+      </c>
+      <c r="L1566" s="8"/>
+      <c r="M1566" s="8"/>
+    </row>
+    <row r="1567" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1567" s="8"/>
       <c r="B1567" s="8"/>
       <c r="C1567" s="8"/>
-      <c r="D1567" s="8"/>
+      <c r="D1567" s="1"/>
       <c r="E1567" s="8"/>
       <c r="F1567" s="8"/>
       <c r="G1567" s="8"/>
       <c r="H1567" s="8"/>
       <c r="I1567" s="4" t="s">
-        <v>2115</v>
+        <v>203</v>
       </c>
       <c r="J1567" s="8"/>
       <c r="K1567" s="4" t="s">
-        <v>2116</v>
+        <v>204</v>
       </c>
       <c r="L1567" s="8"/>
       <c r="M1567" s="8"/>
     </row>
     <row r="1568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1568" s="8" t="n">
-        <v>3038</v>
+        <v>3032</v>
       </c>
       <c r="B1568" s="8" t="s">
-        <v>2137</v>
+        <v>2105</v>
       </c>
       <c r="C1568" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1568" s="9" t="s">
-        <v>896</v>
+        <v>93</v>
+      </c>
+      <c r="D1568" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="E1568" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F1568" s="8" t="s">
-        <v>2138</v>
+        <v>2106</v>
       </c>
       <c r="G1568" s="8" t="s">
-        <v>2139</v>
+        <v>2107</v>
       </c>
       <c r="H1568" s="8" t="s">
-        <v>2140</v>
+        <v>2108</v>
       </c>
       <c r="I1568" s="4" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="J1568" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1568" s="4" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="L1568" s="8" t="s">
         <v>95</v>
@@ -43094,115 +43014,93 @@
       <c r="G1569" s="8"/>
       <c r="H1569" s="8"/>
       <c r="I1569" s="4" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="J1569" s="8"/>
       <c r="K1569" s="4" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="L1569" s="8"/>
       <c r="M1569" s="8"/>
     </row>
     <row r="1570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1570" s="8" t="n">
-        <v>3039</v>
-      </c>
-      <c r="B1570" s="8" t="s">
-        <v>2141</v>
-      </c>
-      <c r="C1570" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1570" s="9" t="s">
-        <v>900</v>
-      </c>
-      <c r="E1570" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1570" s="8" t="s">
-        <v>2142</v>
-      </c>
-      <c r="G1570" s="8" t="s">
-        <v>2143</v>
-      </c>
-      <c r="H1570" s="8" t="s">
-        <v>2144</v>
-      </c>
+      <c r="A1570" s="8"/>
+      <c r="B1570" s="8"/>
+      <c r="C1570" s="8"/>
+      <c r="D1570" s="8"/>
+      <c r="E1570" s="8"/>
+      <c r="F1570" s="8"/>
+      <c r="G1570" s="8"/>
+      <c r="H1570" s="8"/>
       <c r="I1570" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1570" s="8"/>
+      <c r="K1570" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1570" s="8"/>
+      <c r="M1570" s="8"/>
+    </row>
+    <row r="1571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1571" s="8" t="n">
+        <v>3033</v>
+      </c>
+      <c r="B1571" s="8" t="s">
         <v>2113</v>
       </c>
-      <c r="J1570" s="8" t="s">
+      <c r="C1571" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1571" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K1570" s="4" t="s">
+      <c r="E1571" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1571" s="8" t="s">
         <v>2114</v>
       </c>
-      <c r="L1570" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1570" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="1571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1571" s="8"/>
-      <c r="B1571" s="8"/>
-      <c r="C1571" s="8"/>
-      <c r="D1571" s="8"/>
-      <c r="E1571" s="8"/>
-      <c r="F1571" s="8"/>
-      <c r="G1571" s="8"/>
-      <c r="H1571" s="8"/>
+      <c r="G1571" s="8" t="s">
+        <v>2115</v>
+      </c>
+      <c r="H1571" s="8" t="s">
+        <v>2116</v>
+      </c>
       <c r="I1571" s="4" t="s">
-        <v>2115</v>
-      </c>
-      <c r="J1571" s="8"/>
+        <v>2109</v>
+      </c>
+      <c r="J1571" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="K1571" s="4" t="s">
-        <v>2116</v>
-      </c>
-      <c r="L1571" s="8"/>
-      <c r="M1571" s="8"/>
+        <v>2110</v>
+      </c>
+      <c r="L1571" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1571" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="1572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1572" s="8" t="n">
-        <v>3040</v>
-      </c>
-      <c r="B1572" s="8" t="s">
-        <v>2145</v>
-      </c>
-      <c r="C1572" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1572" s="9" t="s">
-        <v>911</v>
-      </c>
-      <c r="E1572" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1572" s="8" t="s">
-        <v>2146</v>
-      </c>
-      <c r="G1572" s="8" t="s">
-        <v>2147</v>
-      </c>
-      <c r="H1572" s="8" t="s">
-        <v>2148</v>
-      </c>
+      <c r="A1572" s="8"/>
+      <c r="B1572" s="8"/>
+      <c r="C1572" s="8"/>
+      <c r="D1572" s="8"/>
+      <c r="E1572" s="8"/>
+      <c r="F1572" s="8"/>
+      <c r="G1572" s="8"/>
+      <c r="H1572" s="8"/>
       <c r="I1572" s="4" t="s">
-        <v>2113</v>
-      </c>
-      <c r="J1572" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>2111</v>
+      </c>
+      <c r="J1572" s="8"/>
       <c r="K1572" s="4" t="s">
-        <v>2114</v>
-      </c>
-      <c r="L1572" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1572" s="8" t="s">
-        <v>95</v>
-      </c>
+        <v>2112</v>
+      </c>
+      <c r="L1572" s="8"/>
+      <c r="M1572" s="8"/>
     </row>
     <row r="1573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1573" s="8"/>
@@ -43214,147 +43112,103 @@
       <c r="G1573" s="8"/>
       <c r="H1573" s="8"/>
       <c r="I1573" s="4" t="s">
-        <v>2115</v>
+        <v>203</v>
       </c>
       <c r="J1573" s="8"/>
       <c r="K1573" s="4" t="s">
-        <v>2116</v>
+        <v>204</v>
       </c>
       <c r="L1573" s="8"/>
       <c r="M1573" s="8"/>
     </row>
     <row r="1574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1574" s="4" t="n">
-        <v>3041</v>
-      </c>
-      <c r="B1574" s="4" t="s">
-        <v>2149</v>
-      </c>
-      <c r="C1574" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1574" s="4" t="s">
+      <c r="A1574" s="8" t="n">
+        <v>3034</v>
+      </c>
+      <c r="B1574" s="8" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C1574" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1574" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E1574" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1574" s="4" t="s">
-        <v>2150</v>
-      </c>
-      <c r="G1574" s="4" t="s">
-        <v>2151</v>
-      </c>
-      <c r="H1574" s="4" t="s">
-        <v>2152</v>
-      </c>
-      <c r="I1574" s="7" t="s">
-        <v>1976</v>
-      </c>
-      <c r="J1574" s="4" t="s">
+      <c r="E1574" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1574" s="8" t="s">
+        <v>2118</v>
+      </c>
+      <c r="G1574" s="8" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H1574" s="8" t="s">
+        <v>2120</v>
+      </c>
+      <c r="I1574" s="4" t="s">
+        <v>2109</v>
+      </c>
+      <c r="J1574" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1574" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1574" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1574" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="L1574" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1574" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="1575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1575" s="4" t="n">
-        <v>3042</v>
-      </c>
-      <c r="B1575" s="4" t="s">
-        <v>2153</v>
-      </c>
-      <c r="C1575" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1575" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1575" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1575" s="4" t="s">
-        <v>2154</v>
-      </c>
-      <c r="G1575" s="4" t="s">
-        <v>2155</v>
-      </c>
-      <c r="H1575" s="4" t="s">
-        <v>2156</v>
-      </c>
-      <c r="I1575" s="7" t="s">
-        <v>1976</v>
-      </c>
-      <c r="J1575" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="A1575" s="8"/>
+      <c r="B1575" s="8"/>
+      <c r="C1575" s="8"/>
+      <c r="D1575" s="8"/>
+      <c r="E1575" s="8"/>
+      <c r="F1575" s="8"/>
+      <c r="G1575" s="8"/>
+      <c r="H1575" s="8"/>
+      <c r="I1575" s="4" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J1575" s="8"/>
       <c r="K1575" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1575" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1575" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>2112</v>
+      </c>
+      <c r="L1575" s="8"/>
+      <c r="M1575" s="8"/>
     </row>
     <row r="1576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1576" s="4" t="n">
-        <v>3043</v>
-      </c>
-      <c r="B1576" s="4" t="s">
-        <v>2157</v>
-      </c>
-      <c r="C1576" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1576" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1576" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1576" s="4" t="s">
-        <v>2158</v>
-      </c>
-      <c r="G1576" s="4" t="s">
-        <v>2159</v>
-      </c>
-      <c r="H1576" s="4" t="s">
-        <v>2160</v>
-      </c>
-      <c r="I1576" s="7" t="s">
-        <v>1976</v>
-      </c>
-      <c r="J1576" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="A1576" s="8"/>
+      <c r="B1576" s="8"/>
+      <c r="C1576" s="8"/>
+      <c r="D1576" s="8"/>
+      <c r="E1576" s="8"/>
+      <c r="F1576" s="8"/>
+      <c r="G1576" s="8"/>
+      <c r="H1576" s="8"/>
+      <c r="I1576" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1576" s="8"/>
       <c r="K1576" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1576" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1576" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="L1576" s="8"/>
+      <c r="M1576" s="8"/>
     </row>
     <row r="1577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1577" s="8" t="n">
-        <v>3044</v>
+        <v>3035</v>
       </c>
       <c r="B1577" s="8" t="s">
-        <v>2161</v>
+        <v>2121</v>
       </c>
       <c r="C1577" s="8" t="s">
-        <v>408</v>
+        <v>93</v>
       </c>
       <c r="D1577" s="8" t="s">
         <v>94</v>
@@ -43363,22 +43217,22 @@
         <v>95</v>
       </c>
       <c r="F1577" s="8" t="s">
-        <v>2162</v>
+        <v>2122</v>
       </c>
       <c r="G1577" s="8" t="s">
-        <v>2163</v>
+        <v>2123</v>
       </c>
       <c r="H1577" s="8" t="s">
-        <v>2164</v>
+        <v>2124</v>
       </c>
       <c r="I1577" s="4" t="s">
-        <v>2165</v>
+        <v>2109</v>
       </c>
       <c r="J1577" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1577" s="4" t="s">
-        <v>2166</v>
+        <v>2110</v>
       </c>
       <c r="L1577" s="8" t="s">
         <v>95</v>
@@ -43397,11 +43251,11 @@
       <c r="G1578" s="8"/>
       <c r="H1578" s="8"/>
       <c r="I1578" s="4" t="s">
-        <v>2167</v>
+        <v>2111</v>
       </c>
       <c r="J1578" s="8"/>
       <c r="K1578" s="4" t="s">
-        <v>2168</v>
+        <v>2112</v>
       </c>
       <c r="L1578" s="8"/>
       <c r="M1578" s="8"/>
@@ -43416,33 +43270,55 @@
       <c r="G1579" s="8"/>
       <c r="H1579" s="8"/>
       <c r="I1579" s="4" t="s">
-        <v>2169</v>
+        <v>203</v>
       </c>
       <c r="J1579" s="8"/>
       <c r="K1579" s="4" t="s">
-        <v>2170</v>
+        <v>204</v>
       </c>
       <c r="L1579" s="8"/>
       <c r="M1579" s="8"/>
     </row>
     <row r="1580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1580" s="8"/>
-      <c r="B1580" s="8"/>
-      <c r="C1580" s="8"/>
-      <c r="D1580" s="8"/>
-      <c r="E1580" s="8"/>
-      <c r="F1580" s="8"/>
-      <c r="G1580" s="8"/>
-      <c r="H1580" s="8"/>
+      <c r="A1580" s="8" t="n">
+        <v>3036</v>
+      </c>
+      <c r="B1580" s="8" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C1580" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1580" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="E1580" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1580" s="8" t="s">
+        <v>2126</v>
+      </c>
+      <c r="G1580" s="8" t="s">
+        <v>2127</v>
+      </c>
+      <c r="H1580" s="8" t="s">
+        <v>2128</v>
+      </c>
       <c r="I1580" s="4" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J1580" s="8"/>
+        <v>2129</v>
+      </c>
+      <c r="J1580" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="K1580" s="4" t="s">
-        <v>2172</v>
-      </c>
-      <c r="L1580" s="8"/>
-      <c r="M1580" s="8"/>
+        <v>2130</v>
+      </c>
+      <c r="L1580" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1580" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="1581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1581" s="8"/>
@@ -43454,48 +43330,48 @@
       <c r="G1581" s="8"/>
       <c r="H1581" s="8"/>
       <c r="I1581" s="4" t="s">
-        <v>2173</v>
+        <v>2131</v>
       </c>
       <c r="J1581" s="8"/>
       <c r="K1581" s="4" t="s">
-        <v>2174</v>
+        <v>2132</v>
       </c>
       <c r="L1581" s="8"/>
       <c r="M1581" s="8"/>
     </row>
     <row r="1582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1582" s="8" t="n">
-        <v>3045</v>
+        <v>3037</v>
       </c>
       <c r="B1582" s="8" t="s">
-        <v>2175</v>
+        <v>2133</v>
       </c>
       <c r="C1582" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D1582" s="8" t="s">
-        <v>94</v>
+      <c r="D1582" s="9" t="s">
+        <v>830</v>
       </c>
       <c r="E1582" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F1582" s="8" t="s">
-        <v>2176</v>
+        <v>2134</v>
       </c>
       <c r="G1582" s="8" t="s">
-        <v>2177</v>
+        <v>2135</v>
       </c>
       <c r="H1582" s="8" t="s">
-        <v>2178</v>
+        <v>2136</v>
       </c>
       <c r="I1582" s="4" t="s">
-        <v>2165</v>
+        <v>2129</v>
       </c>
       <c r="J1582" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1582" s="4" t="s">
-        <v>2166</v>
+        <v>2130</v>
       </c>
       <c r="L1582" s="8" t="s">
         <v>95</v>
@@ -43514,33 +43390,55 @@
       <c r="G1583" s="8"/>
       <c r="H1583" s="8"/>
       <c r="I1583" s="4" t="s">
-        <v>2167</v>
+        <v>2131</v>
       </c>
       <c r="J1583" s="8"/>
       <c r="K1583" s="4" t="s">
-        <v>2168</v>
+        <v>2132</v>
       </c>
       <c r="L1583" s="8"/>
       <c r="M1583" s="8"/>
     </row>
     <row r="1584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1584" s="8"/>
-      <c r="B1584" s="8"/>
-      <c r="C1584" s="8"/>
-      <c r="D1584" s="8"/>
-      <c r="E1584" s="8"/>
-      <c r="F1584" s="8"/>
-      <c r="G1584" s="8"/>
-      <c r="H1584" s="8"/>
+      <c r="A1584" s="8" t="n">
+        <v>3038</v>
+      </c>
+      <c r="B1584" s="8" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C1584" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1584" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="E1584" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1584" s="8" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G1584" s="8" t="s">
+        <v>2139</v>
+      </c>
+      <c r="H1584" s="8" t="s">
+        <v>2140</v>
+      </c>
       <c r="I1584" s="4" t="s">
-        <v>2169</v>
-      </c>
-      <c r="J1584" s="8"/>
+        <v>2129</v>
+      </c>
+      <c r="J1584" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="K1584" s="4" t="s">
-        <v>2170</v>
-      </c>
-      <c r="L1584" s="8"/>
-      <c r="M1584" s="8"/>
+        <v>2130</v>
+      </c>
+      <c r="L1584" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1584" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="1585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1585" s="8"/>
@@ -43552,93 +43450,115 @@
       <c r="G1585" s="8"/>
       <c r="H1585" s="8"/>
       <c r="I1585" s="4" t="s">
-        <v>2171</v>
+        <v>2131</v>
       </c>
       <c r="J1585" s="8"/>
       <c r="K1585" s="4" t="s">
-        <v>2172</v>
+        <v>2132</v>
       </c>
       <c r="L1585" s="8"/>
       <c r="M1585" s="8"/>
     </row>
     <row r="1586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1586" s="8"/>
-      <c r="B1586" s="8"/>
-      <c r="C1586" s="8"/>
-      <c r="D1586" s="8"/>
-      <c r="E1586" s="8"/>
-      <c r="F1586" s="8"/>
-      <c r="G1586" s="8"/>
-      <c r="H1586" s="8"/>
+      <c r="A1586" s="8" t="n">
+        <v>3039</v>
+      </c>
+      <c r="B1586" s="8" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C1586" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1586" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="E1586" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1586" s="8" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G1586" s="8" t="s">
+        <v>2143</v>
+      </c>
+      <c r="H1586" s="8" t="s">
+        <v>2144</v>
+      </c>
       <c r="I1586" s="4" t="s">
-        <v>2173</v>
-      </c>
-      <c r="J1586" s="8"/>
+        <v>2129</v>
+      </c>
+      <c r="J1586" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="K1586" s="4" t="s">
-        <v>2174</v>
-      </c>
-      <c r="L1586" s="8"/>
-      <c r="M1586" s="8"/>
+        <v>2130</v>
+      </c>
+      <c r="L1586" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1586" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="1587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1587" s="8" t="n">
-        <v>3046</v>
-      </c>
-      <c r="B1587" s="8" t="s">
-        <v>2179</v>
-      </c>
-      <c r="C1587" s="8" t="s">
+      <c r="A1587" s="8"/>
+      <c r="B1587" s="8"/>
+      <c r="C1587" s="8"/>
+      <c r="D1587" s="8"/>
+      <c r="E1587" s="8"/>
+      <c r="F1587" s="8"/>
+      <c r="G1587" s="8"/>
+      <c r="H1587" s="8"/>
+      <c r="I1587" s="4" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J1587" s="8"/>
+      <c r="K1587" s="4" t="s">
+        <v>2132</v>
+      </c>
+      <c r="L1587" s="8"/>
+      <c r="M1587" s="8"/>
+    </row>
+    <row r="1588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1588" s="8" t="n">
+        <v>3040</v>
+      </c>
+      <c r="B1588" s="8" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C1588" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D1587" s="8" t="s">
+      <c r="D1588" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="E1588" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1588" s="8" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G1588" s="8" t="s">
+        <v>2147</v>
+      </c>
+      <c r="H1588" s="8" t="s">
+        <v>2148</v>
+      </c>
+      <c r="I1588" s="4" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J1588" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E1587" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1587" s="8" t="s">
-        <v>2180</v>
-      </c>
-      <c r="G1587" s="8" t="s">
-        <v>2181</v>
-      </c>
-      <c r="H1587" s="8" t="s">
-        <v>2182</v>
-      </c>
-      <c r="I1587" s="4" t="s">
-        <v>2165</v>
-      </c>
-      <c r="J1587" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1587" s="4" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L1587" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1587" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="1588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1588" s="8"/>
-      <c r="B1588" s="8"/>
-      <c r="C1588" s="8"/>
-      <c r="D1588" s="8"/>
-      <c r="E1588" s="8"/>
-      <c r="F1588" s="8"/>
-      <c r="G1588" s="8"/>
-      <c r="H1588" s="8"/>
-      <c r="I1588" s="4" t="s">
-        <v>2167</v>
-      </c>
-      <c r="J1588" s="8"/>
       <c r="K1588" s="4" t="s">
-        <v>2168</v>
-      </c>
-      <c r="L1588" s="8"/>
-      <c r="M1588" s="8"/>
+        <v>2130</v>
+      </c>
+      <c r="L1588" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1588" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="1589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1589" s="8"/>
@@ -43650,33 +43570,55 @@
       <c r="G1589" s="8"/>
       <c r="H1589" s="8"/>
       <c r="I1589" s="4" t="s">
-        <v>2169</v>
+        <v>2131</v>
       </c>
       <c r="J1589" s="8"/>
       <c r="K1589" s="4" t="s">
-        <v>2170</v>
+        <v>2132</v>
       </c>
       <c r="L1589" s="8"/>
       <c r="M1589" s="8"/>
     </row>
     <row r="1590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1590" s="8"/>
-      <c r="B1590" s="8"/>
-      <c r="C1590" s="8"/>
-      <c r="D1590" s="8"/>
-      <c r="E1590" s="8"/>
-      <c r="F1590" s="8"/>
-      <c r="G1590" s="8"/>
-      <c r="H1590" s="8"/>
+      <c r="A1590" s="8" t="n">
+        <v>3041</v>
+      </c>
+      <c r="B1590" s="8" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C1590" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1590" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="E1590" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1590" s="8" t="s">
+        <v>2150</v>
+      </c>
+      <c r="G1590" s="8" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H1590" s="8" t="s">
+        <v>2152</v>
+      </c>
       <c r="I1590" s="4" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J1590" s="8"/>
+        <v>2129</v>
+      </c>
+      <c r="J1590" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="K1590" s="4" t="s">
-        <v>2172</v>
-      </c>
-      <c r="L1590" s="8"/>
-      <c r="M1590" s="8"/>
+        <v>2130</v>
+      </c>
+      <c r="L1590" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1590" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="1591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1591" s="8"/>
@@ -43688,130 +43630,108 @@
       <c r="G1591" s="8"/>
       <c r="H1591" s="8"/>
       <c r="I1591" s="4" t="s">
-        <v>2173</v>
+        <v>2131</v>
       </c>
       <c r="J1591" s="8"/>
       <c r="K1591" s="4" t="s">
-        <v>2174</v>
+        <v>2132</v>
       </c>
       <c r="L1591" s="8"/>
       <c r="M1591" s="8"/>
     </row>
     <row r="1592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1592" s="4" t="n">
-        <v>3047</v>
-      </c>
-      <c r="B1592" s="4" t="s">
-        <v>2183</v>
-      </c>
-      <c r="C1592" s="4" t="s">
+      <c r="A1592" s="8" t="n">
+        <v>3042</v>
+      </c>
+      <c r="B1592" s="8" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C1592" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D1592" s="4" t="s">
+      <c r="D1592" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="E1592" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1592" s="8" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G1592" s="8" t="s">
+        <v>2155</v>
+      </c>
+      <c r="H1592" s="8" t="s">
+        <v>2156</v>
+      </c>
+      <c r="I1592" s="4" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J1592" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E1592" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1592" s="4" t="s">
-        <v>2184</v>
-      </c>
-      <c r="G1592" s="4" t="s">
-        <v>2185</v>
-      </c>
-      <c r="H1592" s="4" t="s">
-        <v>2186</v>
-      </c>
-      <c r="I1592" s="7" t="s">
-        <v>1976</v>
-      </c>
-      <c r="J1592" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="K1592" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1592" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1592" s="4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="L1592" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1592" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="1593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1593" s="4" t="n">
-        <v>3048</v>
-      </c>
-      <c r="B1593" s="4" t="s">
-        <v>2187</v>
-      </c>
-      <c r="C1593" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1593" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1593" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1593" s="4" t="s">
-        <v>2188</v>
-      </c>
-      <c r="G1593" s="4" t="s">
-        <v>2189</v>
-      </c>
-      <c r="H1593" s="4" t="s">
-        <v>2190</v>
-      </c>
-      <c r="I1593" s="7" t="s">
-        <v>1976</v>
-      </c>
-      <c r="J1593" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="A1593" s="8"/>
+      <c r="B1593" s="8"/>
+      <c r="C1593" s="8"/>
+      <c r="D1593" s="8"/>
+      <c r="E1593" s="8"/>
+      <c r="F1593" s="8"/>
+      <c r="G1593" s="8"/>
+      <c r="H1593" s="8"/>
+      <c r="I1593" s="4" t="s">
+        <v>2131</v>
+      </c>
+      <c r="J1593" s="8"/>
       <c r="K1593" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1593" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1593" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>2132</v>
+      </c>
+      <c r="L1593" s="8"/>
+      <c r="M1593" s="8"/>
     </row>
     <row r="1594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1594" s="8" t="n">
-        <v>3049</v>
+        <v>3043</v>
       </c>
       <c r="B1594" s="8" t="s">
-        <v>2191</v>
+        <v>2157</v>
       </c>
       <c r="C1594" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D1594" s="8" t="s">
-        <v>94</v>
+      <c r="D1594" s="9" t="s">
+        <v>900</v>
       </c>
       <c r="E1594" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F1594" s="8" t="s">
-        <v>2192</v>
+        <v>2158</v>
       </c>
       <c r="G1594" s="8" t="s">
-        <v>2193</v>
+        <v>2159</v>
       </c>
       <c r="H1594" s="8" t="s">
-        <v>2194</v>
+        <v>2160</v>
       </c>
       <c r="I1594" s="4" t="s">
-        <v>2165</v>
+        <v>2129</v>
       </c>
       <c r="J1594" s="8" t="s">
         <v>94</v>
       </c>
       <c r="K1594" s="4" t="s">
-        <v>2166</v>
+        <v>2130</v>
       </c>
       <c r="L1594" s="8" t="s">
         <v>95</v>
@@ -43830,33 +43750,55 @@
       <c r="G1595" s="8"/>
       <c r="H1595" s="8"/>
       <c r="I1595" s="4" t="s">
-        <v>2167</v>
+        <v>2131</v>
       </c>
       <c r="J1595" s="8"/>
       <c r="K1595" s="4" t="s">
-        <v>2168</v>
+        <v>2132</v>
       </c>
       <c r="L1595" s="8"/>
       <c r="M1595" s="8"/>
     </row>
     <row r="1596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1596" s="8"/>
-      <c r="B1596" s="8"/>
-      <c r="C1596" s="8"/>
-      <c r="D1596" s="8"/>
-      <c r="E1596" s="8"/>
-      <c r="F1596" s="8"/>
-      <c r="G1596" s="8"/>
-      <c r="H1596" s="8"/>
+      <c r="A1596" s="8" t="n">
+        <v>3044</v>
+      </c>
+      <c r="B1596" s="8" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C1596" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1596" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="E1596" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1596" s="8" t="s">
+        <v>2162</v>
+      </c>
+      <c r="G1596" s="8" t="s">
+        <v>2163</v>
+      </c>
+      <c r="H1596" s="8" t="s">
+        <v>2164</v>
+      </c>
       <c r="I1596" s="4" t="s">
-        <v>2169</v>
-      </c>
-      <c r="J1596" s="8"/>
+        <v>2129</v>
+      </c>
+      <c r="J1596" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="K1596" s="4" t="s">
-        <v>2170</v>
-      </c>
-      <c r="L1596" s="8"/>
-      <c r="M1596" s="8"/>
+        <v>2130</v>
+      </c>
+      <c r="L1596" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1596" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="1597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1597" s="8"/>
@@ -43868,112 +43810,178 @@
       <c r="G1597" s="8"/>
       <c r="H1597" s="8"/>
       <c r="I1597" s="4" t="s">
-        <v>2171</v>
+        <v>2131</v>
       </c>
       <c r="J1597" s="8"/>
       <c r="K1597" s="4" t="s">
-        <v>2172</v>
+        <v>2132</v>
       </c>
       <c r="L1597" s="8"/>
       <c r="M1597" s="8"/>
     </row>
     <row r="1598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1598" s="8"/>
-      <c r="B1598" s="8"/>
-      <c r="C1598" s="8"/>
-      <c r="D1598" s="8"/>
-      <c r="E1598" s="8"/>
-      <c r="F1598" s="8"/>
-      <c r="G1598" s="8"/>
-      <c r="H1598" s="8"/>
-      <c r="I1598" s="4" t="s">
+      <c r="A1598" s="4" t="n">
+        <v>3045</v>
+      </c>
+      <c r="B1598" s="4" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C1598" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1598" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1598" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1598" s="4" t="s">
+        <v>2166</v>
+      </c>
+      <c r="G1598" s="4" t="s">
+        <v>2167</v>
+      </c>
+      <c r="H1598" s="4" t="s">
+        <v>2168</v>
+      </c>
+      <c r="I1598" s="7" t="s">
+        <v>1976</v>
+      </c>
+      <c r="J1598" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1598" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1598" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1598" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1599" s="4" t="n">
+        <v>3046</v>
+      </c>
+      <c r="B1599" s="4" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C1599" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1599" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1599" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1599" s="4" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G1599" s="4" t="s">
+        <v>2171</v>
+      </c>
+      <c r="H1599" s="4" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I1599" s="7" t="s">
+        <v>1976</v>
+      </c>
+      <c r="J1599" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1599" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1599" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1599" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1600" s="4" t="n">
+        <v>3047</v>
+      </c>
+      <c r="B1600" s="4" t="s">
         <v>2173</v>
       </c>
-      <c r="J1598" s="8"/>
-      <c r="K1598" s="4" t="s">
+      <c r="C1600" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1600" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1600" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1600" s="4" t="s">
         <v>2174</v>
       </c>
-      <c r="L1598" s="8"/>
-      <c r="M1598" s="8"/>
-    </row>
-    <row r="1599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1599" s="8" t="n">
-        <v>3050</v>
-      </c>
-      <c r="B1599" s="8" t="s">
-        <v>2195</v>
-      </c>
-      <c r="C1599" s="8" t="s">
+      <c r="G1600" s="4" t="s">
+        <v>2175</v>
+      </c>
+      <c r="H1600" s="4" t="s">
+        <v>2176</v>
+      </c>
+      <c r="I1600" s="7" t="s">
+        <v>1976</v>
+      </c>
+      <c r="J1600" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1600" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1600" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1600" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1601" s="8" t="n">
+        <v>3048</v>
+      </c>
+      <c r="B1601" s="8" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C1601" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D1599" s="8" t="s">
+      <c r="D1601" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E1599" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1599" s="8" t="s">
-        <v>2196</v>
-      </c>
-      <c r="G1599" s="8" t="s">
-        <v>2197</v>
-      </c>
-      <c r="H1599" s="8" t="s">
-        <v>2198</v>
-      </c>
-      <c r="I1599" s="4" t="s">
-        <v>2165</v>
-      </c>
-      <c r="J1599" s="8" t="s">
+      <c r="E1601" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1601" s="8" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G1601" s="8" t="s">
+        <v>2179</v>
+      </c>
+      <c r="H1601" s="8" t="s">
+        <v>2180</v>
+      </c>
+      <c r="I1601" s="4" t="s">
+        <v>2181</v>
+      </c>
+      <c r="J1601" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K1599" s="4" t="s">
-        <v>2166</v>
-      </c>
-      <c r="L1599" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1599" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="1600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1600" s="8"/>
-      <c r="B1600" s="8"/>
-      <c r="C1600" s="8"/>
-      <c r="D1600" s="8"/>
-      <c r="E1600" s="8"/>
-      <c r="F1600" s="8"/>
-      <c r="G1600" s="8"/>
-      <c r="H1600" s="8"/>
-      <c r="I1600" s="4" t="s">
-        <v>2167</v>
-      </c>
-      <c r="J1600" s="8"/>
-      <c r="K1600" s="4" t="s">
-        <v>2168</v>
-      </c>
-      <c r="L1600" s="8"/>
-      <c r="M1600" s="8"/>
-    </row>
-    <row r="1601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1601" s="8"/>
-      <c r="B1601" s="8"/>
-      <c r="C1601" s="8"/>
-      <c r="D1601" s="8"/>
-      <c r="E1601" s="8"/>
-      <c r="F1601" s="8"/>
-      <c r="G1601" s="8"/>
-      <c r="H1601" s="8"/>
-      <c r="I1601" s="4" t="s">
-        <v>2169</v>
-      </c>
-      <c r="J1601" s="8"/>
       <c r="K1601" s="4" t="s">
-        <v>2170</v>
-      </c>
-      <c r="L1601" s="8"/>
-      <c r="M1601" s="8"/>
+        <v>2182</v>
+      </c>
+      <c r="L1601" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1601" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="1602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1602" s="8"/>
@@ -43985,11 +43993,11 @@
       <c r="G1602" s="8"/>
       <c r="H1602" s="8"/>
       <c r="I1602" s="4" t="s">
-        <v>2171</v>
+        <v>2183</v>
       </c>
       <c r="J1602" s="8"/>
       <c r="K1602" s="4" t="s">
-        <v>2172</v>
+        <v>2184</v>
       </c>
       <c r="L1602" s="8"/>
       <c r="M1602" s="8"/>
@@ -44004,55 +44012,33 @@
       <c r="G1603" s="8"/>
       <c r="H1603" s="8"/>
       <c r="I1603" s="4" t="s">
-        <v>2173</v>
+        <v>2185</v>
       </c>
       <c r="J1603" s="8"/>
       <c r="K1603" s="4" t="s">
-        <v>2174</v>
+        <v>2186</v>
       </c>
       <c r="L1603" s="8"/>
       <c r="M1603" s="8"/>
     </row>
     <row r="1604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1604" s="8" t="n">
-        <v>3051</v>
-      </c>
-      <c r="B1604" s="8" t="s">
-        <v>2199</v>
-      </c>
-      <c r="C1604" s="8" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D1604" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1604" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1604" s="8" t="s">
-        <v>2200</v>
-      </c>
-      <c r="G1604" s="8" t="s">
-        <v>2200</v>
-      </c>
-      <c r="H1604" s="8" t="s">
-        <v>2201</v>
-      </c>
+      <c r="A1604" s="8"/>
+      <c r="B1604" s="8"/>
+      <c r="C1604" s="8"/>
+      <c r="D1604" s="8"/>
+      <c r="E1604" s="8"/>
+      <c r="F1604" s="8"/>
+      <c r="G1604" s="8"/>
+      <c r="H1604" s="8"/>
       <c r="I1604" s="4" t="s">
-        <v>2202</v>
-      </c>
-      <c r="J1604" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>2187</v>
+      </c>
+      <c r="J1604" s="8"/>
       <c r="K1604" s="4" t="s">
-        <v>2203</v>
-      </c>
-      <c r="L1604" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1604" s="8" t="s">
-        <v>95</v>
-      </c>
+        <v>2188</v>
+      </c>
+      <c r="L1604" s="8"/>
+      <c r="M1604" s="8"/>
     </row>
     <row r="1605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1605" s="8"/>
@@ -44064,202 +44050,716 @@
       <c r="G1605" s="8"/>
       <c r="H1605" s="8"/>
       <c r="I1605" s="4" t="s">
-        <v>2204</v>
+        <v>2189</v>
       </c>
       <c r="J1605" s="8"/>
       <c r="K1605" s="4" t="s">
-        <v>2205</v>
+        <v>2190</v>
       </c>
       <c r="L1605" s="8"/>
       <c r="M1605" s="8"/>
     </row>
     <row r="1606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1606" s="4" t="n">
+      <c r="A1606" s="8" t="n">
+        <v>3049</v>
+      </c>
+      <c r="B1606" s="8" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C1606" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1606" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1606" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1606" s="8" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G1606" s="8" t="s">
+        <v>2193</v>
+      </c>
+      <c r="H1606" s="8" t="s">
+        <v>2194</v>
+      </c>
+      <c r="I1606" s="4" t="s">
+        <v>2181</v>
+      </c>
+      <c r="J1606" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1606" s="4" t="s">
+        <v>2182</v>
+      </c>
+      <c r="L1606" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1606" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1607" s="8"/>
+      <c r="B1607" s="8"/>
+      <c r="C1607" s="8"/>
+      <c r="D1607" s="8"/>
+      <c r="E1607" s="8"/>
+      <c r="F1607" s="8"/>
+      <c r="G1607" s="8"/>
+      <c r="H1607" s="8"/>
+      <c r="I1607" s="4" t="s">
+        <v>2183</v>
+      </c>
+      <c r="J1607" s="8"/>
+      <c r="K1607" s="4" t="s">
+        <v>2184</v>
+      </c>
+      <c r="L1607" s="8"/>
+      <c r="M1607" s="8"/>
+    </row>
+    <row r="1608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1608" s="8"/>
+      <c r="B1608" s="8"/>
+      <c r="C1608" s="8"/>
+      <c r="D1608" s="8"/>
+      <c r="E1608" s="8"/>
+      <c r="F1608" s="8"/>
+      <c r="G1608" s="8"/>
+      <c r="H1608" s="8"/>
+      <c r="I1608" s="4" t="s">
+        <v>2185</v>
+      </c>
+      <c r="J1608" s="8"/>
+      <c r="K1608" s="4" t="s">
+        <v>2186</v>
+      </c>
+      <c r="L1608" s="8"/>
+      <c r="M1608" s="8"/>
+    </row>
+    <row r="1609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1609" s="8"/>
+      <c r="B1609" s="8"/>
+      <c r="C1609" s="8"/>
+      <c r="D1609" s="8"/>
+      <c r="E1609" s="8"/>
+      <c r="F1609" s="8"/>
+      <c r="G1609" s="8"/>
+      <c r="H1609" s="8"/>
+      <c r="I1609" s="4" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J1609" s="8"/>
+      <c r="K1609" s="4" t="s">
+        <v>2188</v>
+      </c>
+      <c r="L1609" s="8"/>
+      <c r="M1609" s="8"/>
+    </row>
+    <row r="1610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1610" s="8"/>
+      <c r="B1610" s="8"/>
+      <c r="C1610" s="8"/>
+      <c r="D1610" s="8"/>
+      <c r="E1610" s="8"/>
+      <c r="F1610" s="8"/>
+      <c r="G1610" s="8"/>
+      <c r="H1610" s="8"/>
+      <c r="I1610" s="4" t="s">
+        <v>2189</v>
+      </c>
+      <c r="J1610" s="8"/>
+      <c r="K1610" s="4" t="s">
+        <v>2190</v>
+      </c>
+      <c r="L1610" s="8"/>
+      <c r="M1610" s="8"/>
+    </row>
+    <row r="1611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1611" s="8" t="n">
+        <v>3050</v>
+      </c>
+      <c r="B1611" s="8" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C1611" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1611" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1611" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1611" s="8" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G1611" s="8" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H1611" s="8" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I1611" s="4" t="s">
+        <v>2181</v>
+      </c>
+      <c r="J1611" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1611" s="4" t="s">
+        <v>2182</v>
+      </c>
+      <c r="L1611" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1611" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1612" s="8"/>
+      <c r="B1612" s="8"/>
+      <c r="C1612" s="8"/>
+      <c r="D1612" s="8"/>
+      <c r="E1612" s="8"/>
+      <c r="F1612" s="8"/>
+      <c r="G1612" s="8"/>
+      <c r="H1612" s="8"/>
+      <c r="I1612" s="4" t="s">
+        <v>2183</v>
+      </c>
+      <c r="J1612" s="8"/>
+      <c r="K1612" s="4" t="s">
+        <v>2184</v>
+      </c>
+      <c r="L1612" s="8"/>
+      <c r="M1612" s="8"/>
+    </row>
+    <row r="1613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1613" s="8"/>
+      <c r="B1613" s="8"/>
+      <c r="C1613" s="8"/>
+      <c r="D1613" s="8"/>
+      <c r="E1613" s="8"/>
+      <c r="F1613" s="8"/>
+      <c r="G1613" s="8"/>
+      <c r="H1613" s="8"/>
+      <c r="I1613" s="4" t="s">
+        <v>2185</v>
+      </c>
+      <c r="J1613" s="8"/>
+      <c r="K1613" s="4" t="s">
+        <v>2186</v>
+      </c>
+      <c r="L1613" s="8"/>
+      <c r="M1613" s="8"/>
+    </row>
+    <row r="1614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1614" s="8"/>
+      <c r="B1614" s="8"/>
+      <c r="C1614" s="8"/>
+      <c r="D1614" s="8"/>
+      <c r="E1614" s="8"/>
+      <c r="F1614" s="8"/>
+      <c r="G1614" s="8"/>
+      <c r="H1614" s="8"/>
+      <c r="I1614" s="4" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J1614" s="8"/>
+      <c r="K1614" s="4" t="s">
+        <v>2188</v>
+      </c>
+      <c r="L1614" s="8"/>
+      <c r="M1614" s="8"/>
+    </row>
+    <row r="1615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1615" s="8"/>
+      <c r="B1615" s="8"/>
+      <c r="C1615" s="8"/>
+      <c r="D1615" s="8"/>
+      <c r="E1615" s="8"/>
+      <c r="F1615" s="8"/>
+      <c r="G1615" s="8"/>
+      <c r="H1615" s="8"/>
+      <c r="I1615" s="4" t="s">
+        <v>2189</v>
+      </c>
+      <c r="J1615" s="8"/>
+      <c r="K1615" s="4" t="s">
+        <v>2190</v>
+      </c>
+      <c r="L1615" s="8"/>
+      <c r="M1615" s="8"/>
+    </row>
+    <row r="1616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1616" s="4" t="n">
+        <v>3051</v>
+      </c>
+      <c r="B1616" s="4" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C1616" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1616" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1616" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1616" s="4" t="s">
+        <v>2200</v>
+      </c>
+      <c r="G1616" s="4" t="s">
+        <v>2201</v>
+      </c>
+      <c r="H1616" s="4" t="s">
+        <v>2202</v>
+      </c>
+      <c r="I1616" s="7" t="s">
+        <v>1976</v>
+      </c>
+      <c r="J1616" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1616" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1616" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1616" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1617" s="4" t="n">
         <v>3052</v>
       </c>
-      <c r="B1606" s="4" t="s">
+      <c r="B1617" s="4" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C1617" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1617" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1617" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1617" s="4" t="s">
+        <v>2204</v>
+      </c>
+      <c r="G1617" s="4" t="s">
+        <v>2205</v>
+      </c>
+      <c r="H1617" s="4" t="s">
         <v>2206</v>
       </c>
-      <c r="C1606" s="4" t="s">
+      <c r="I1617" s="7" t="s">
+        <v>1976</v>
+      </c>
+      <c r="J1617" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1617" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1617" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1617" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1618" s="8" t="n">
+        <v>3053</v>
+      </c>
+      <c r="B1618" s="8" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C1618" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1618" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1618" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1618" s="8" t="s">
+        <v>2208</v>
+      </c>
+      <c r="G1618" s="8" t="s">
+        <v>2209</v>
+      </c>
+      <c r="H1618" s="8" t="s">
+        <v>2210</v>
+      </c>
+      <c r="I1618" s="4" t="s">
+        <v>2181</v>
+      </c>
+      <c r="J1618" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1618" s="4" t="s">
+        <v>2182</v>
+      </c>
+      <c r="L1618" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1618" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1619" s="8"/>
+      <c r="B1619" s="8"/>
+      <c r="C1619" s="8"/>
+      <c r="D1619" s="8"/>
+      <c r="E1619" s="8"/>
+      <c r="F1619" s="8"/>
+      <c r="G1619" s="8"/>
+      <c r="H1619" s="8"/>
+      <c r="I1619" s="4" t="s">
+        <v>2183</v>
+      </c>
+      <c r="J1619" s="8"/>
+      <c r="K1619" s="4" t="s">
+        <v>2184</v>
+      </c>
+      <c r="L1619" s="8"/>
+      <c r="M1619" s="8"/>
+    </row>
+    <row r="1620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1620" s="8"/>
+      <c r="B1620" s="8"/>
+      <c r="C1620" s="8"/>
+      <c r="D1620" s="8"/>
+      <c r="E1620" s="8"/>
+      <c r="F1620" s="8"/>
+      <c r="G1620" s="8"/>
+      <c r="H1620" s="8"/>
+      <c r="I1620" s="4" t="s">
+        <v>2185</v>
+      </c>
+      <c r="J1620" s="8"/>
+      <c r="K1620" s="4" t="s">
+        <v>2186</v>
+      </c>
+      <c r="L1620" s="8"/>
+      <c r="M1620" s="8"/>
+    </row>
+    <row r="1621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1621" s="8"/>
+      <c r="B1621" s="8"/>
+      <c r="C1621" s="8"/>
+      <c r="D1621" s="8"/>
+      <c r="E1621" s="8"/>
+      <c r="F1621" s="8"/>
+      <c r="G1621" s="8"/>
+      <c r="H1621" s="8"/>
+      <c r="I1621" s="4" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J1621" s="8"/>
+      <c r="K1621" s="4" t="s">
+        <v>2188</v>
+      </c>
+      <c r="L1621" s="8"/>
+      <c r="M1621" s="8"/>
+    </row>
+    <row r="1622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1622" s="8"/>
+      <c r="B1622" s="8"/>
+      <c r="C1622" s="8"/>
+      <c r="D1622" s="8"/>
+      <c r="E1622" s="8"/>
+      <c r="F1622" s="8"/>
+      <c r="G1622" s="8"/>
+      <c r="H1622" s="8"/>
+      <c r="I1622" s="4" t="s">
+        <v>2189</v>
+      </c>
+      <c r="J1622" s="8"/>
+      <c r="K1622" s="4" t="s">
+        <v>2190</v>
+      </c>
+      <c r="L1622" s="8"/>
+      <c r="M1622" s="8"/>
+    </row>
+    <row r="1623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1623" s="8" t="n">
+        <v>3054</v>
+      </c>
+      <c r="B1623" s="8" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C1623" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1623" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1623" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1623" s="8" t="s">
+        <v>2212</v>
+      </c>
+      <c r="G1623" s="8" t="s">
+        <v>2213</v>
+      </c>
+      <c r="H1623" s="8" t="s">
+        <v>2214</v>
+      </c>
+      <c r="I1623" s="4" t="s">
+        <v>2181</v>
+      </c>
+      <c r="J1623" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1623" s="4" t="s">
+        <v>2182</v>
+      </c>
+      <c r="L1623" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1623" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1624" s="8"/>
+      <c r="B1624" s="8"/>
+      <c r="C1624" s="8"/>
+      <c r="D1624" s="8"/>
+      <c r="E1624" s="8"/>
+      <c r="F1624" s="8"/>
+      <c r="G1624" s="8"/>
+      <c r="H1624" s="8"/>
+      <c r="I1624" s="4" t="s">
+        <v>2183</v>
+      </c>
+      <c r="J1624" s="8"/>
+      <c r="K1624" s="4" t="s">
+        <v>2184</v>
+      </c>
+      <c r="L1624" s="8"/>
+      <c r="M1624" s="8"/>
+    </row>
+    <row r="1625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1625" s="8"/>
+      <c r="B1625" s="8"/>
+      <c r="C1625" s="8"/>
+      <c r="D1625" s="8"/>
+      <c r="E1625" s="8"/>
+      <c r="F1625" s="8"/>
+      <c r="G1625" s="8"/>
+      <c r="H1625" s="8"/>
+      <c r="I1625" s="4" t="s">
+        <v>2185</v>
+      </c>
+      <c r="J1625" s="8"/>
+      <c r="K1625" s="4" t="s">
+        <v>2186</v>
+      </c>
+      <c r="L1625" s="8"/>
+      <c r="M1625" s="8"/>
+    </row>
+    <row r="1626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1626" s="8"/>
+      <c r="B1626" s="8"/>
+      <c r="C1626" s="8"/>
+      <c r="D1626" s="8"/>
+      <c r="E1626" s="8"/>
+      <c r="F1626" s="8"/>
+      <c r="G1626" s="8"/>
+      <c r="H1626" s="8"/>
+      <c r="I1626" s="4" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J1626" s="8"/>
+      <c r="K1626" s="4" t="s">
+        <v>2188</v>
+      </c>
+      <c r="L1626" s="8"/>
+      <c r="M1626" s="8"/>
+    </row>
+    <row r="1627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1627" s="8"/>
+      <c r="B1627" s="8"/>
+      <c r="C1627" s="8"/>
+      <c r="D1627" s="8"/>
+      <c r="E1627" s="8"/>
+      <c r="F1627" s="8"/>
+      <c r="G1627" s="8"/>
+      <c r="H1627" s="8"/>
+      <c r="I1627" s="4" t="s">
+        <v>2189</v>
+      </c>
+      <c r="J1627" s="8"/>
+      <c r="K1627" s="4" t="s">
+        <v>2190</v>
+      </c>
+      <c r="L1627" s="8"/>
+      <c r="M1627" s="8"/>
+    </row>
+    <row r="1628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1628" s="8" t="n">
+        <v>3055</v>
+      </c>
+      <c r="B1628" s="8" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C1628" s="8" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D1628" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1628" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1628" s="8" t="s">
+        <v>2216</v>
+      </c>
+      <c r="G1628" s="8" t="s">
+        <v>2216</v>
+      </c>
+      <c r="H1628" s="8" t="s">
+        <v>2217</v>
+      </c>
+      <c r="I1628" s="4" t="s">
+        <v>2218</v>
+      </c>
+      <c r="J1628" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1628" s="4" t="s">
+        <v>2219</v>
+      </c>
+      <c r="L1628" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1628" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1629" s="8"/>
+      <c r="B1629" s="8"/>
+      <c r="C1629" s="8"/>
+      <c r="D1629" s="8"/>
+      <c r="E1629" s="8"/>
+      <c r="F1629" s="8"/>
+      <c r="G1629" s="8"/>
+      <c r="H1629" s="8"/>
+      <c r="I1629" s="4" t="s">
+        <v>2220</v>
+      </c>
+      <c r="J1629" s="8"/>
+      <c r="K1629" s="4" t="s">
+        <v>2221</v>
+      </c>
+      <c r="L1629" s="8"/>
+      <c r="M1629" s="8"/>
+    </row>
+    <row r="1630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1630" s="4" t="n">
+        <v>3056</v>
+      </c>
+      <c r="B1630" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C1630" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D1606" s="4" t="s">
+      <c r="D1630" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E1606" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1606" s="4" t="s">
-        <v>2207</v>
-      </c>
-      <c r="G1606" s="4" t="s">
-        <v>2208</v>
-      </c>
-      <c r="H1606" s="4" t="s">
-        <v>2209</v>
-      </c>
-      <c r="I1606" s="7" t="s">
+      <c r="E1630" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1630" s="4" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G1630" s="4" t="s">
+        <v>2224</v>
+      </c>
+      <c r="H1630" s="4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I1630" s="7" t="s">
         <v>1976</v>
       </c>
-      <c r="J1606" s="4" t="s">
+      <c r="J1630" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K1606" s="4" t="s">
+      <c r="K1630" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L1606" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1606" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="1607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1607" s="4" t="n">
-        <v>3053</v>
-      </c>
-      <c r="B1607" s="4" t="s">
-        <v>2210</v>
-      </c>
-      <c r="C1607" s="4" t="s">
+      <c r="L1630" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1630" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1631" s="4" t="n">
+        <v>3057</v>
+      </c>
+      <c r="B1631" s="4" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C1631" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D1607" s="4" t="s">
+      <c r="D1631" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E1607" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1607" s="4" t="s">
-        <v>2211</v>
-      </c>
-      <c r="G1607" s="4" t="s">
-        <v>2212</v>
-      </c>
-      <c r="H1607" s="4" t="s">
-        <v>2213</v>
-      </c>
-      <c r="I1607" s="7" t="s">
+      <c r="E1631" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1631" s="4" t="s">
+        <v>2227</v>
+      </c>
+      <c r="G1631" s="4" t="s">
+        <v>2228</v>
+      </c>
+      <c r="H1631" s="4" t="s">
+        <v>2229</v>
+      </c>
+      <c r="I1631" s="7" t="s">
         <v>1976</v>
       </c>
-      <c r="J1607" s="4" t="s">
+      <c r="J1631" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K1607" s="4" t="s">
+      <c r="K1631" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L1607" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1607" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="1608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1608" s="4"/>
-    </row>
-    <row r="1609" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1609" s="1"/>
-    </row>
-    <row r="1610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1610" s="4" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="1611" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1611" s="1"/>
-    </row>
-    <row r="1612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1612" s="4" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="1613" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1613" s="1"/>
-    </row>
-    <row r="1614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1614" s="4" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="1615" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1615" s="1"/>
-    </row>
-    <row r="1616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1616" s="4" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="1617" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1617" s="1"/>
-    </row>
-    <row r="1618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1618" s="4" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="1619" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1619" s="1"/>
-    </row>
-    <row r="1620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1620" s="4" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="1621" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1621" s="1"/>
-    </row>
-    <row r="1622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1622" s="4" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="1623" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1623" s="1"/>
-    </row>
-    <row r="1624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1624" s="4" t="s">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="1625" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1625" s="1"/>
-    </row>
-    <row r="1626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1626" s="4" t="s">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="1627" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1627" s="1"/>
-    </row>
-    <row r="1628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1628" s="4" t="s">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="1629" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1629" s="1"/>
-    </row>
-    <row r="1630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1630" s="4" t="s">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="1631" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1631" s="1"/>
+      <c r="L1631" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1631" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="1632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1632" s="4" t="s">
-        <v>2215</v>
-      </c>
+      <c r="A1632" s="4"/>
     </row>
     <row r="1633" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1633" s="1"/>
     </row>
     <row r="1634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1634" s="4" t="s">
-        <v>2216</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1635" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44267,7 +44767,7 @@
     </row>
     <row r="1636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1636" s="4" t="s">
-        <v>2217</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1637" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44275,7 +44775,7 @@
     </row>
     <row r="1638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1638" s="4" t="s">
-        <v>2215</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1639" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44283,7 +44783,7 @@
     </row>
     <row r="1640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1640" s="4" t="s">
-        <v>2218</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1641" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44291,7 +44791,7 @@
     </row>
     <row r="1642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1642" s="4" t="s">
-        <v>2218</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1643" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44299,7 +44799,7 @@
     </row>
     <row r="1644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1644" s="4" t="s">
-        <v>2218</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1645" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44307,7 +44807,7 @@
     </row>
     <row r="1646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1646" s="4" t="s">
-        <v>2218</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1647" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44315,11 +44815,107 @@
     </row>
     <row r="1648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1648" s="4" t="s">
-        <v>2218</v>
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1649" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1649" s="1"/>
+    </row>
+    <row r="1650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1650" s="4" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1651" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1651" s="1"/>
+    </row>
+    <row r="1652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1652" s="4" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1653" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1653" s="1"/>
+    </row>
+    <row r="1654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1654" s="4" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1655" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1655" s="1"/>
+    </row>
+    <row r="1656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1656" s="4" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1657" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1657" s="1"/>
+    </row>
+    <row r="1658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1658" s="4" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="1659" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1659" s="1"/>
+    </row>
+    <row r="1660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1660" s="4" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="1661" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1661" s="1"/>
+    </row>
+    <row r="1662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1662" s="4" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="1663" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1663" s="1"/>
+    </row>
+    <row r="1664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1664" s="4" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="1665" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1665" s="1"/>
+    </row>
+    <row r="1666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1666" s="4" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="1667" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1667" s="1"/>
+    </row>
+    <row r="1668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1668" s="4" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="1669" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1669" s="1"/>
+    </row>
+    <row r="1670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1670" s="4" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="1671" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1671" s="1"/>
+    </row>
+    <row r="1672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1672" s="4" t="s">
+        <v>2234</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2706">
+  <mergeCells count="2748">
     <mergeCell ref="A169:A171"/>
     <mergeCell ref="B169:B171"/>
     <mergeCell ref="C169:C171"/>
@@ -46817,215 +47413,257 @@
     <mergeCell ref="J1538:J1543"/>
     <mergeCell ref="L1538:L1543"/>
     <mergeCell ref="M1538:M1543"/>
-    <mergeCell ref="A1544:A1546"/>
-    <mergeCell ref="B1544:B1546"/>
-    <mergeCell ref="C1544:C1546"/>
-    <mergeCell ref="D1544:D1546"/>
-    <mergeCell ref="E1544:E1546"/>
-    <mergeCell ref="F1544:F1546"/>
-    <mergeCell ref="G1544:G1546"/>
-    <mergeCell ref="H1544:H1546"/>
-    <mergeCell ref="J1544:J1546"/>
-    <mergeCell ref="L1544:L1546"/>
-    <mergeCell ref="M1544:M1546"/>
-    <mergeCell ref="A1547:A1549"/>
-    <mergeCell ref="B1547:B1549"/>
-    <mergeCell ref="C1547:C1549"/>
-    <mergeCell ref="D1547:D1549"/>
-    <mergeCell ref="E1547:E1549"/>
-    <mergeCell ref="F1547:F1549"/>
-    <mergeCell ref="G1547:G1549"/>
-    <mergeCell ref="H1547:H1549"/>
-    <mergeCell ref="J1547:J1549"/>
-    <mergeCell ref="L1547:L1549"/>
-    <mergeCell ref="M1547:M1549"/>
-    <mergeCell ref="A1550:A1552"/>
-    <mergeCell ref="B1550:B1552"/>
-    <mergeCell ref="C1550:C1552"/>
-    <mergeCell ref="D1550:D1552"/>
-    <mergeCell ref="E1550:E1552"/>
-    <mergeCell ref="F1550:F1552"/>
-    <mergeCell ref="G1550:G1552"/>
-    <mergeCell ref="H1550:H1552"/>
-    <mergeCell ref="J1550:J1552"/>
-    <mergeCell ref="L1550:L1552"/>
-    <mergeCell ref="M1550:M1552"/>
-    <mergeCell ref="A1553:A1555"/>
-    <mergeCell ref="B1553:B1555"/>
-    <mergeCell ref="C1553:C1555"/>
-    <mergeCell ref="D1553:D1555"/>
-    <mergeCell ref="E1553:E1555"/>
-    <mergeCell ref="F1553:F1555"/>
-    <mergeCell ref="G1553:G1555"/>
-    <mergeCell ref="H1553:H1555"/>
-    <mergeCell ref="J1553:J1555"/>
-    <mergeCell ref="L1553:L1555"/>
-    <mergeCell ref="M1553:M1555"/>
-    <mergeCell ref="A1556:A1557"/>
-    <mergeCell ref="B1556:B1557"/>
-    <mergeCell ref="C1556:C1557"/>
-    <mergeCell ref="D1556:D1557"/>
-    <mergeCell ref="E1556:E1557"/>
-    <mergeCell ref="F1556:F1557"/>
-    <mergeCell ref="G1556:G1557"/>
-    <mergeCell ref="H1556:H1557"/>
-    <mergeCell ref="J1556:J1557"/>
-    <mergeCell ref="L1556:L1557"/>
-    <mergeCell ref="M1556:M1557"/>
-    <mergeCell ref="A1558:A1559"/>
-    <mergeCell ref="B1558:B1559"/>
-    <mergeCell ref="C1558:C1559"/>
-    <mergeCell ref="D1558:D1559"/>
-    <mergeCell ref="E1558:E1559"/>
-    <mergeCell ref="F1558:F1559"/>
-    <mergeCell ref="G1558:G1559"/>
-    <mergeCell ref="H1558:H1559"/>
-    <mergeCell ref="J1558:J1559"/>
-    <mergeCell ref="L1558:L1559"/>
-    <mergeCell ref="M1558:M1559"/>
-    <mergeCell ref="A1560:A1561"/>
-    <mergeCell ref="B1560:B1561"/>
-    <mergeCell ref="C1560:C1561"/>
-    <mergeCell ref="D1560:D1561"/>
-    <mergeCell ref="E1560:E1561"/>
-    <mergeCell ref="F1560:F1561"/>
-    <mergeCell ref="G1560:G1561"/>
-    <mergeCell ref="H1560:H1561"/>
-    <mergeCell ref="J1560:J1561"/>
-    <mergeCell ref="L1560:L1561"/>
-    <mergeCell ref="M1560:M1561"/>
-    <mergeCell ref="A1562:A1563"/>
-    <mergeCell ref="B1562:B1563"/>
-    <mergeCell ref="C1562:C1563"/>
-    <mergeCell ref="D1562:D1563"/>
-    <mergeCell ref="E1562:E1563"/>
-    <mergeCell ref="F1562:F1563"/>
-    <mergeCell ref="G1562:G1563"/>
-    <mergeCell ref="H1562:H1563"/>
-    <mergeCell ref="J1562:J1563"/>
-    <mergeCell ref="L1562:L1563"/>
-    <mergeCell ref="M1562:M1563"/>
-    <mergeCell ref="A1564:A1565"/>
-    <mergeCell ref="B1564:B1565"/>
-    <mergeCell ref="C1564:C1565"/>
-    <mergeCell ref="D1564:D1565"/>
-    <mergeCell ref="E1564:E1565"/>
-    <mergeCell ref="F1564:F1565"/>
-    <mergeCell ref="G1564:G1565"/>
-    <mergeCell ref="H1564:H1565"/>
-    <mergeCell ref="J1564:J1565"/>
-    <mergeCell ref="L1564:L1565"/>
-    <mergeCell ref="M1564:M1565"/>
-    <mergeCell ref="A1566:A1567"/>
-    <mergeCell ref="B1566:B1567"/>
-    <mergeCell ref="C1566:C1567"/>
-    <mergeCell ref="D1566:D1567"/>
-    <mergeCell ref="E1566:E1567"/>
-    <mergeCell ref="F1566:F1567"/>
-    <mergeCell ref="G1566:G1567"/>
-    <mergeCell ref="H1566:H1567"/>
-    <mergeCell ref="J1566:J1567"/>
-    <mergeCell ref="L1566:L1567"/>
-    <mergeCell ref="M1566:M1567"/>
-    <mergeCell ref="A1568:A1569"/>
-    <mergeCell ref="B1568:B1569"/>
-    <mergeCell ref="C1568:C1569"/>
-    <mergeCell ref="D1568:D1569"/>
-    <mergeCell ref="E1568:E1569"/>
-    <mergeCell ref="F1568:F1569"/>
-    <mergeCell ref="G1568:G1569"/>
-    <mergeCell ref="H1568:H1569"/>
-    <mergeCell ref="J1568:J1569"/>
-    <mergeCell ref="L1568:L1569"/>
-    <mergeCell ref="M1568:M1569"/>
-    <mergeCell ref="A1570:A1571"/>
-    <mergeCell ref="B1570:B1571"/>
-    <mergeCell ref="C1570:C1571"/>
-    <mergeCell ref="D1570:D1571"/>
-    <mergeCell ref="E1570:E1571"/>
-    <mergeCell ref="F1570:F1571"/>
-    <mergeCell ref="G1570:G1571"/>
-    <mergeCell ref="H1570:H1571"/>
-    <mergeCell ref="J1570:J1571"/>
-    <mergeCell ref="L1570:L1571"/>
-    <mergeCell ref="M1570:M1571"/>
-    <mergeCell ref="A1572:A1573"/>
-    <mergeCell ref="B1572:B1573"/>
-    <mergeCell ref="C1572:C1573"/>
-    <mergeCell ref="D1572:D1573"/>
-    <mergeCell ref="E1572:E1573"/>
-    <mergeCell ref="F1572:F1573"/>
-    <mergeCell ref="G1572:G1573"/>
-    <mergeCell ref="H1572:H1573"/>
-    <mergeCell ref="J1572:J1573"/>
-    <mergeCell ref="L1572:L1573"/>
-    <mergeCell ref="M1572:M1573"/>
-    <mergeCell ref="A1577:A1581"/>
-    <mergeCell ref="B1577:B1581"/>
-    <mergeCell ref="C1577:C1581"/>
-    <mergeCell ref="D1577:D1581"/>
-    <mergeCell ref="E1577:E1581"/>
-    <mergeCell ref="F1577:F1581"/>
-    <mergeCell ref="G1577:G1581"/>
-    <mergeCell ref="H1577:H1581"/>
-    <mergeCell ref="J1577:J1581"/>
-    <mergeCell ref="L1577:L1581"/>
-    <mergeCell ref="M1577:M1581"/>
-    <mergeCell ref="A1582:A1586"/>
-    <mergeCell ref="B1582:B1586"/>
-    <mergeCell ref="C1582:C1586"/>
-    <mergeCell ref="D1582:D1586"/>
-    <mergeCell ref="E1582:E1586"/>
-    <mergeCell ref="F1582:F1586"/>
-    <mergeCell ref="G1582:G1586"/>
-    <mergeCell ref="H1582:H1586"/>
-    <mergeCell ref="J1582:J1586"/>
-    <mergeCell ref="L1582:L1586"/>
-    <mergeCell ref="M1582:M1586"/>
-    <mergeCell ref="A1587:A1591"/>
-    <mergeCell ref="B1587:B1591"/>
-    <mergeCell ref="C1587:C1591"/>
-    <mergeCell ref="D1587:D1591"/>
-    <mergeCell ref="E1587:E1591"/>
-    <mergeCell ref="F1587:F1591"/>
-    <mergeCell ref="G1587:G1591"/>
-    <mergeCell ref="H1587:H1591"/>
-    <mergeCell ref="J1587:J1591"/>
-    <mergeCell ref="L1587:L1591"/>
-    <mergeCell ref="M1587:M1591"/>
-    <mergeCell ref="A1594:A1598"/>
-    <mergeCell ref="B1594:B1598"/>
-    <mergeCell ref="C1594:C1598"/>
-    <mergeCell ref="D1594:D1598"/>
-    <mergeCell ref="E1594:E1598"/>
-    <mergeCell ref="F1594:F1598"/>
-    <mergeCell ref="G1594:G1598"/>
-    <mergeCell ref="H1594:H1598"/>
-    <mergeCell ref="J1594:J1598"/>
-    <mergeCell ref="L1594:L1598"/>
-    <mergeCell ref="M1594:M1598"/>
-    <mergeCell ref="A1599:A1603"/>
-    <mergeCell ref="B1599:B1603"/>
-    <mergeCell ref="C1599:C1603"/>
-    <mergeCell ref="D1599:D1603"/>
-    <mergeCell ref="E1599:E1603"/>
-    <mergeCell ref="F1599:F1603"/>
-    <mergeCell ref="G1599:G1603"/>
-    <mergeCell ref="H1599:H1603"/>
-    <mergeCell ref="J1599:J1603"/>
-    <mergeCell ref="L1599:L1603"/>
-    <mergeCell ref="M1599:M1603"/>
-    <mergeCell ref="A1604:A1605"/>
-    <mergeCell ref="B1604:B1605"/>
-    <mergeCell ref="C1604:C1605"/>
-    <mergeCell ref="D1604:D1605"/>
-    <mergeCell ref="E1604:E1605"/>
-    <mergeCell ref="F1604:F1605"/>
-    <mergeCell ref="G1604:G1605"/>
-    <mergeCell ref="H1604:H1605"/>
-    <mergeCell ref="J1604:J1605"/>
-    <mergeCell ref="L1604:L1605"/>
-    <mergeCell ref="M1604:M1605"/>
+    <mergeCell ref="A1544:A1549"/>
+    <mergeCell ref="B1544:B1549"/>
+    <mergeCell ref="C1544:C1549"/>
+    <mergeCell ref="E1544:E1549"/>
+    <mergeCell ref="F1544:F1549"/>
+    <mergeCell ref="G1544:G1549"/>
+    <mergeCell ref="H1544:H1549"/>
+    <mergeCell ref="J1544:J1549"/>
+    <mergeCell ref="L1544:L1549"/>
+    <mergeCell ref="M1544:M1549"/>
+    <mergeCell ref="A1550:A1555"/>
+    <mergeCell ref="B1550:B1555"/>
+    <mergeCell ref="C1550:C1555"/>
+    <mergeCell ref="D1550:D1555"/>
+    <mergeCell ref="E1550:E1555"/>
+    <mergeCell ref="F1550:F1555"/>
+    <mergeCell ref="G1550:G1555"/>
+    <mergeCell ref="H1550:H1555"/>
+    <mergeCell ref="J1550:J1555"/>
+    <mergeCell ref="L1550:L1555"/>
+    <mergeCell ref="M1550:M1555"/>
+    <mergeCell ref="A1556:A1561"/>
+    <mergeCell ref="B1556:B1561"/>
+    <mergeCell ref="C1556:C1561"/>
+    <mergeCell ref="D1556:D1561"/>
+    <mergeCell ref="E1556:E1561"/>
+    <mergeCell ref="F1556:F1561"/>
+    <mergeCell ref="G1556:G1561"/>
+    <mergeCell ref="H1556:H1561"/>
+    <mergeCell ref="J1556:J1561"/>
+    <mergeCell ref="L1556:L1561"/>
+    <mergeCell ref="M1556:M1561"/>
+    <mergeCell ref="A1562:A1567"/>
+    <mergeCell ref="B1562:B1567"/>
+    <mergeCell ref="C1562:C1567"/>
+    <mergeCell ref="E1562:E1567"/>
+    <mergeCell ref="F1562:F1567"/>
+    <mergeCell ref="G1562:G1567"/>
+    <mergeCell ref="H1562:H1567"/>
+    <mergeCell ref="J1562:J1567"/>
+    <mergeCell ref="L1562:L1567"/>
+    <mergeCell ref="M1562:M1567"/>
+    <mergeCell ref="A1568:A1570"/>
+    <mergeCell ref="B1568:B1570"/>
+    <mergeCell ref="C1568:C1570"/>
+    <mergeCell ref="D1568:D1570"/>
+    <mergeCell ref="E1568:E1570"/>
+    <mergeCell ref="F1568:F1570"/>
+    <mergeCell ref="G1568:G1570"/>
+    <mergeCell ref="H1568:H1570"/>
+    <mergeCell ref="J1568:J1570"/>
+    <mergeCell ref="L1568:L1570"/>
+    <mergeCell ref="M1568:M1570"/>
+    <mergeCell ref="A1571:A1573"/>
+    <mergeCell ref="B1571:B1573"/>
+    <mergeCell ref="C1571:C1573"/>
+    <mergeCell ref="D1571:D1573"/>
+    <mergeCell ref="E1571:E1573"/>
+    <mergeCell ref="F1571:F1573"/>
+    <mergeCell ref="G1571:G1573"/>
+    <mergeCell ref="H1571:H1573"/>
+    <mergeCell ref="J1571:J1573"/>
+    <mergeCell ref="L1571:L1573"/>
+    <mergeCell ref="M1571:M1573"/>
+    <mergeCell ref="A1574:A1576"/>
+    <mergeCell ref="B1574:B1576"/>
+    <mergeCell ref="C1574:C1576"/>
+    <mergeCell ref="D1574:D1576"/>
+    <mergeCell ref="E1574:E1576"/>
+    <mergeCell ref="F1574:F1576"/>
+    <mergeCell ref="G1574:G1576"/>
+    <mergeCell ref="H1574:H1576"/>
+    <mergeCell ref="J1574:J1576"/>
+    <mergeCell ref="L1574:L1576"/>
+    <mergeCell ref="M1574:M1576"/>
+    <mergeCell ref="A1577:A1579"/>
+    <mergeCell ref="B1577:B1579"/>
+    <mergeCell ref="C1577:C1579"/>
+    <mergeCell ref="D1577:D1579"/>
+    <mergeCell ref="E1577:E1579"/>
+    <mergeCell ref="F1577:F1579"/>
+    <mergeCell ref="G1577:G1579"/>
+    <mergeCell ref="H1577:H1579"/>
+    <mergeCell ref="J1577:J1579"/>
+    <mergeCell ref="L1577:L1579"/>
+    <mergeCell ref="M1577:M1579"/>
+    <mergeCell ref="A1580:A1581"/>
+    <mergeCell ref="B1580:B1581"/>
+    <mergeCell ref="C1580:C1581"/>
+    <mergeCell ref="D1580:D1581"/>
+    <mergeCell ref="E1580:E1581"/>
+    <mergeCell ref="F1580:F1581"/>
+    <mergeCell ref="G1580:G1581"/>
+    <mergeCell ref="H1580:H1581"/>
+    <mergeCell ref="J1580:J1581"/>
+    <mergeCell ref="L1580:L1581"/>
+    <mergeCell ref="M1580:M1581"/>
+    <mergeCell ref="A1582:A1583"/>
+    <mergeCell ref="B1582:B1583"/>
+    <mergeCell ref="C1582:C1583"/>
+    <mergeCell ref="D1582:D1583"/>
+    <mergeCell ref="E1582:E1583"/>
+    <mergeCell ref="F1582:F1583"/>
+    <mergeCell ref="G1582:G1583"/>
+    <mergeCell ref="H1582:H1583"/>
+    <mergeCell ref="J1582:J1583"/>
+    <mergeCell ref="L1582:L1583"/>
+    <mergeCell ref="M1582:M1583"/>
+    <mergeCell ref="A1584:A1585"/>
+    <mergeCell ref="B1584:B1585"/>
+    <mergeCell ref="C1584:C1585"/>
+    <mergeCell ref="D1584:D1585"/>
+    <mergeCell ref="E1584:E1585"/>
+    <mergeCell ref="F1584:F1585"/>
+    <mergeCell ref="G1584:G1585"/>
+    <mergeCell ref="H1584:H1585"/>
+    <mergeCell ref="J1584:J1585"/>
+    <mergeCell ref="L1584:L1585"/>
+    <mergeCell ref="M1584:M1585"/>
+    <mergeCell ref="A1586:A1587"/>
+    <mergeCell ref="B1586:B1587"/>
+    <mergeCell ref="C1586:C1587"/>
+    <mergeCell ref="D1586:D1587"/>
+    <mergeCell ref="E1586:E1587"/>
+    <mergeCell ref="F1586:F1587"/>
+    <mergeCell ref="G1586:G1587"/>
+    <mergeCell ref="H1586:H1587"/>
+    <mergeCell ref="J1586:J1587"/>
+    <mergeCell ref="L1586:L1587"/>
+    <mergeCell ref="M1586:M1587"/>
+    <mergeCell ref="A1588:A1589"/>
+    <mergeCell ref="B1588:B1589"/>
+    <mergeCell ref="C1588:C1589"/>
+    <mergeCell ref="D1588:D1589"/>
+    <mergeCell ref="E1588:E1589"/>
+    <mergeCell ref="F1588:F1589"/>
+    <mergeCell ref="G1588:G1589"/>
+    <mergeCell ref="H1588:H1589"/>
+    <mergeCell ref="J1588:J1589"/>
+    <mergeCell ref="L1588:L1589"/>
+    <mergeCell ref="M1588:M1589"/>
+    <mergeCell ref="A1590:A1591"/>
+    <mergeCell ref="B1590:B1591"/>
+    <mergeCell ref="C1590:C1591"/>
+    <mergeCell ref="D1590:D1591"/>
+    <mergeCell ref="E1590:E1591"/>
+    <mergeCell ref="F1590:F1591"/>
+    <mergeCell ref="G1590:G1591"/>
+    <mergeCell ref="H1590:H1591"/>
+    <mergeCell ref="J1590:J1591"/>
+    <mergeCell ref="L1590:L1591"/>
+    <mergeCell ref="M1590:M1591"/>
+    <mergeCell ref="A1592:A1593"/>
+    <mergeCell ref="B1592:B1593"/>
+    <mergeCell ref="C1592:C1593"/>
+    <mergeCell ref="D1592:D1593"/>
+    <mergeCell ref="E1592:E1593"/>
+    <mergeCell ref="F1592:F1593"/>
+    <mergeCell ref="G1592:G1593"/>
+    <mergeCell ref="H1592:H1593"/>
+    <mergeCell ref="J1592:J1593"/>
+    <mergeCell ref="L1592:L1593"/>
+    <mergeCell ref="M1592:M1593"/>
+    <mergeCell ref="A1594:A1595"/>
+    <mergeCell ref="B1594:B1595"/>
+    <mergeCell ref="C1594:C1595"/>
+    <mergeCell ref="D1594:D1595"/>
+    <mergeCell ref="E1594:E1595"/>
+    <mergeCell ref="F1594:F1595"/>
+    <mergeCell ref="G1594:G1595"/>
+    <mergeCell ref="H1594:H1595"/>
+    <mergeCell ref="J1594:J1595"/>
+    <mergeCell ref="L1594:L1595"/>
+    <mergeCell ref="M1594:M1595"/>
+    <mergeCell ref="A1596:A1597"/>
+    <mergeCell ref="B1596:B1597"/>
+    <mergeCell ref="C1596:C1597"/>
+    <mergeCell ref="D1596:D1597"/>
+    <mergeCell ref="E1596:E1597"/>
+    <mergeCell ref="F1596:F1597"/>
+    <mergeCell ref="G1596:G1597"/>
+    <mergeCell ref="H1596:H1597"/>
+    <mergeCell ref="J1596:J1597"/>
+    <mergeCell ref="L1596:L1597"/>
+    <mergeCell ref="M1596:M1597"/>
+    <mergeCell ref="A1601:A1605"/>
+    <mergeCell ref="B1601:B1605"/>
+    <mergeCell ref="C1601:C1605"/>
+    <mergeCell ref="D1601:D1605"/>
+    <mergeCell ref="E1601:E1605"/>
+    <mergeCell ref="F1601:F1605"/>
+    <mergeCell ref="G1601:G1605"/>
+    <mergeCell ref="H1601:H1605"/>
+    <mergeCell ref="J1601:J1605"/>
+    <mergeCell ref="L1601:L1605"/>
+    <mergeCell ref="M1601:M1605"/>
+    <mergeCell ref="A1606:A1610"/>
+    <mergeCell ref="B1606:B1610"/>
+    <mergeCell ref="C1606:C1610"/>
+    <mergeCell ref="D1606:D1610"/>
+    <mergeCell ref="E1606:E1610"/>
+    <mergeCell ref="F1606:F1610"/>
+    <mergeCell ref="G1606:G1610"/>
+    <mergeCell ref="H1606:H1610"/>
+    <mergeCell ref="J1606:J1610"/>
+    <mergeCell ref="L1606:L1610"/>
+    <mergeCell ref="M1606:M1610"/>
+    <mergeCell ref="A1611:A1615"/>
+    <mergeCell ref="B1611:B1615"/>
+    <mergeCell ref="C1611:C1615"/>
+    <mergeCell ref="D1611:D1615"/>
+    <mergeCell ref="E1611:E1615"/>
+    <mergeCell ref="F1611:F1615"/>
+    <mergeCell ref="G1611:G1615"/>
+    <mergeCell ref="H1611:H1615"/>
+    <mergeCell ref="J1611:J1615"/>
+    <mergeCell ref="L1611:L1615"/>
+    <mergeCell ref="M1611:M1615"/>
+    <mergeCell ref="A1618:A1622"/>
+    <mergeCell ref="B1618:B1622"/>
+    <mergeCell ref="C1618:C1622"/>
+    <mergeCell ref="D1618:D1622"/>
+    <mergeCell ref="E1618:E1622"/>
+    <mergeCell ref="F1618:F1622"/>
+    <mergeCell ref="G1618:G1622"/>
+    <mergeCell ref="H1618:H1622"/>
+    <mergeCell ref="J1618:J1622"/>
+    <mergeCell ref="L1618:L1622"/>
+    <mergeCell ref="M1618:M1622"/>
+    <mergeCell ref="A1623:A1627"/>
+    <mergeCell ref="B1623:B1627"/>
+    <mergeCell ref="C1623:C1627"/>
+    <mergeCell ref="D1623:D1627"/>
+    <mergeCell ref="E1623:E1627"/>
+    <mergeCell ref="F1623:F1627"/>
+    <mergeCell ref="G1623:G1627"/>
+    <mergeCell ref="H1623:H1627"/>
+    <mergeCell ref="J1623:J1627"/>
+    <mergeCell ref="L1623:L1627"/>
+    <mergeCell ref="M1623:M1627"/>
+    <mergeCell ref="A1628:A1629"/>
+    <mergeCell ref="B1628:B1629"/>
+    <mergeCell ref="C1628:C1629"/>
+    <mergeCell ref="D1628:D1629"/>
+    <mergeCell ref="E1628:E1629"/>
+    <mergeCell ref="F1628:F1629"/>
+    <mergeCell ref="G1628:G1629"/>
+    <mergeCell ref="H1628:H1629"/>
+    <mergeCell ref="J1628:J1629"/>
+    <mergeCell ref="L1628:L1629"/>
+    <mergeCell ref="M1628:M1629"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A125" location="freitextfelder" display="Freitextfeld"/>
@@ -47067,17 +47705,17 @@
     <hyperlink ref="B1463" r:id="rId20" display="OECD-Quadratwurzel-Skala"/>
     <hyperlink ref="B1515" r:id="rId21" display="«easyvote»-Broschüre"/>
     <hyperlink ref="H1515" r:id="rId22" display="“easyvote” booklet"/>
-    <hyperlink ref="H1606" r:id="rId23" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="H1607" r:id="rId24" display="iterative proportional fitting procedure"/>
-    <hyperlink ref="A1610" location="fnref1" display="↩︎"/>
-    <hyperlink ref="A1612" location="fnref2" display="↩︎"/>
-    <hyperlink ref="A1614" location="fnref3" display="↩︎"/>
-    <hyperlink ref="A1616" location="fnref4" display="↩︎"/>
-    <hyperlink ref="A1618" location="fnref5" display="↩︎"/>
-    <hyperlink ref="A1620" location="fnref6" display="↩︎"/>
-    <hyperlink ref="A1622" location="fnref7" display="↩︎"/>
-    <hyperlink ref="A1634" location="fnref13" display="↩︎"/>
-    <hyperlink ref="A1636" location="fnref14" display="↩︎"/>
+    <hyperlink ref="H1630" r:id="rId23" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="H1631" r:id="rId24" display="iterative proportional fitting procedure"/>
+    <hyperlink ref="A1634" location="fnref1" display="↩︎"/>
+    <hyperlink ref="A1636" location="fnref2" display="↩︎"/>
+    <hyperlink ref="A1638" location="fnref3" display="↩︎"/>
+    <hyperlink ref="A1640" location="fnref4" display="↩︎"/>
+    <hyperlink ref="A1642" location="fnref5" display="↩︎"/>
+    <hyperlink ref="A1644" location="fnref6" display="↩︎"/>
+    <hyperlink ref="A1646" location="fnref7" display="↩︎"/>
+    <hyperlink ref="A1658" location="fnref13" display="↩︎"/>
+    <hyperlink ref="A1660" location="fnref14" display="↩︎"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
